--- a/dajiaxue/dajiaxue.xlsx
+++ b/dajiaxue/dajiaxue.xlsx
@@ -278,7 +278,7 @@
     <t>scarf</t>
   </si>
   <si>
-    <t>领巾</t>
+    <t xml:space="preserve">围巾、披巾、头巾 </t>
   </si>
   <si>
     <t>ネクタイ</t>

--- a/dajiaxue/dajiaxue.xlsx
+++ b/dajiaxue/dajiaxue.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huaw\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8735E6-97F0-47FB-9664-1C3B47738310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="5100" yWindow="585" windowWidth="15300" windowHeight="7875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="1"/>
-    <sheet r:id="rId2" sheetId="2" name="2"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="2" r:id="rId2"/>
+    <sheet name="3" sheetId="3" r:id="rId3"/>
+    <sheet name="4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="529">
   <si>
     <t>おおきい</t>
   </si>
@@ -869,10 +877,10 @@
     <t>您几岁</t>
   </si>
   <si>
-    <t>おくにはどちらですが</t>
-  </si>
-  <si>
-    <t>お国はどちらですが</t>
+    <t>おくにはどちらですか</t>
+  </si>
+  <si>
+    <t>お国はどちらですか</t>
   </si>
   <si>
     <t>是哪里人?</t>
@@ -887,40 +895,971 @@
     <t>来自～</t>
   </si>
   <si>
-    <t>どんなかんじでいか</t>
-  </si>
-  <si>
-    <t>どんな漢字でいか</t>
+    <t>どんなかんじですか</t>
+  </si>
+  <si>
+    <t>どんな漢字ですか</t>
   </si>
   <si>
     <t>是哪一个汉字</t>
   </si>
   <si>
-    <t>～おしえてください</t>
-  </si>
-  <si>
-    <t>～お教えてください</t>
+    <t>～をおしえてください</t>
+  </si>
+  <si>
+    <t>～を教えてください</t>
   </si>
   <si>
     <t>请告诉我～</t>
+  </si>
+  <si>
+    <t>します</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょくじします</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>食事します</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>りょこうします</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行します</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>寝ます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>おきます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>起きます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>あいます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>会います</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>べんきょうします</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>勉強します</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>はたらきます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>働きます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>おわります</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>終わります</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ともだち</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>友達</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>えき</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>駅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>としょかん</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>図書館</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>りょこう</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>しごと</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>仕事</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>やすみ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>休み</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごぜん</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>午前</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごご</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>午後</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>あさ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひる</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>昼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>よる</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ばん</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>しんや</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>深夜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>みめい</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうちょう</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>早朝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆうがた</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>夕方</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>あした</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>明日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>どようび</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>土曜日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>にちようび</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日曜日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>らいげつ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>来月</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>まいばん</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>毎晩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>えいぎょうじかん</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>営業時間</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>まいにちえいぎょう</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>毎日営業</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>まえ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうこうじだい</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高校時代</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひがしぐち</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>東口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>にしぐち</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>西口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひとりで</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一人で</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっしょに</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一緒に</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>うん</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ええ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ようび</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>～曜日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>～じ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>～時</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>～から～まで</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>しんじゅく</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新宿</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>いいですね</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>すみません、ちょっと…</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゃ、また～</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>楽しみにしています</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>たのしみにしています</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうしましょう</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>做</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用餐、吃饭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡觉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>起床</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>见面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>念书、学习</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>朋友</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>车站</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书馆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息、休假日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>白天、中午</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上（よる的另一种说法）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌晨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>清晨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>傍晚</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>明天</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期六</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下个月</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天晚上</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天营业</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中时代</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>东口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个人、独自</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一起</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯（表示赞同）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯、好的（表示赞同）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期~</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>~点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>从~开始到~为止</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>好呀、不错耶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对不起，有点…</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>那么，~的时候再见</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我很期待着</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>就这么做吧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>まちます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>待ちます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>いきます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>行きます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>きます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>来ます</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>かえります</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰ります</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>びょういん</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>病院</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>がっこう</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>うち</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>家</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>レストラン</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>restaurant</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>こっち</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>でんしゃ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>電車</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>タクシー</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>バス</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>じてんしゃ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自転車</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふね</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>船</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>くに</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>国</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>らいねん</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>来年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょう</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>きのう</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>たんじょうび</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>誕生日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>あるいて</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>歩いて</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>それから</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうやって</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>いつ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>なん</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>何</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>～がつ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>～月</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>～にち</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>～日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>おきなわ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>沖縄</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>いけぶくろ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>池袋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>きんかくじ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金閣寺</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>こんにちは</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>おきをつけて</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>お気をつけて</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>いかがですか</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>たのしみですね</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>楽しみですね</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>おまたせしました</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>お待たせしました</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>いえ、そんなに</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>去</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>来</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>回去</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐厅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电车</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出租车</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交车</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自行车</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>明年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>走路</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么做…</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么时候</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>~月</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>~号、~日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲绳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金阁寺</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>您好</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请小心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>很期待耶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>让你久等了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不，没有那么</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -933,14 +1872,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -970,53 +1924,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1027,10 +1972,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1068,71 +2013,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1160,7 +2105,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1183,11 +2128,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1196,13 +2141,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1212,7 +2157,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1221,7 +2166,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1230,7 +2175,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1238,10 +2183,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1306,1533 +2251,2653 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" style="11" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="37.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="40.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="7">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A1" s="6">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="7">
+    <row r="2" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A2" s="6">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="7">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="7">
+    <row r="4" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="7">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="7">
+    <row r="6" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A6" s="6">
         <v>0</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
-      <c r="A7" s="7">
+    <row r="7" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="7">
+    <row r="8" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
-      <c r="A9" s="7">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
-      <c r="A10" s="7">
+    <row r="10" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A10" s="6">
         <v>0</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>198</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
-      <c r="A11" s="7">
+    <row r="11" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A11" s="6">
         <v>1</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>201</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
-      <c r="A12" s="7">
+    <row r="12" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A12" s="6">
         <v>0</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
-      <c r="A13" s="7">
+    <row r="13" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A13" s="6">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>206</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
-      <c r="A14" s="7">
+    <row r="14" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A14" s="6">
         <v>4</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
-      <c r="A15" s="7">
+    <row r="15" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A15" s="6">
         <v>3</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>211</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
-      <c r="A16" s="7">
+    <row r="16" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A16" s="6">
         <v>0</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>213</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="24.75">
-      <c r="A17" s="7">
+    <row r="17" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A17" s="6">
         <v>0</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="24.75">
-      <c r="A18" s="7">
+    <row r="18" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A18" s="6">
         <v>0</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>219</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24.75">
-      <c r="A19" s="7">
+    <row r="19" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A19" s="6">
         <v>5</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>222</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.75">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A20" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>226</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="10">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A21" s="9">
         <v>3</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>229</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="10">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A22" s="9">
         <v>1</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>232</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="10">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A23" s="9">
         <v>1</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s">
         <v>235</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="10">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A24" s="9">
         <v>1</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="10">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A25" s="9">
         <v>0</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
         <v>240</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="10">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A26" s="9">
         <v>1</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" t="s">
         <v>243</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="10">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A27" s="9">
         <v>4</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" t="s">
         <v>246</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="10">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A28" s="9">
         <v>3</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
         <v>249</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="10">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A29" s="9">
         <v>1</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="2" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" t="s">
         <v>251</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="10">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A30" s="9">
         <v>3</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="2" t="s">
+      <c r="C30" s="1"/>
+      <c r="D30" t="s">
         <v>253</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="10">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A31" s="9">
         <v>1</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" t="s">
         <v>256</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="7"/>
-      <c r="B32" s="3" t="s">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="2" t="s">
+      <c r="C32" s="1"/>
+      <c r="D32" t="s">
         <v>258</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="24.75">
-      <c r="A33" s="7"/>
-      <c r="B33" s="3" t="s">
+    <row r="33" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="2" t="s">
+      <c r="C33" s="1"/>
+      <c r="D33" t="s">
         <v>260</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="24.75">
-      <c r="A34" s="7">
+    <row r="34" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A34" s="6">
         <v>3</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" t="s">
         <v>263</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="24.75">
-      <c r="A35" s="7">
+    <row r="35" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A35" s="6">
         <v>0</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="2" t="s">
+      <c r="C35" s="1"/>
+      <c r="D35" t="s">
         <v>265</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="24.75">
-      <c r="A36" s="7">
+    <row r="36" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A36" s="6">
         <v>4</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" t="s">
         <v>267</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="24.75">
-      <c r="A37" s="7">
+    <row r="37" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A37" s="6">
         <v>5</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" t="s">
         <v>270</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="24.75">
-      <c r="A38" s="7"/>
-      <c r="B38" s="3" t="s">
+    <row r="38" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A38" s="6"/>
+      <c r="B38" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="2" t="s">
+      <c r="C38" s="1"/>
+      <c r="D38" t="s">
         <v>272</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.75">
-      <c r="A39" s="7"/>
-      <c r="B39" s="3" t="s">
+    <row r="39" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A39" s="6"/>
+      <c r="B39" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" t="s">
         <v>275</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="24.75">
-      <c r="A40" s="7"/>
-      <c r="B40" s="3" t="s">
+    <row r="40" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A40" s="6"/>
+      <c r="B40" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s">
         <v>278</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="24.75">
-      <c r="A41" s="7"/>
-      <c r="B41" s="3" t="s">
+    <row r="41" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A41" s="6"/>
+      <c r="B41" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" t="s">
         <v>281</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="24.75">
-      <c r="A42" s="7"/>
-      <c r="B42" s="3" t="s">
+    <row r="42" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A42" s="6"/>
+      <c r="B42" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="2" t="s">
+      <c r="C42" s="1"/>
+      <c r="D42" t="s">
         <v>283</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="24.75">
-      <c r="A43" s="7"/>
-      <c r="B43" s="3" t="s">
+    <row r="43" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A43" s="6"/>
+      <c r="B43" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" t="s">
         <v>286</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="24.75">
-      <c r="A44" s="7"/>
-      <c r="B44" s="3" t="s">
+    <row r="44" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A44" s="6"/>
+      <c r="B44" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" t="s">
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="24.75">
-      <c r="A45" s="7"/>
-      <c r="B45" s="3" t="s">
+    <row r="45" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A45" s="6"/>
+      <c r="B45" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" t="s">
         <v>292</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="24.75">
-      <c r="A46" s="7"/>
-      <c r="B46" s="3" t="s">
+    <row r="46" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A46" s="6"/>
+      <c r="B46" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" t="s">
         <v>295</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
-      <c r="A1" s="1">
+    <row r="1" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A1" s="6">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="24.75">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A3" s="6">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A4" s="6">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24.75">
-      <c r="A5" s="1">
+    <row r="5" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24.75">
-      <c r="A6" s="1">
+    <row r="6" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A6" s="6">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
-      <c r="A7" s="1">
+    <row r="7" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A7" s="6">
         <v>0</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24.75">
-      <c r="A8" s="1">
+    <row r="8" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A8" s="6">
         <v>0</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
-      <c r="A9" s="1">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
-      <c r="A10" s="1">
+    <row r="10" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A10" s="6">
         <v>0</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
-      <c r="A11" s="1">
+    <row r="11" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A11" s="6">
         <v>0</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
-      <c r="A12" s="1">
+    <row r="12" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A12" s="6">
         <v>0</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
-      <c r="A13" s="1">
+    <row r="13" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A13" s="6">
         <v>1</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
-      <c r="A14" s="1">
+    <row r="14" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A14" s="6">
         <v>0</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
-      <c r="A15" s="1">
+    <row r="15" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A15" s="6">
         <v>0</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
-      <c r="A16" s="1">
+    <row r="16" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A16" s="6">
         <v>0</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A17" s="6">
         <v>1</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A18" s="6">
         <v>1</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A19" s="6">
         <v>3</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A20" s="6">
         <v>0</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A21" s="6">
         <v>0</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1">
+    <row r="22" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A22" s="6">
         <v>2</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="1">
+    <row r="23" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A23" s="6">
         <v>0</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="1">
+    <row r="24" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A24" s="6">
         <v>0</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="1">
+    <row r="25" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A25" s="6">
         <v>1</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="1">
+    <row r="26" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A26" s="6">
         <v>1</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1">
+    <row r="27" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A27" s="6">
         <v>0</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" t="s">
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="1">
+    <row r="28" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A28" s="6">
         <v>1</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="1">
+    <row r="29" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A29" s="6">
         <v>3</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" t="s">
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="1">
+    <row r="30" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A30" s="6">
         <v>3</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="1">
+    <row r="31" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A31" s="6">
         <v>0</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="1">
+    <row r="32" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A32" s="6">
         <v>0</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" t="s">
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="1">
+    <row r="33" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A33" s="6">
         <v>2</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="1">
+    <row r="34" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A34" s="6">
         <v>3</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="1">
+    <row r="35" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A35" s="6">
         <v>2</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" t="s">
         <v>87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="1">
+    <row r="36" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A36" s="6">
         <v>1</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" t="s">
         <v>90</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="1">
+    <row r="37" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A37" s="6">
         <v>1</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" t="s">
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="1">
+    <row r="38" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A38" s="6">
         <v>0</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" t="s">
         <v>96</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="1">
+    <row r="39" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A39" s="6">
         <v>1</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" t="s">
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="1">
+    <row r="40" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A40" s="6">
         <v>1</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s">
         <v>101</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="1">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A41" s="6">
         <v>1</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
+      <c r="D41" t="s">
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="1">
+    <row r="42" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A42" s="6">
         <v>1</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2" t="s">
+      <c r="D42" t="s">
         <v>105</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="1">
+    <row r="43" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A43" s="6">
         <v>0</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2" t="s">
+      <c r="D43" t="s">
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="1">
+    <row r="44" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A44" s="6">
         <v>1</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
+      <c r="D44" t="s">
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="1">
+    <row r="45" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A45" s="6">
         <v>1</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2" t="s">
+      <c r="D45" t="s">
         <v>111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="1">
+    <row r="46" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A46" s="6">
         <v>1</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
+      <c r="D46" t="s">
         <v>113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="1">
+    <row r="47" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A47" s="6">
         <v>1</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" t="s">
         <v>115</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="1">
+    <row r="48" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A48" s="6">
         <v>1</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" t="s">
         <v>117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="1">
+    <row r="49" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A49" s="6">
         <v>2</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" t="s">
         <v>119</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="1">
+    <row r="50" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A50" s="6">
         <v>1</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" t="s">
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="4"/>
-      <c r="B51" s="3" t="s">
+    <row r="51" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A51" s="6"/>
+      <c r="B51" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" t="s">
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="1">
+    <row r="52" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A52" s="6">
         <v>1</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" t="s">
         <v>127</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="1">
+    <row r="53" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A53" s="6">
         <v>1</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" t="s">
         <v>130</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="1">
+    <row r="54" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A54" s="6">
         <v>1</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" t="s">
         <v>133</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="1">
+    <row r="55" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A55" s="6">
         <v>1</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" t="s">
         <v>136</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="1">
+    <row r="56" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A56" s="6">
         <v>1</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" t="s">
         <v>139</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="1">
+    <row r="57" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A57" s="6">
         <v>0</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" t="s">
         <v>142</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="1">
+    <row r="58" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A58" s="6">
         <v>1</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" t="s">
         <v>145</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="1">
+    <row r="59" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A59" s="6">
         <v>1</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" t="s">
         <v>147</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" t="s">
         <v>147</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="4"/>
-      <c r="B60" s="3" t="s">
+    <row r="60" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A60" s="6"/>
+      <c r="B60" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2" t="s">
+      <c r="D60" t="s">
         <v>149</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="4"/>
-      <c r="B61" s="3" t="s">
+    <row r="61" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A61" s="6"/>
+      <c r="B61" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2" t="s">
+      <c r="D61" t="s">
         <v>151</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="4"/>
-      <c r="B62" s="3" t="s">
+    <row r="62" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A62" s="6"/>
+      <c r="B62" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2" t="s">
+      <c r="D62" t="s">
         <v>153</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="4"/>
-      <c r="B63" s="3" t="s">
+    <row r="63" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A63" s="6"/>
+      <c r="B63" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2" t="s">
+      <c r="D63" t="s">
         <v>155</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="4"/>
-      <c r="B64" s="3" t="s">
+    <row r="64" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A64" s="6"/>
+      <c r="B64" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" t="s">
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="4"/>
-      <c r="B65" s="3" t="s">
+    <row r="65" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A65" s="6"/>
+      <c r="B65" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2" t="s">
+      <c r="D65" t="s">
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="4"/>
-      <c r="B66" s="3" t="s">
+    <row r="66" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A66" s="6"/>
+      <c r="B66" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2" t="s">
+      <c r="D66" t="s">
         <v>162</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="4"/>
-      <c r="B67" s="3" t="s">
+    <row r="67" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A67" s="6"/>
+      <c r="B67" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2" t="s">
+      <c r="D67" t="s">
         <v>164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="4"/>
-      <c r="B68" s="3" t="s">
+    <row r="68" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A68" s="6"/>
+      <c r="B68" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" t="s">
         <v>166</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" t="s">
         <v>167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="4"/>
-      <c r="B69" s="3" t="s">
+    <row r="69" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A69" s="6"/>
+      <c r="B69" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2" t="s">
+      <c r="D69" t="s">
         <v>169</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0329FFBE-FDCF-4609-83B4-F1768B8C3134}">
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView topLeftCell="B39" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="8.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="5">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75">
+      <c r="A2" s="5">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75">
+      <c r="A10" s="5">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D12" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75">
+      <c r="A13" s="5">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75">
+      <c r="A14" s="5">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D14" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75">
+      <c r="A15" s="5">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D17" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75">
+      <c r="A18" s="5">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75">
+      <c r="A19" s="5">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D19" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75">
+      <c r="A20" s="5">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D20" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75">
+      <c r="A21" s="5">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D21" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.75">
+      <c r="A22" s="5">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D22" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.75">
+      <c r="A23" s="5">
+        <v>0</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.75">
+      <c r="A24" s="5">
+        <v>0</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D24" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.75">
+      <c r="A25" s="5">
+        <v>0</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D25" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.75">
+      <c r="A26" s="5">
+        <v>3</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D26" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.75">
+      <c r="A27" s="5">
+        <v>2</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D27" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.75">
+      <c r="A28" s="5">
+        <v>3</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D28" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.75">
+      <c r="A29" s="5">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D29" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18.75">
+      <c r="A30" s="5">
+        <v>1</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D30" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18.75">
+      <c r="A31" s="5">
+        <v>5</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D31" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18.75">
+      <c r="A32" s="5">
+        <v>1</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D32" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18.75">
+      <c r="A33" s="5">
+        <v>1</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D33" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.75">
+      <c r="A34" s="5">
+        <v>5</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D34" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18.75">
+      <c r="A35" s="5">
+        <v>0</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D35" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.75">
+      <c r="A36" s="5">
+        <v>0</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D36" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18.75">
+      <c r="A37" s="5">
+        <v>2</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D37" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18.75">
+      <c r="A38" s="5">
+        <v>0</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D38" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.75">
+      <c r="A39" s="5">
+        <v>1</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D39" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.75">
+      <c r="A40" s="5">
+        <v>1</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D40" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18.75">
+      <c r="A41" s="5">
+        <v>0</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D41" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18.75">
+      <c r="A42" s="5">
+        <v>0</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D42" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18.75">
+      <c r="A43" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D43" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.75">
+      <c r="A44" s="5">
+        <v>0</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D44" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18.75">
+      <c r="B45" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D45" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18.75">
+      <c r="B46" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D46" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18.75">
+      <c r="B47" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="D47" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18.75">
+      <c r="B48" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D48" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="18.75">
+      <c r="B49" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D49" t="s">
+        <v>431</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AD5EB8-14A1-465D-8ED8-C79787AC7425}">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.125" style="5" customWidth="1"/>
+    <col min="2" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="D1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75">
+      <c r="A2" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75">
+      <c r="A3" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75">
+      <c r="A5" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75">
+      <c r="A6" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="A7" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75">
+      <c r="A8" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D8" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="A9" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D9" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75">
+      <c r="A10" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D10" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75">
+      <c r="A11" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75">
+      <c r="A12" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D12" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75">
+      <c r="A13" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="D13" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75">
+      <c r="A14" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="D14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75">
+      <c r="A15" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D15" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75">
+      <c r="A16" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D16" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75">
+      <c r="A17" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D17" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75">
+      <c r="A18" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D18" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75">
+      <c r="A19" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D19" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75">
+      <c r="A20" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D20" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75">
+      <c r="A21" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D21" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.75">
+      <c r="A22" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D22" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.75">
+      <c r="A23" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="D23" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.75">
+      <c r="A24" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D24" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.75">
+      <c r="A25" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D25" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.75">
+      <c r="A26" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="D26" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.75">
+      <c r="A27" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="D27" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.75">
+      <c r="A28" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="D28" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.75">
+      <c r="A29" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="D29" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18.75">
+      <c r="B30" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D30" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18.75">
+      <c r="B31" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D31" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18.75">
+      <c r="B32" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="D32" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="18.75">
+      <c r="B33" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D33" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="18.75">
+      <c r="B34" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D34" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="18.75">
+      <c r="B35" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D35" t="s">
+        <v>528</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:A2 A3:A21 A22:A29" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/dajiaxue/dajiaxue.xlsx
+++ b/dajiaxue/dajiaxue.xlsx
@@ -337,91 +337,91 @@
     <t>旅行します</t>
   </si>
   <si>
+    <t>ねます</t>
+  </si>
+  <si>
+    <t>寝ます</t>
+  </si>
+  <si>
+    <t>睡觉</t>
+  </si>
+  <si>
+    <t>おきます</t>
+  </si>
+  <si>
+    <t>起きます</t>
+  </si>
+  <si>
+    <t>起床</t>
+  </si>
+  <si>
+    <t>あいます</t>
+  </si>
+  <si>
+    <t>会います</t>
+  </si>
+  <si>
+    <t>见面</t>
+  </si>
+  <si>
+    <t>べんきょうします</t>
+  </si>
+  <si>
+    <t>勉強します</t>
+  </si>
+  <si>
+    <t>念书、学习</t>
+  </si>
+  <si>
+    <t>はたらきます</t>
+  </si>
+  <si>
+    <t>働きます</t>
+  </si>
+  <si>
+    <t>工作（働）</t>
+  </si>
+  <si>
+    <t>おわります</t>
+  </si>
+  <si>
+    <t>終わります</t>
+  </si>
+  <si>
+    <t>结束</t>
+  </si>
+  <si>
+    <t>ともだち</t>
+  </si>
+  <si>
+    <t>友達</t>
+  </si>
+  <si>
+    <t>朋友</t>
+  </si>
+  <si>
+    <t>えき</t>
+  </si>
+  <si>
+    <t>駅</t>
+  </si>
+  <si>
+    <t>车站</t>
+  </si>
+  <si>
+    <t>としょかん</t>
+  </si>
+  <si>
+    <t>図書館</t>
+  </si>
+  <si>
+    <t>图书馆</t>
+  </si>
+  <si>
+    <t>りょこう</t>
+  </si>
+  <si>
     <t>旅行</t>
-  </si>
-  <si>
-    <t>ねます</t>
-  </si>
-  <si>
-    <t>寝ます</t>
-  </si>
-  <si>
-    <t>睡觉</t>
-  </si>
-  <si>
-    <t>おきます</t>
-  </si>
-  <si>
-    <t>起きます</t>
-  </si>
-  <si>
-    <t>起床</t>
-  </si>
-  <si>
-    <t>あいます</t>
-  </si>
-  <si>
-    <t>会います</t>
-  </si>
-  <si>
-    <t>见面</t>
-  </si>
-  <si>
-    <t>べんきょうします</t>
-  </si>
-  <si>
-    <t>勉強します</t>
-  </si>
-  <si>
-    <t>念书、学习</t>
-  </si>
-  <si>
-    <t>はたらきます</t>
-  </si>
-  <si>
-    <t>働きます</t>
-  </si>
-  <si>
-    <t>工作（働）</t>
-  </si>
-  <si>
-    <t>おわります</t>
-  </si>
-  <si>
-    <t>終わります</t>
-  </si>
-  <si>
-    <t>结束</t>
-  </si>
-  <si>
-    <t>ともだち</t>
-  </si>
-  <si>
-    <t>友達</t>
-  </si>
-  <si>
-    <t>朋友</t>
-  </si>
-  <si>
-    <t>えき</t>
-  </si>
-  <si>
-    <t>駅</t>
-  </si>
-  <si>
-    <t>车站</t>
-  </si>
-  <si>
-    <t>としょかん</t>
-  </si>
-  <si>
-    <t>図書館</t>
-  </si>
-  <si>
-    <t>图书馆</t>
-  </si>
-  <si>
-    <t>りょこう</t>
   </si>
   <si>
     <t>しごと</t>
@@ -1662,7 +1662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1673,11 +1673,11 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1685,23 +1685,17 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2017,20 +2011,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="9.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="37.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="40.57642857142857" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="7" width="16.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
-      <c r="A1" s="8">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>401</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2038,13 +2032,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
-      <c r="A2" s="8">
+      <c r="A2" s="4">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>404</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -2052,13 +2046,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
-      <c r="A3" s="8">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>407</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -2066,13 +2060,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -2080,13 +2074,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>413</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -2094,13 +2088,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
-      <c r="A6" s="8">
-        <v>0</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>416</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2108,7 +2102,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
-      <c r="A7" s="8">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2122,13 +2116,13 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
-      <c r="A8" s="8">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>421</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -2136,7 +2130,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
-      <c r="A9" s="8">
+      <c r="A9" s="4">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2150,7 +2144,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
-      <c r="A10" s="8">
+      <c r="A10" s="4">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2164,7 +2158,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
-      <c r="A11" s="8">
+      <c r="A11" s="4">
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2178,7 +2172,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
-      <c r="A12" s="8">
+      <c r="A12" s="4">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2192,7 +2186,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
-      <c r="A13" s="8">
+      <c r="A13" s="4">
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2206,7 +2200,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
-      <c r="A14" s="8">
+      <c r="A14" s="4">
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2220,7 +2214,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
-      <c r="A15" s="8">
+      <c r="A15" s="4">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2234,7 +2228,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
-      <c r="A16" s="8">
+      <c r="A16" s="4">
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2248,7 +2242,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="24.75">
-      <c r="A17" s="8">
+      <c r="A17" s="4">
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2262,7 +2256,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="24.75">
-      <c r="A18" s="8">
+      <c r="A18" s="4">
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2276,7 +2270,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24.75">
-      <c r="A19" s="8">
+      <c r="A19" s="4">
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2290,7 +2284,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.75">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>453</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2304,7 +2298,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="15">
+      <c r="A21" s="13">
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2318,7 +2312,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="15">
+      <c r="A22" s="13">
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2332,7 +2326,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="15">
+      <c r="A23" s="13">
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2346,19 +2340,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="15">
+      <c r="A24" s="13">
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="3" t="s">
         <v>467</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="15">
+      <c r="A25" s="13">
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2372,7 +2366,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="15">
+      <c r="A26" s="13">
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2386,7 +2380,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="15">
+      <c r="A27" s="13">
         <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2400,7 +2394,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="15">
+      <c r="A28" s="13">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2414,31 +2408,31 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="15">
+      <c r="A29" s="13">
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C29" s="12"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="3" t="s">
         <v>481</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="15">
+      <c r="A30" s="13">
         <v>3</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C30" s="12"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="3" t="s">
         <v>483</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="15">
+      <c r="A31" s="13">
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2452,27 +2446,27 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="8"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C32" s="12"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="3" t="s">
         <v>488</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="24.75">
-      <c r="A33" s="8"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C33" s="12"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="3" t="s">
         <v>490</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="24.75">
-      <c r="A34" s="8">
+      <c r="A34" s="4">
         <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2486,19 +2480,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="24.75">
-      <c r="A35" s="8">
+      <c r="A35" s="4">
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C35" s="12"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="3" t="s">
         <v>495</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="24.75">
-      <c r="A36" s="8">
+      <c r="A36" s="4">
         <v>4</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2512,7 +2506,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="24.75">
-      <c r="A37" s="8">
+      <c r="A37" s="4">
         <v>5</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2526,17 +2520,17 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="24.75">
-      <c r="A38" s="8"/>
+      <c r="A38" s="4"/>
       <c r="B38" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C38" s="12"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="3" t="s">
         <v>502</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.75">
-      <c r="A39" s="8"/>
+      <c r="A39" s="4"/>
       <c r="B39" s="2" t="s">
         <v>503</v>
       </c>
@@ -2548,7 +2542,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="24.75">
-      <c r="A40" s="8"/>
+      <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
         <v>506</v>
       </c>
@@ -2560,7 +2554,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="24.75">
-      <c r="A41" s="8"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="2" t="s">
         <v>509</v>
       </c>
@@ -2572,17 +2566,17 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="24.75">
-      <c r="A42" s="8"/>
+      <c r="A42" s="4"/>
       <c r="B42" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C42" s="12"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="3" t="s">
         <v>513</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="24.75">
-      <c r="A43" s="8"/>
+      <c r="A43" s="4"/>
       <c r="B43" s="2" t="s">
         <v>514</v>
       </c>
@@ -2594,7 +2588,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="24.75">
-      <c r="A44" s="8"/>
+      <c r="A44" s="4"/>
       <c r="B44" s="2" t="s">
         <v>517</v>
       </c>
@@ -2606,7 +2600,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="24.75">
-      <c r="A45" s="8"/>
+      <c r="A45" s="4"/>
       <c r="B45" s="2" t="s">
         <v>520</v>
       </c>
@@ -2618,7 +2612,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="24.75">
-      <c r="A46" s="8"/>
+      <c r="A46" s="4"/>
       <c r="B46" s="2" t="s">
         <v>523</v>
       </c>
@@ -2645,17 +2639,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="21.433571428571426" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="7" width="19.862142857142857" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="7" width="22.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
-      <c r="A1" s="8">
+      <c r="A1" s="4">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>234</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -2666,7 +2660,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
-      <c r="A2" s="8">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2678,7 +2672,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="24.75">
-      <c r="A3" s="8">
+      <c r="A3" s="4">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2690,7 +2684,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
-      <c r="A4" s="8">
+      <c r="A4" s="4">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2702,7 +2696,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24.75">
-      <c r="A5" s="8">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2714,7 +2708,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24.75">
-      <c r="A6" s="8">
+      <c r="A6" s="4">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2726,7 +2720,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
-      <c r="A7" s="8">
+      <c r="A7" s="4">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2738,7 +2732,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24.75">
-      <c r="A8" s="8">
+      <c r="A8" s="4">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2750,7 +2744,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
-      <c r="A9" s="8">
+      <c r="A9" s="4">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2762,7 +2756,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
-      <c r="A10" s="8">
+      <c r="A10" s="4">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2774,7 +2768,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
-      <c r="A11" s="8">
+      <c r="A11" s="4">
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2786,7 +2780,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
-      <c r="A12" s="8">
+      <c r="A12" s="4">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2798,7 +2792,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
-      <c r="A13" s="8">
+      <c r="A13" s="4">
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2810,7 +2804,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
-      <c r="A14" s="8">
+      <c r="A14" s="4">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2822,7 +2816,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
-      <c r="A15" s="8">
+      <c r="A15" s="4">
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2834,7 +2828,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
-      <c r="A16" s="8">
+      <c r="A16" s="4">
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2846,7 +2840,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="8">
+      <c r="A17" s="4">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2858,7 +2852,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="8">
+      <c r="A18" s="4">
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2872,7 +2866,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="8">
+      <c r="A19" s="4">
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2886,7 +2880,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="8">
+      <c r="A20" s="4">
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2900,7 +2894,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="8">
+      <c r="A21" s="4">
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2914,7 +2908,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="24.75">
-      <c r="A22" s="8">
+      <c r="A22" s="4">
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2928,7 +2922,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="24.75">
-      <c r="A23" s="8">
+      <c r="A23" s="4">
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2942,7 +2936,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="24.75">
-      <c r="A24" s="8">
+      <c r="A24" s="4">
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2956,7 +2950,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="24.75">
-      <c r="A25" s="8">
+      <c r="A25" s="4">
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2970,7 +2964,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="24.75">
-      <c r="A26" s="8">
+      <c r="A26" s="4">
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2984,7 +2978,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="24.75">
-      <c r="A27" s="8">
+      <c r="A27" s="4">
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2998,7 +2992,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="24.75">
-      <c r="A28" s="8">
+      <c r="A28" s="4">
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3012,7 +3006,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="24.75">
-      <c r="A29" s="8">
+      <c r="A29" s="4">
         <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3026,7 +3020,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="24.75">
-      <c r="A30" s="8">
+      <c r="A30" s="4">
         <v>3</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3040,7 +3034,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="24.75">
-      <c r="A31" s="8">
+      <c r="A31" s="4">
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3054,7 +3048,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="24.75">
-      <c r="A32" s="8">
+      <c r="A32" s="4">
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3068,7 +3062,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="24.75">
-      <c r="A33" s="8">
+      <c r="A33" s="4">
         <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3082,7 +3076,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="24.75">
-      <c r="A34" s="8">
+      <c r="A34" s="4">
         <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3096,7 +3090,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="24.75">
-      <c r="A35" s="8">
+      <c r="A35" s="4">
         <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3110,7 +3104,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="24.75">
-      <c r="A36" s="8">
+      <c r="A36" s="4">
         <v>1</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3124,7 +3118,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="24.75">
-      <c r="A37" s="8">
+      <c r="A37" s="4">
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -3138,7 +3132,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="24.75">
-      <c r="A38" s="8">
+      <c r="A38" s="4">
         <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -3152,7 +3146,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.75">
-      <c r="A39" s="8">
+      <c r="A39" s="4">
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3166,7 +3160,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="24.75">
-      <c r="A40" s="8">
+      <c r="A40" s="4">
         <v>1</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3178,7 +3172,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="8">
+      <c r="A41" s="4">
         <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3190,7 +3184,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="8">
+      <c r="A42" s="4">
         <v>1</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3202,7 +3196,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="8">
+      <c r="A43" s="4">
         <v>0</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3214,7 +3208,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="8">
+      <c r="A44" s="4">
         <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3226,7 +3220,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="8">
+      <c r="A45" s="4">
         <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3238,7 +3232,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="8">
+      <c r="A46" s="4">
         <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3250,7 +3244,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="8">
+      <c r="A47" s="4">
         <v>1</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3264,7 +3258,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="8">
+      <c r="A48" s="4">
         <v>1</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3278,7 +3272,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="8">
+      <c r="A49" s="4">
         <v>2</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3292,7 +3286,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="8">
+      <c r="A50" s="4">
         <v>1</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -3306,7 +3300,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="8"/>
+      <c r="A51" s="4"/>
       <c r="B51" s="2" t="s">
         <v>355</v>
       </c>
@@ -3318,7 +3312,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="8">
+      <c r="A52" s="4">
         <v>1</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -3332,7 +3326,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="8">
+      <c r="A53" s="4">
         <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -3346,7 +3340,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="8">
+      <c r="A54" s="4">
         <v>1</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -3360,7 +3354,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="8">
+      <c r="A55" s="4">
         <v>1</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -3374,7 +3368,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="8">
+      <c r="A56" s="4">
         <v>1</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -3388,7 +3382,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="8">
+      <c r="A57" s="4">
         <v>0</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -3402,7 +3396,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="8">
+      <c r="A58" s="4">
         <v>1</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -3416,7 +3410,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="8">
+      <c r="A59" s="4">
         <v>1</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -3430,7 +3424,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="8"/>
+      <c r="A60" s="4"/>
       <c r="B60" s="2" t="s">
         <v>378</v>
       </c>
@@ -3440,7 +3434,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="8"/>
+      <c r="A61" s="4"/>
       <c r="B61" s="2" t="s">
         <v>380</v>
       </c>
@@ -3450,7 +3444,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="8"/>
+      <c r="A62" s="4"/>
       <c r="B62" s="2" t="s">
         <v>382</v>
       </c>
@@ -3460,7 +3454,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="8"/>
+      <c r="A63" s="4"/>
       <c r="B63" s="2" t="s">
         <v>384</v>
       </c>
@@ -3470,7 +3464,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="8"/>
+      <c r="A64" s="4"/>
       <c r="B64" s="2" t="s">
         <v>386</v>
       </c>
@@ -3482,7 +3476,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="8"/>
+      <c r="A65" s="4"/>
       <c r="B65" s="2" t="s">
         <v>389</v>
       </c>
@@ -3492,7 +3486,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="8"/>
+      <c r="A66" s="4"/>
       <c r="B66" s="2" t="s">
         <v>391</v>
       </c>
@@ -3502,7 +3496,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="8"/>
+      <c r="A67" s="4"/>
       <c r="B67" s="2" t="s">
         <v>393</v>
       </c>
@@ -3512,7 +3506,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="8"/>
+      <c r="A68" s="4"/>
       <c r="B68" s="2" t="s">
         <v>395</v>
       </c>
@@ -3524,7 +3518,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="8"/>
+      <c r="A69" s="4"/>
       <c r="B69" s="2" t="s">
         <v>398</v>
       </c>
@@ -3549,14 +3543,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="8.43357142857143" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="7" width="19.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="7" width="18.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="8">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
+      <c r="A1" s="4">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3567,11 +3561,11 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="8">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
+      <c r="A2" s="4">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3581,162 +3575,162 @@
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="8">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="4">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>105</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="8">
+      <c r="C4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24.75">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24.75">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24.75">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
+      <c r="A10" s="4">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
+      <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="8">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="8">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="8">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="8">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
+      <c r="A13" s="4">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="8">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
-      <c r="A14" s="8">
+      <c r="A14" s="4">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -3750,7 +3744,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
-      <c r="A15" s="8">
+      <c r="A15" s="4">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3764,7 +3758,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
-      <c r="A16" s="8">
+      <c r="A16" s="4">
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -3778,7 +3772,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="24.75">
-      <c r="A17" s="8">
+      <c r="A17" s="4">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -3792,7 +3786,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="24.75">
-      <c r="A18" s="8">
+      <c r="A18" s="4">
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -3806,7 +3800,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24.75">
-      <c r="A19" s="8">
+      <c r="A19" s="4">
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -3820,7 +3814,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.75">
-      <c r="A20" s="8">
+      <c r="A20" s="4">
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3834,7 +3828,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="24.75">
-      <c r="A21" s="8">
+      <c r="A21" s="4">
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -3848,7 +3842,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="24.75">
-      <c r="A22" s="8">
+      <c r="A22" s="4">
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -3862,7 +3856,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="24.75">
-      <c r="A23" s="8">
+      <c r="A23" s="4">
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -3876,7 +3870,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="24.75">
-      <c r="A24" s="8">
+      <c r="A24" s="4">
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -3890,7 +3884,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="24.75">
-      <c r="A25" s="8">
+      <c r="A25" s="4">
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -3904,7 +3898,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="24.75">
-      <c r="A26" s="8">
+      <c r="A26" s="4">
         <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3918,7 +3912,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="8">
+      <c r="A27" s="4">
         <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -3932,7 +3926,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="8">
+      <c r="A28" s="4">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3946,7 +3940,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="8">
+      <c r="A29" s="4">
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3960,7 +3954,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="8">
+      <c r="A30" s="4">
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3974,7 +3968,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="8">
+      <c r="A31" s="4">
         <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3988,7 +3982,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="8">
+      <c r="A32" s="4">
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -4002,7 +3996,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="8">
+      <c r="A33" s="4">
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -4016,7 +4010,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="8">
+      <c r="A34" s="4">
         <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -4030,7 +4024,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="8">
+      <c r="A35" s="4">
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -4044,7 +4038,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="8">
+      <c r="A36" s="4">
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -4058,7 +4052,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="8">
+      <c r="A37" s="4">
         <v>2</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -4072,7 +4066,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="8">
+      <c r="A38" s="4">
         <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -4086,7 +4080,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="8">
+      <c r="A39" s="4">
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -4098,7 +4092,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="8">
+      <c r="A40" s="4">
         <v>1</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -4110,7 +4104,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="8">
+      <c r="A41" s="4">
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -4124,7 +4118,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="8">
+      <c r="A42" s="4">
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -4138,7 +4132,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>218</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -4150,7 +4144,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="8">
+      <c r="A44" s="4">
         <v>0</v>
       </c>
       <c r="B44" s="2" t="s">

--- a/dajiaxue/dajiaxue.xlsx
+++ b/dajiaxue/dajiaxue.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="527">
   <si>
     <t>3</t>
   </si>
@@ -337,6 +337,9 @@
     <t>旅行します</t>
   </si>
   <si>
+    <t>旅行shimasu</t>
+  </si>
+  <si>
     <t>ねます</t>
   </si>
   <si>
@@ -508,7 +511,7 @@
     <t>未明</t>
   </si>
   <si>
-    <t>凌晨</t>
+    <t>凌晨、黎明、拂晓</t>
   </si>
   <si>
     <t>そうちょう</t>
@@ -1602,7 +1605,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1620,12 +1623,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Yu Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -1662,7 +1659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1685,7 +1682,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -1694,13 +1691,10 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2021,84 +2015,84 @@
       <c r="A1" s="4">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>401</v>
       </c>
+      <c r="C1" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="D1" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
       <c r="A2" s="4">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>404</v>
       </c>
+      <c r="C2" s="8" t="s">
+        <v>405</v>
+      </c>
       <c r="D2" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>407</v>
       </c>
+      <c r="C3" s="8" t="s">
+        <v>408</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>410</v>
       </c>
+      <c r="C4" s="8" t="s">
+        <v>411</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>413</v>
       </c>
+      <c r="C5" s="8" t="s">
+        <v>414</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
       <c r="A6" s="4">
         <v>0</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>416</v>
       </c>
+      <c r="C6" s="8" t="s">
+        <v>417</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
@@ -2106,27 +2100,27 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>421</v>
       </c>
+      <c r="C8" s="8" t="s">
+        <v>422</v>
+      </c>
       <c r="D8" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
@@ -2134,13 +2128,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
@@ -2148,13 +2142,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
@@ -2162,13 +2156,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
@@ -2176,13 +2170,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
@@ -2190,13 +2184,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
@@ -2204,13 +2198,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
@@ -2218,13 +2212,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
@@ -2232,13 +2226,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="24.75">
@@ -2246,13 +2240,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="24.75">
@@ -2260,13 +2254,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24.75">
@@ -2274,195 +2268,195 @@
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.75">
-      <c r="A20" s="12" t="s">
-        <v>453</v>
+      <c r="A20" s="11" t="s">
+        <v>454</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C24" s="11"/>
+        <v>467</v>
+      </c>
+      <c r="C24" s="8"/>
       <c r="D24" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="13">
+      <c r="A25" s="12">
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="13">
+      <c r="A26" s="12">
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="13">
+      <c r="A27" s="12">
         <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="13">
+      <c r="A28" s="12">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="13">
+      <c r="A29" s="12">
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C29" s="11"/>
+        <v>481</v>
+      </c>
+      <c r="C29" s="8"/>
       <c r="D29" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="13">
+      <c r="A30" s="12">
         <v>3</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C30" s="11"/>
+        <v>483</v>
+      </c>
+      <c r="C30" s="8"/>
       <c r="D30" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="13">
+      <c r="A31" s="12">
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="4"/>
       <c r="B32" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="C32" s="11"/>
+        <v>488</v>
+      </c>
+      <c r="C32" s="8"/>
       <c r="D32" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="24.75">
       <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C33" s="11"/>
+        <v>490</v>
+      </c>
+      <c r="C33" s="8"/>
       <c r="D33" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="24.75">
@@ -2470,13 +2464,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="24.75">
@@ -2484,11 +2478,11 @@
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="C35" s="11"/>
+        <v>495</v>
+      </c>
+      <c r="C35" s="8"/>
       <c r="D35" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="24.75">
@@ -2496,13 +2490,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="24.75">
@@ -2510,117 +2504,117 @@
         <v>5</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="24.75">
       <c r="A38" s="4"/>
       <c r="B38" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="C38" s="11"/>
+        <v>502</v>
+      </c>
+      <c r="C38" s="8"/>
       <c r="D38" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.75">
       <c r="A39" s="4"/>
       <c r="B39" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="24.75">
       <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="24.75">
       <c r="A41" s="4"/>
       <c r="B41" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="24.75">
       <c r="A42" s="4"/>
       <c r="B42" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C42" s="11"/>
+        <v>513</v>
+      </c>
+      <c r="C42" s="8"/>
       <c r="D42" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="24.75">
       <c r="A43" s="4"/>
       <c r="B43" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="24.75">
       <c r="A44" s="4"/>
       <c r="B44" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="24.75">
       <c r="A45" s="4"/>
       <c r="B45" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="24.75">
       <c r="A46" s="4"/>
       <c r="B46" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -2649,14 +2643,14 @@
       <c r="A1" s="4">
         <v>3</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>234</v>
+      <c r="B1" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
@@ -2664,11 +2658,11 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="24.75">
@@ -2676,11 +2670,11 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
@@ -2688,11 +2682,11 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24.75">
@@ -2700,11 +2694,11 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24.75">
@@ -2712,11 +2706,11 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
@@ -2724,11 +2718,11 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24.75">
@@ -2736,11 +2730,11 @@
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
@@ -2748,11 +2742,11 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
@@ -2760,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
@@ -2772,11 +2766,11 @@
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
@@ -2784,11 +2778,11 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
@@ -2796,11 +2790,11 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
@@ -2808,11 +2802,11 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
@@ -2820,11 +2814,11 @@
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
@@ -2832,11 +2826,11 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
@@ -2844,11 +2838,11 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
@@ -2856,13 +2850,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
@@ -2870,13 +2864,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
@@ -2884,13 +2878,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
@@ -2898,13 +2892,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="24.75">
@@ -2912,13 +2906,13 @@
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="24.75">
@@ -2926,13 +2920,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="24.75">
@@ -2940,13 +2934,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="24.75">
@@ -2954,13 +2948,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="24.75">
@@ -2968,13 +2962,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="24.75">
@@ -2982,13 +2976,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="24.75">
@@ -2996,13 +2990,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="24.75">
@@ -3010,13 +3004,13 @@
         <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="24.75">
@@ -3024,13 +3018,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="24.75">
@@ -3038,13 +3032,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="24.75">
@@ -3052,13 +3046,13 @@
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="24.75">
@@ -3066,13 +3060,13 @@
         <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="24.75">
@@ -3080,13 +3074,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="24.75">
@@ -3094,13 +3088,13 @@
         <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="24.75">
@@ -3108,13 +3102,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="24.75">
@@ -3122,13 +3116,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="24.75">
@@ -3136,13 +3130,13 @@
         <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.75">
@@ -3150,13 +3144,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="24.75">
@@ -3164,11 +3158,11 @@
         <v>1</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
@@ -3176,11 +3170,11 @@
         <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
@@ -3188,11 +3182,11 @@
         <v>1</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
@@ -3200,11 +3194,11 @@
         <v>0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
@@ -3212,11 +3206,11 @@
         <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
@@ -3224,11 +3218,11 @@
         <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
@@ -3236,11 +3230,11 @@
         <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
@@ -3248,13 +3242,13 @@
         <v>1</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
@@ -3262,13 +3256,13 @@
         <v>1</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
@@ -3276,13 +3270,13 @@
         <v>2</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
@@ -3290,25 +3284,25 @@
         <v>1</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="4"/>
       <c r="B51" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
@@ -3316,13 +3310,13 @@
         <v>1</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
@@ -3330,13 +3324,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
@@ -3344,13 +3338,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
@@ -3358,13 +3352,13 @@
         <v>1</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
@@ -3386,13 +3380,13 @@
         <v>0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
@@ -3400,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
@@ -3414,117 +3408,117 @@
         <v>1</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="4"/>
       <c r="B60" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="4"/>
       <c r="B61" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="4"/>
       <c r="B62" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="4"/>
       <c r="B63" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="4"/>
       <c r="B64" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="4"/>
       <c r="B65" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="4"/>
       <c r="B66" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="4"/>
       <c r="B67" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="4"/>
       <c r="B68" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="4"/>
       <c r="B69" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -3575,7 +3569,7 @@
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
       <c r="A3" s="4">
         <v>5</v>
       </c>
@@ -3586,7 +3580,7 @@
         <v>105</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
@@ -3594,13 +3588,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24.75">
@@ -3608,13 +3602,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24.75">
@@ -3622,13 +3616,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
@@ -3636,13 +3630,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24.75">
@@ -3650,13 +3644,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
@@ -3664,13 +3658,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
@@ -3678,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
@@ -3692,13 +3686,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
@@ -3706,13 +3700,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
@@ -3720,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
@@ -3734,13 +3728,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
@@ -3748,13 +3742,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
@@ -3762,13 +3756,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="24.75">
@@ -3776,13 +3770,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="24.75">
@@ -3790,13 +3784,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24.75">
@@ -3804,13 +3798,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.75">
@@ -3818,13 +3812,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="24.75">
@@ -3832,13 +3826,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="24.75">
@@ -3846,13 +3840,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="24.75">
@@ -3860,13 +3854,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="24.75">
@@ -3874,13 +3868,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="24.75">
@@ -3888,13 +3882,13 @@
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="24.75">
@@ -3902,13 +3896,13 @@
         <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
@@ -3916,13 +3910,13 @@
         <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
@@ -3930,13 +3924,13 @@
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
@@ -3944,13 +3938,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
@@ -3958,13 +3952,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
@@ -3972,13 +3966,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
@@ -3986,13 +3980,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
@@ -4000,13 +3994,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
@@ -4014,13 +4008,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
@@ -4028,13 +4022,13 @@
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
@@ -4042,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
@@ -4056,13 +4050,13 @@
         <v>2</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
@@ -4070,13 +4064,13 @@
         <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
@@ -4084,11 +4078,11 @@
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
@@ -4096,11 +4090,11 @@
         <v>1</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
@@ -4108,13 +4102,13 @@
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
@@ -4122,25 +4116,25 @@
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
@@ -4148,65 +4142,65 @@
         <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="4"/>
       <c r="B45" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="4"/>
       <c r="B46" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="4"/>
       <c r="B47" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="4"/>
       <c r="B48" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="4"/>
       <c r="B49" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/dajiaxue/dajiaxue.xlsx
+++ b/dajiaxue/dajiaxue.xlsx
@@ -4,20 +4,727 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="1"/>
     <sheet r:id="rId2" sheetId="2" name="2"/>
     <sheet r:id="rId3" sheetId="3" name="3"/>
     <sheet r:id="rId4" sheetId="4" name="4"/>
+    <sheet r:id="rId5" sheetId="5" name="5"/>
+    <sheet r:id="rId6" sheetId="6" name="6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="758">
+  <si>
+    <t>すくます</t>
+  </si>
+  <si>
+    <t>空きます</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>でかけます</t>
+  </si>
+  <si>
+    <t>出かけます</t>
+  </si>
+  <si>
+    <t>外出</t>
+  </si>
+  <si>
+    <t>ひろい</t>
+  </si>
+  <si>
+    <t>広い</t>
+  </si>
+  <si>
+    <t>宽广的</t>
+  </si>
+  <si>
+    <t>さむい</t>
+  </si>
+  <si>
+    <t>寒い</t>
+  </si>
+  <si>
+    <t>寒冷的</t>
+  </si>
+  <si>
+    <t>あつい</t>
+  </si>
+  <si>
+    <t>暑い</t>
+  </si>
+  <si>
+    <t>热的</t>
+  </si>
+  <si>
+    <t>あたたかい</t>
+  </si>
+  <si>
+    <t>暖かい</t>
+  </si>
+  <si>
+    <t>温暖的</t>
+  </si>
+  <si>
+    <t>おいしい</t>
+  </si>
+  <si>
+    <t>美味しい</t>
+  </si>
+  <si>
+    <t>好吃的</t>
+  </si>
+  <si>
+    <t>たかい</t>
+  </si>
+  <si>
+    <t>高い</t>
+  </si>
+  <si>
+    <t>贵的</t>
+  </si>
+  <si>
+    <t>やすい</t>
+  </si>
+  <si>
+    <t>安い</t>
+  </si>
+  <si>
+    <t>便宜的</t>
+  </si>
+  <si>
+    <t>あまい</t>
+  </si>
+  <si>
+    <t>甘い</t>
+  </si>
+  <si>
+    <t>甜的</t>
+  </si>
+  <si>
+    <t>しょっぱい</t>
+  </si>
+  <si>
+    <t>咸的</t>
+  </si>
+  <si>
+    <t>からい</t>
+  </si>
+  <si>
+    <t>辛い</t>
+  </si>
+  <si>
+    <t>辣的</t>
+  </si>
+  <si>
+    <t>うらやましい</t>
+  </si>
+  <si>
+    <t>羡慕</t>
+  </si>
+  <si>
+    <t>ちょうどいい</t>
+  </si>
+  <si>
+    <t>刚刚好</t>
+  </si>
+  <si>
+    <t>おもしろい</t>
+  </si>
+  <si>
+    <t>面白い</t>
+  </si>
+  <si>
+    <t>有趣的</t>
+  </si>
+  <si>
+    <t>きれい</t>
+  </si>
+  <si>
+    <t>綺麗</t>
+  </si>
+  <si>
+    <t>漂亮的</t>
+  </si>
+  <si>
+    <t>にぎやか</t>
+  </si>
+  <si>
+    <t>賑やか</t>
+  </si>
+  <si>
+    <t>热闹的</t>
+  </si>
+  <si>
+    <t>しずか</t>
+  </si>
+  <si>
+    <t>静か</t>
+  </si>
+  <si>
+    <t>安静的</t>
+  </si>
+  <si>
+    <t>べんり</t>
+  </si>
+  <si>
+    <t>便利</t>
+  </si>
+  <si>
+    <t>方便的</t>
+  </si>
+  <si>
+    <t>いま</t>
+  </si>
+  <si>
+    <t>今</t>
+  </si>
+  <si>
+    <t>现在</t>
+  </si>
+  <si>
+    <t>まち</t>
+  </si>
+  <si>
+    <t>街</t>
+  </si>
+  <si>
+    <t>城镇</t>
+  </si>
+  <si>
+    <t>ところ</t>
+  </si>
+  <si>
+    <t>所</t>
+  </si>
+  <si>
+    <t>地方</t>
+  </si>
+  <si>
+    <t>ざっし</t>
+  </si>
+  <si>
+    <t>雑誌</t>
+  </si>
+  <si>
+    <t>杂志</t>
+  </si>
+  <si>
+    <t>じしょ</t>
+  </si>
+  <si>
+    <t>辞書</t>
+  </si>
+  <si>
+    <t>字典</t>
+  </si>
+  <si>
+    <t>もの</t>
+  </si>
+  <si>
+    <t>物</t>
+  </si>
+  <si>
+    <t>东西</t>
+  </si>
+  <si>
+    <t>こきょう</t>
+  </si>
+  <si>
+    <t>故郷</t>
+  </si>
+  <si>
+    <t>故乡</t>
+  </si>
+  <si>
+    <t>おなか</t>
+  </si>
+  <si>
+    <t>お腹</t>
+  </si>
+  <si>
+    <t>肚子</t>
+  </si>
+  <si>
+    <t>ひるごはん</t>
+  </si>
+  <si>
+    <t>昼ご飯</t>
+  </si>
+  <si>
+    <t>午餐</t>
+  </si>
+  <si>
+    <t>なつ</t>
+  </si>
+  <si>
+    <t>夏</t>
+  </si>
+  <si>
+    <t>夏天</t>
+  </si>
+  <si>
+    <t>ふゆ</t>
+  </si>
+  <si>
+    <t>冬</t>
+  </si>
+  <si>
+    <t>冬天</t>
+  </si>
+  <si>
+    <t>やちん</t>
+  </si>
+  <si>
+    <t>家賃</t>
+  </si>
+  <si>
+    <t>房租</t>
+  </si>
+  <si>
+    <t>すきやき</t>
+  </si>
+  <si>
+    <t>すき焼き</t>
+  </si>
+  <si>
+    <t>寿喜烧</t>
+  </si>
+  <si>
+    <t>チャーハン</t>
+  </si>
+  <si>
+    <t>炒饭</t>
+  </si>
+  <si>
+    <t>ラーメン</t>
+  </si>
+  <si>
+    <t>拉面</t>
+  </si>
+  <si>
+    <t>なっとう</t>
+  </si>
+  <si>
+    <t>納豆</t>
+  </si>
+  <si>
+    <t>纳豆</t>
+  </si>
+  <si>
+    <t>なべりょうり</t>
+  </si>
+  <si>
+    <t>鍋料理</t>
+  </si>
+  <si>
+    <t>火锅料理</t>
+  </si>
+  <si>
+    <t>とても</t>
+  </si>
+  <si>
+    <t>非常</t>
+  </si>
+  <si>
+    <t>ちょっと</t>
+  </si>
+  <si>
+    <t>稍微、有点</t>
+  </si>
+  <si>
+    <t>とくに</t>
+  </si>
+  <si>
+    <t>特に</t>
+  </si>
+  <si>
+    <t>尤其</t>
+  </si>
+  <si>
+    <t>つぎの</t>
+  </si>
+  <si>
+    <t>次の</t>
+  </si>
+  <si>
+    <t>下次、下一个</t>
+  </si>
+  <si>
+    <t>こんな</t>
+  </si>
+  <si>
+    <t>这样的、这么</t>
+  </si>
+  <si>
+    <t>そして</t>
+  </si>
+  <si>
+    <t>然后</t>
+  </si>
+  <si>
+    <t>どう</t>
+  </si>
+  <si>
+    <t>如何、怎样</t>
+  </si>
+  <si>
+    <t>どんな</t>
+  </si>
+  <si>
+    <t>怎么样的</t>
+  </si>
+  <si>
+    <t>が</t>
+  </si>
+  <si>
+    <t>虽然、可是</t>
+  </si>
+  <si>
+    <t>なあ</t>
+  </si>
+  <si>
+    <t>~啊（感叹）</t>
+  </si>
+  <si>
+    <t>ほっかいどう</t>
+  </si>
+  <si>
+    <t>北海道</t>
+  </si>
+  <si>
+    <t>とうきょう</t>
+  </si>
+  <si>
+    <t>東京</t>
+  </si>
+  <si>
+    <t>东京</t>
+  </si>
+  <si>
+    <t>おおさか</t>
+  </si>
+  <si>
+    <t>大阪</t>
+  </si>
+  <si>
+    <t>きょうと</t>
+  </si>
+  <si>
+    <t>京都</t>
+  </si>
+  <si>
+    <t>かんこく</t>
+  </si>
+  <si>
+    <t>韓国</t>
+  </si>
+  <si>
+    <t>韩国</t>
+  </si>
+  <si>
+    <t>タイ</t>
+  </si>
+  <si>
+    <t>泰国</t>
+  </si>
+  <si>
+    <t>おなかがすきました</t>
+  </si>
+  <si>
+    <t>お腹が空きました</t>
+  </si>
+  <si>
+    <t>肚子饿了</t>
+  </si>
+  <si>
+    <t>～とおもいますけど</t>
+  </si>
+  <si>
+    <t>～と思いますけど</t>
+  </si>
+  <si>
+    <t>觉得…</t>
+  </si>
+  <si>
+    <t>そういえば</t>
+  </si>
+  <si>
+    <t>そう言えば</t>
+  </si>
+  <si>
+    <t>这么说的话…</t>
+  </si>
+  <si>
+    <t>かきます</t>
+  </si>
+  <si>
+    <t>書きます</t>
+  </si>
+  <si>
+    <t>写</t>
+  </si>
+  <si>
+    <t>よみます</t>
+  </si>
+  <si>
+    <t>読みます</t>
+  </si>
+  <si>
+    <t>读</t>
+  </si>
+  <si>
+    <t>みます</t>
+  </si>
+  <si>
+    <t>見ます</t>
+  </si>
+  <si>
+    <t>看</t>
+  </si>
+  <si>
+    <t>たべます</t>
+  </si>
+  <si>
+    <t>食べます</t>
+  </si>
+  <si>
+    <t>吃</t>
+  </si>
+  <si>
+    <t>やすみます</t>
+  </si>
+  <si>
+    <t>休みます</t>
+  </si>
+  <si>
+    <t>休息</t>
+  </si>
+  <si>
+    <t>かいものします</t>
+  </si>
+  <si>
+    <t>買い物します</t>
+  </si>
+  <si>
+    <t>买东西</t>
+  </si>
+  <si>
+    <t>すごい</t>
+  </si>
+  <si>
+    <t>厉害、了不起</t>
+  </si>
+  <si>
+    <t>てがみ</t>
+  </si>
+  <si>
+    <t>手紙</t>
+  </si>
+  <si>
+    <t>信件</t>
+  </si>
+  <si>
+    <t>えいが</t>
+  </si>
+  <si>
+    <t>映画</t>
+  </si>
+  <si>
+    <t>电影</t>
+  </si>
+  <si>
+    <t>パン</t>
+  </si>
+  <si>
+    <t>面包</t>
+  </si>
+  <si>
+    <t>たまご</t>
+  </si>
+  <si>
+    <t>卵</t>
+  </si>
+  <si>
+    <t>鸡蛋</t>
+  </si>
+  <si>
+    <t>やさい</t>
+  </si>
+  <si>
+    <t>野菜</t>
+  </si>
+  <si>
+    <t>蔬菜</t>
+  </si>
+  <si>
+    <t>さかな</t>
+  </si>
+  <si>
+    <t>魚</t>
+  </si>
+  <si>
+    <t>鱼</t>
+  </si>
+  <si>
+    <t>にく</t>
+  </si>
+  <si>
+    <t>肉</t>
+  </si>
+  <si>
+    <t>ひ</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>日子</t>
+  </si>
+  <si>
+    <t>しゅうまつ</t>
+  </si>
+  <si>
+    <t>週末</t>
+  </si>
+  <si>
+    <t>周末</t>
+  </si>
+  <si>
+    <t>しょうせつ</t>
+  </si>
+  <si>
+    <t>小説</t>
+  </si>
+  <si>
+    <t>小说</t>
+  </si>
+  <si>
+    <t>ミステラー</t>
+  </si>
+  <si>
+    <t>mystery</t>
+  </si>
+  <si>
+    <t>推理</t>
+  </si>
+  <si>
+    <t>れんあいしょうせつ</t>
+  </si>
+  <si>
+    <t>恋愛小説</t>
+  </si>
+  <si>
+    <t>恋爱小说</t>
+  </si>
+  <si>
+    <t>おかいけい</t>
+  </si>
+  <si>
+    <t>お会計</t>
+  </si>
+  <si>
+    <t>结账</t>
+  </si>
+  <si>
+    <t>いつも</t>
+  </si>
+  <si>
+    <t>总是</t>
+  </si>
+  <si>
+    <t>よく</t>
+  </si>
+  <si>
+    <t>经常</t>
+  </si>
+  <si>
+    <t>ときどき</t>
+  </si>
+  <si>
+    <t>時々</t>
+  </si>
+  <si>
+    <t>有时候</t>
+  </si>
+  <si>
+    <t>あまり</t>
+  </si>
+  <si>
+    <t>不常…(否定)</t>
+  </si>
+  <si>
+    <t>ぜんぜん</t>
+  </si>
+  <si>
+    <t>全然</t>
+  </si>
+  <si>
+    <t>完全不…(否定)</t>
+  </si>
+  <si>
+    <t>やっばり</t>
+  </si>
+  <si>
+    <t>仍然、还是</t>
+  </si>
+  <si>
+    <t>ゆっくり</t>
+  </si>
+  <si>
+    <t>好好地</t>
+  </si>
+  <si>
+    <t>そろそろ</t>
+  </si>
+  <si>
+    <t>差不多了</t>
+  </si>
+  <si>
+    <t>へえ</t>
+  </si>
+  <si>
+    <t>欸（惊讶、感到的声音）</t>
+  </si>
+  <si>
+    <t>なに</t>
+  </si>
+  <si>
+    <t>何</t>
+  </si>
+  <si>
+    <t>什么</t>
+  </si>
+  <si>
+    <t>いえいえ</t>
+  </si>
+  <si>
+    <t>不、不；哪里哪里</t>
+  </si>
+  <si>
+    <t>どうしますか</t>
+  </si>
+  <si>
+    <t>要怎么做</t>
+  </si>
+  <si>
+    <t>べつべつにおねがいします</t>
+  </si>
+  <si>
+    <t>別々にお願いします</t>
+  </si>
+  <si>
+    <t>请分开</t>
+  </si>
   <si>
     <t>3</t>
   </si>
@@ -205,9 +912,6 @@
     <t>それから</t>
   </si>
   <si>
-    <t>然后</t>
-  </si>
-  <si>
     <t>どうやって</t>
   </si>
   <si>
@@ -223,12 +927,6 @@
     <t>なん</t>
   </si>
   <si>
-    <t>何</t>
-  </si>
-  <si>
-    <t>什么</t>
-  </si>
-  <si>
     <t>～がつ</t>
   </si>
   <si>
@@ -1027,7 +1725,7 @@
     <t>那么</t>
   </si>
   <si>
-    <t>わぁ</t>
+    <t>わあ</t>
   </si>
   <si>
     <t>哇</t>
@@ -1201,13 +1899,10 @@
     <t>真漂亮啊</t>
   </si>
   <si>
-    <t>どうしますか</t>
-  </si>
-  <si>
     <t>打算怎么做呢？</t>
   </si>
   <si>
-    <t>ちよっとかんがえます</t>
+    <t>ちょっとかんがえます</t>
   </si>
   <si>
     <t>ちょっと考えます</t>
@@ -1605,7 +2300,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1623,6 +2318,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Yu Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -1659,28 +2360,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1691,10 +2401,10 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2005,616 +2715,616 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="37.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="40.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="37.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="40.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="16.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
-      <c r="A1" s="4">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>403</v>
+      <c r="B1" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>634</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>406</v>
+      <c r="B2" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>637</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>409</v>
+      <c r="B3" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>640</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>412</v>
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>643</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>415</v>
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>646</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <v>0</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>417</v>
+      <c r="B6" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>648</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
-      <c r="A7" s="4">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>418</v>
+        <v>649</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>420</v>
+        <v>650</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>651</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>423</v>
+      <c r="B8" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>654</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>424</v>
+        <v>655</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>426</v>
+        <v>656</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>657</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>427</v>
+        <v>658</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>429</v>
+        <v>659</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>660</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>430</v>
+        <v>661</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>432</v>
+        <v>662</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>663</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>433</v>
+        <v>664</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>435</v>
+        <v>665</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>666</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>436</v>
+        <v>667</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>437</v>
+        <v>668</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>668</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
-      <c r="A14" s="4">
+      <c r="A14" s="1">
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>438</v>
+        <v>669</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>440</v>
+        <v>670</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>671</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
-      <c r="A15" s="4">
+      <c r="A15" s="1">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>441</v>
+        <v>672</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>442</v>
+        <v>673</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>673</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
-      <c r="A16" s="4">
+      <c r="A16" s="1">
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>443</v>
+        <v>674</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>444</v>
+        <v>675</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>675</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="24.75">
-      <c r="A17" s="4">
+      <c r="A17" s="1">
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>445</v>
+        <v>676</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>447</v>
+        <v>677</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>678</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="24.75">
-      <c r="A18" s="4">
+      <c r="A18" s="1">
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>448</v>
+        <v>679</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>450</v>
+        <v>680</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>681</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24.75">
-      <c r="A19" s="4">
+      <c r="A19" s="1">
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>451</v>
+        <v>682</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>453</v>
+        <v>683</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>684</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.75">
-      <c r="A20" s="11" t="s">
-        <v>454</v>
+      <c r="A20" s="14" t="s">
+        <v>685</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>455</v>
+        <v>686</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>457</v>
+        <v>687</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>688</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="12">
+      <c r="A21" s="15">
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>458</v>
+        <v>689</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>460</v>
+        <v>690</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>691</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="12">
+      <c r="A22" s="15">
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>461</v>
+        <v>692</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>463</v>
+        <v>693</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>694</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="12">
+      <c r="A23" s="15">
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>464</v>
+        <v>695</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>466</v>
+        <v>696</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>697</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="12">
+      <c r="A24" s="15">
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="3" t="s">
-        <v>468</v>
+        <v>698</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="4" t="s">
+        <v>699</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="12">
+      <c r="A25" s="15">
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>469</v>
+        <v>700</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>471</v>
+        <v>701</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>702</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="12">
+      <c r="A26" s="15">
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>472</v>
+        <v>703</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>474</v>
+        <v>704</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>705</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="12">
+      <c r="A27" s="15">
         <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>475</v>
+        <v>706</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>477</v>
+        <v>707</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>708</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="12">
+      <c r="A28" s="15">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>478</v>
+        <v>709</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>480</v>
+        <v>710</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>711</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="12">
+      <c r="A29" s="15">
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="3" t="s">
-        <v>482</v>
+        <v>712</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="4" t="s">
+        <v>713</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="12">
+      <c r="A30" s="15">
         <v>3</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="3" t="s">
-        <v>484</v>
+        <v>714</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="4" t="s">
+        <v>715</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="12">
+      <c r="A31" s="15">
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>485</v>
+        <v>716</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>487</v>
+        <v>717</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>718</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="4"/>
+      <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="3" t="s">
-        <v>489</v>
+        <v>719</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="4" t="s">
+        <v>720</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="24.75">
-      <c r="A33" s="4"/>
+      <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="3" t="s">
-        <v>491</v>
+        <v>721</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="4" t="s">
+        <v>722</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="24.75">
-      <c r="A34" s="4">
+      <c r="A34" s="1">
         <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>492</v>
+        <v>723</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>494</v>
+        <v>724</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>725</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="24.75">
-      <c r="A35" s="4">
+      <c r="A35" s="1">
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="3" t="s">
-        <v>496</v>
+        <v>726</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="4" t="s">
+        <v>727</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="24.75">
-      <c r="A36" s="4">
+      <c r="A36" s="1">
         <v>4</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>497</v>
+        <v>728</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>498</v>
+        <v>729</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>729</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="24.75">
-      <c r="A37" s="4">
+      <c r="A37" s="1">
         <v>5</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>499</v>
+        <v>730</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>501</v>
+        <v>731</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>732</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="24.75">
-      <c r="A38" s="4"/>
+      <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="3" t="s">
-        <v>503</v>
+        <v>733</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="4" t="s">
+        <v>734</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.75">
-      <c r="A39" s="4"/>
+      <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
-        <v>504</v>
+        <v>735</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>506</v>
+        <v>736</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>737</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="24.75">
-      <c r="A40" s="4"/>
+      <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
-        <v>507</v>
+        <v>738</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>509</v>
+        <v>739</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>740</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="24.75">
-      <c r="A41" s="4"/>
+      <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
-        <v>510</v>
+        <v>741</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>512</v>
+        <v>742</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>743</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="24.75">
-      <c r="A42" s="4"/>
+      <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="3" t="s">
-        <v>514</v>
+        <v>744</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="4" t="s">
+        <v>745</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="24.75">
-      <c r="A43" s="4"/>
+      <c r="A43" s="1"/>
       <c r="B43" s="2" t="s">
-        <v>515</v>
+        <v>746</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>517</v>
+        <v>747</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>748</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="24.75">
-      <c r="A44" s="4"/>
+      <c r="A44" s="1"/>
       <c r="B44" s="2" t="s">
-        <v>518</v>
+        <v>749</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>520</v>
+        <v>750</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>751</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="24.75">
-      <c r="A45" s="4"/>
+      <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
-        <v>521</v>
+        <v>752</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>523</v>
+        <v>753</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>754</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="24.75">
-      <c r="A46" s="4"/>
+      <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
-        <v>524</v>
+        <v>755</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>526</v>
+        <v>756</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -2629,896 +3339,896 @@
   </sheetPr>
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="22.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
-      <c r="A1" s="4">
+      <c r="A1" s="1">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>235</v>
+      <c r="B1" s="11" t="s">
+        <v>467</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>237</v>
+        <v>468</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>469</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>239</v>
+        <v>470</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>471</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="24.75">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>241</v>
+        <v>472</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>473</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>243</v>
+        <v>474</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>475</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24.75">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>245</v>
+        <v>476</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>477</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24.75">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>247</v>
+        <v>478</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>479</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
-      <c r="A7" s="4">
+      <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>249</v>
+        <v>480</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>481</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24.75">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>251</v>
+        <v>482</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>483</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>253</v>
+        <v>484</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>485</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>486</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>263</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>256</v>
+        <v>487</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>488</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>258</v>
+        <v>489</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>490</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>260</v>
+        <v>491</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
-      <c r="A14" s="4">
+      <c r="A14" s="1">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>262</v>
+        <v>493</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>494</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
-      <c r="A15" s="4">
+      <c r="A15" s="1">
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>264</v>
+        <v>495</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>496</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
-      <c r="A16" s="4">
+      <c r="A16" s="1">
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>266</v>
+        <v>497</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>498</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="4">
+      <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>268</v>
+        <v>499</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>500</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="4">
+      <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>269</v>
+        <v>501</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>271</v>
+        <v>502</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>503</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="4">
+      <c r="A19" s="1">
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>274</v>
+        <v>504</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>506</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="4">
+      <c r="A20" s="1">
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>275</v>
+        <v>507</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>277</v>
+        <v>508</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>509</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="4">
+      <c r="A21" s="1">
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>278</v>
+        <v>510</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>279</v>
+        <v>511</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>511</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="24.75">
-      <c r="A22" s="4">
+      <c r="A22" s="1">
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>280</v>
+        <v>512</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>282</v>
+        <v>513</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>514</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="24.75">
-      <c r="A23" s="4">
+      <c r="A23" s="1">
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>283</v>
+        <v>515</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>285</v>
+        <v>516</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>517</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="24.75">
-      <c r="A24" s="4">
+      <c r="A24" s="1">
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>286</v>
+        <v>518</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>288</v>
+        <v>519</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>520</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="24.75">
-      <c r="A25" s="4">
+      <c r="A25" s="1">
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>289</v>
+        <v>521</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>291</v>
+        <v>522</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>523</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="24.75">
-      <c r="A26" s="4">
+      <c r="A26" s="1">
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>292</v>
+        <v>524</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>294</v>
+        <v>525</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="24.75">
-      <c r="A27" s="4">
+      <c r="A27" s="1">
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>295</v>
+        <v>527</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>297</v>
+        <v>528</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>529</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="24.75">
-      <c r="A28" s="4">
+      <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>298</v>
+        <v>530</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>300</v>
+        <v>531</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>532</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="24.75">
-      <c r="A29" s="4">
+      <c r="A29" s="1">
         <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="24.75">
+      <c r="A30" s="1">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="24.75">
+      <c r="A31" s="1">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="24.75">
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="24.75">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="24.75">
+      <c r="A34" s="1">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="24.75">
+      <c r="A35" s="1">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="24.75">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="24.75">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="24.75">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.75">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="24.75">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="1">
+        <v>2</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="24.75">
-      <c r="A30" s="4">
-        <v>3</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="24.75">
-      <c r="A31" s="4">
+      <c r="C56" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="1">
         <v>0</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="24.75">
-      <c r="A32" s="4">
-        <v>0</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="24.75">
-      <c r="A33" s="4">
-        <v>2</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="24.75">
-      <c r="A34" s="4">
-        <v>3</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="24.75">
-      <c r="A35" s="4">
-        <v>2</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="24.75">
-      <c r="A36" s="4">
-        <v>1</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="24.75">
-      <c r="A37" s="4">
-        <v>1</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="24.75">
-      <c r="A38" s="4">
-        <v>0</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.75">
-      <c r="A39" s="4">
-        <v>1</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="24.75">
-      <c r="A40" s="4">
-        <v>1</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="4">
-        <v>1</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="4">
-        <v>1</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="4">
-        <v>0</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="4">
-        <v>1</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="4">
-        <v>1</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="4">
-        <v>1</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="4">
-        <v>1</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="4">
-        <v>1</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="4">
-        <v>2</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="4">
-        <v>1</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="4"/>
-      <c r="B51" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="4">
-        <v>1</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="4">
-        <v>1</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="4">
-        <v>1</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="4">
-        <v>1</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="4">
-        <v>1</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="4">
-        <v>0</v>
-      </c>
       <c r="B57" s="2" t="s">
-        <v>371</v>
+        <v>603</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>373</v>
+        <v>604</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>605</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="4">
+      <c r="A58" s="1">
         <v>1</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>374</v>
+        <v>606</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>376</v>
+        <v>607</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>608</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="4">
+      <c r="A59" s="1">
         <v>1</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>378</v>
+        <v>609</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>610</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="4"/>
+      <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3" t="s">
-        <v>380</v>
+        <v>611</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4" t="s">
+        <v>612</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="4"/>
+      <c r="A61" s="1"/>
       <c r="B61" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3" t="s">
-        <v>382</v>
+        <v>613</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4" t="s">
+        <v>614</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="4"/>
+      <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3" t="s">
-        <v>384</v>
+        <v>615</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4" t="s">
+        <v>616</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="4"/>
+      <c r="A63" s="1"/>
       <c r="B63" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3" t="s">
-        <v>386</v>
+        <v>617</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4" t="s">
+        <v>618</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="4"/>
+      <c r="A64" s="1"/>
       <c r="B64" s="2" t="s">
-        <v>387</v>
+        <v>619</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>389</v>
+        <v>620</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>621</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="4"/>
+      <c r="A65" s="1"/>
       <c r="B65" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3" t="s">
-        <v>391</v>
+        <v>622</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4" t="s">
+        <v>623</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="4"/>
+      <c r="A66" s="1"/>
       <c r="B66" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3" t="s">
-        <v>393</v>
+        <v>624</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4" t="s">
+        <v>625</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="4"/>
+      <c r="A67" s="1"/>
       <c r="B67" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3" t="s">
-        <v>395</v>
+        <v>230</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4" t="s">
+        <v>626</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="4"/>
+      <c r="A68" s="1"/>
       <c r="B68" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>398</v>
+        <v>627</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>629</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="4"/>
+      <c r="A69" s="1"/>
       <c r="B69" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3" t="s">
-        <v>400</v>
+        <v>630</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4" t="s">
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -3533,674 +4243,674 @@
   </sheetPr>
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="8.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="18.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
-      <c r="A1" s="4">
+      <c r="A1" s="1">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
-        <v>100</v>
+        <v>331</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>332</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>101</v>
+      <c r="B2" s="11" t="s">
+        <v>333</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>103</v>
+        <v>334</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>106</v>
+      <c r="B3" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>338</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>339</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>109</v>
+        <v>340</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>341</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24.75">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>342</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>112</v>
+        <v>343</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>344</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24.75">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>113</v>
+        <v>345</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>115</v>
+        <v>346</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>347</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
-      <c r="A7" s="4">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>116</v>
+        <v>348</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>118</v>
+        <v>349</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>350</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24.75">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>119</v>
+        <v>351</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>121</v>
+        <v>352</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>353</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>122</v>
+        <v>354</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>124</v>
+        <v>355</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>356</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>125</v>
+        <v>357</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>127</v>
+        <v>358</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>359</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>128</v>
+        <v>360</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>130</v>
+        <v>361</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>362</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>131</v>
+        <v>363</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>133</v>
+        <v>364</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>365</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>134</v>
+        <v>366</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>135</v>
+        <v>367</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>367</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
-      <c r="A14" s="4">
+      <c r="A14" s="1">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>136</v>
+        <v>368</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>138</v>
+        <v>369</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>370</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
-      <c r="A15" s="4">
+      <c r="A15" s="1">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>139</v>
+        <v>371</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>141</v>
+        <v>372</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
-      <c r="A16" s="4">
+      <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>142</v>
+        <v>374</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>144</v>
+        <v>375</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>376</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="24.75">
-      <c r="A17" s="4">
+      <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>145</v>
+        <v>377</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>147</v>
+        <v>378</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>379</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="24.75">
-      <c r="A18" s="4">
+      <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>148</v>
+        <v>380</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>150</v>
+        <v>381</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>382</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24.75">
-      <c r="A19" s="4">
+      <c r="A19" s="1">
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>151</v>
+        <v>383</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>153</v>
+        <v>384</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>385</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.75">
-      <c r="A20" s="4">
+      <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>154</v>
+        <v>386</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>156</v>
+        <v>387</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>388</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="24.75">
-      <c r="A21" s="4">
+      <c r="A21" s="1">
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>157</v>
+        <v>389</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>159</v>
+        <v>390</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>391</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="24.75">
-      <c r="A22" s="4">
+      <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>160</v>
+        <v>392</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>161</v>
+        <v>393</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>393</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="24.75">
-      <c r="A23" s="4">
+      <c r="A23" s="1">
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>162</v>
+        <v>394</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>164</v>
+        <v>395</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>396</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="24.75">
-      <c r="A24" s="4">
+      <c r="A24" s="1">
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>165</v>
+        <v>397</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>167</v>
+        <v>398</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>399</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="24.75">
-      <c r="A25" s="4">
+      <c r="A25" s="1">
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>168</v>
+        <v>400</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>170</v>
+        <v>401</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>402</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="24.75">
-      <c r="A26" s="4">
+      <c r="A26" s="1">
         <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>171</v>
+        <v>403</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="4">
+        <v>404</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="24.75">
+      <c r="A27" s="1">
         <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>174</v>
+        <v>406</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="4">
+        <v>407</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="24.75">
+      <c r="A28" s="1">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>177</v>
+        <v>409</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>179</v>
+        <v>410</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>411</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="4">
+      <c r="A29" s="1">
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>180</v>
+        <v>412</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>182</v>
+        <v>413</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>414</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="4">
+      <c r="A30" s="1">
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>183</v>
+        <v>415</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>185</v>
+        <v>416</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>417</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="4">
+      <c r="A31" s="1">
         <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>186</v>
+        <v>418</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>188</v>
+        <v>419</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>420</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="4">
+      <c r="A32" s="1">
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>189</v>
+        <v>421</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>191</v>
+        <v>422</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>423</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="4">
+      <c r="A33" s="1">
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>192</v>
+        <v>424</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>194</v>
+        <v>425</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>426</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="4">
+      <c r="A34" s="1">
         <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>195</v>
+        <v>427</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>197</v>
+        <v>428</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>429</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="4">
+      <c r="A35" s="1">
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>198</v>
+        <v>430</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>200</v>
+        <v>431</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>432</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="4">
+      <c r="A36" s="1">
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>201</v>
+        <v>433</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>202</v>
+        <v>434</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>434</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="4">
+      <c r="A37" s="1">
         <v>2</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>203</v>
+        <v>435</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>205</v>
+        <v>436</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>437</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="4">
+      <c r="A38" s="1">
         <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>206</v>
+        <v>438</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>208</v>
+        <v>439</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>440</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="4">
+      <c r="A39" s="1">
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3" t="s">
-        <v>210</v>
+        <v>441</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>442</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="4">
+      <c r="A40" s="1">
         <v>1</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3" t="s">
-        <v>212</v>
+        <v>443</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>444</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="4">
+      <c r="A41" s="1">
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>213</v>
+        <v>445</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>215</v>
+        <v>446</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>447</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="4">
+      <c r="A42" s="1">
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>216</v>
+        <v>448</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>218</v>
+        <v>449</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>450</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="9" t="s">
-        <v>219</v>
+      <c r="A43" s="12" t="s">
+        <v>451</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3" t="s">
-        <v>221</v>
+        <v>452</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4" t="s">
+        <v>453</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="4">
+      <c r="A44" s="1">
         <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>222</v>
+        <v>454</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>223</v>
+        <v>455</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>455</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="4"/>
+      <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3" t="s">
-        <v>225</v>
+        <v>456</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>457</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="4"/>
+      <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3" t="s">
-        <v>227</v>
+        <v>458</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>459</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="4"/>
+      <c r="A47" s="1"/>
       <c r="B47" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3" t="s">
-        <v>229</v>
+        <v>460</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4" t="s">
+        <v>461</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="4"/>
+      <c r="A48" s="1"/>
       <c r="B48" s="2" t="s">
-        <v>230</v>
+        <v>462</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>232</v>
+        <v>463</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>464</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="4"/>
+      <c r="A49" s="1"/>
       <c r="B49" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3" t="s">
-        <v>234</v>
+        <v>465</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -4219,399 +4929,1343 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="17.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="6" width="4.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="22.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1">
         <v>0</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="1">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="5"/>
+      <c r="B31" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="5"/>
+      <c r="B32" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="5"/>
+      <c r="B33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
+      <c r="A1" s="1">
+        <v>3</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
+      <c r="A2" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="24.75">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24.75">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24.75">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24.75">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
+      <c r="B22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="1">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1" t="s">
+      <c r="B23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="1">
         <v>0</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="1">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="1" t="s">
+      <c r="C28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="1">
         <v>0</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>81</v>
@@ -4619,74 +6273,340 @@
       <c r="C29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="4"/>
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
       <c r="B30" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="D30" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="4"/>
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
       <c r="B31" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="D31" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="4"/>
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
       <c r="B32" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="C32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="4"/>
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
       <c r="B33" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="4"/>
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
       <c r="B34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="4"/>
+      <c r="A35" s="1">
+        <v>3</v>
+      </c>
       <c r="B35" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>98</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="1">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="1">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="5"/>
+      <c r="B45" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="5"/>
+      <c r="B46" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="1">
+        <v>3</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="1">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="1">
+        <v>0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="5"/>
+      <c r="B53" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="5"/>
+      <c r="B54" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="5"/>
+      <c r="B55" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/dajiaxue/dajiaxue.xlsx
+++ b/dajiaxue/dajiaxue.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huaw\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CCA9EB-C379-44F8-A90A-91146531152D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="1"/>
-    <sheet r:id="rId2" sheetId="2" name="2"/>
-    <sheet r:id="rId3" sheetId="3" name="3"/>
-    <sheet r:id="rId4" sheetId="4" name="4"/>
-    <sheet r:id="rId5" sheetId="5" name="5"/>
-    <sheet r:id="rId6" sheetId="6" name="6"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="2" r:id="rId2"/>
+    <sheet name="3" sheetId="3" r:id="rId3"/>
+    <sheet name="4" sheetId="4" r:id="rId4"/>
+    <sheet name="5" sheetId="5" r:id="rId5"/>
+    <sheet name="6" sheetId="6" r:id="rId6"/>
+    <sheet name="7" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="758">
-  <si>
-    <t>すくます</t>
-  </si>
-  <si>
-    <t>空きます</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="895">
+  <si>
+    <t>すきます</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>空</t>
@@ -2293,18 +2300,565 @@
   </si>
   <si>
     <t>请告诉我～</t>
+  </si>
+  <si>
+    <t>わかります</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分かります</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>あります</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>有ります</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ございます</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>います</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>居ます</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>つかれます</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲れます</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふるい</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>古い</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>さびしい</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>寂しい</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>おかしい</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可笑しい</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>すき</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>好き</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>へや</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部屋</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>つくえ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>かぞく</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>家族</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>こども</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>子供</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>いぬ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>犬</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふんすい</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>噴水</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>おてら</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>お寺</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>じんじゃ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神社</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいぎしつ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>会議室</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>にんき</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人気</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんす</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>扇子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ストラップ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>strap</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ノート</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ドラマ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>drama</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>アニメ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>知道</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>有...（あります的礼貌说法）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>有...（物品）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>有...（人或动物）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>寂寞的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇怪的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜欢</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>桌子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>家人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小孩</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷泉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>寺庙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议室</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人气</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊饰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记本</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>戏剧</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡通</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうかしょ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>教科書</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちず</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地図</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>じかん</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>時間</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>おかね</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>お金</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ようじ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用事</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>こいびと</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恋人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>うえ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>上</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちゅうかりょうり</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中華料理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>わふう</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>和風</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>さくらもよう</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>桜模様</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐草模様</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>からくさもよう</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうさてん</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>交差点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>おおどおり</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大通り</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>すこし</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>少し</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>だいたい</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぜんぶ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>えーっと</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうして</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんそうじ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅草寺</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>～たち</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>～とおり</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通り</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>～メートル</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ｍ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>～から</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうも</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>かしこまりました</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>みぎへまがってください</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>右へ曲がってください</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>教科书</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>事情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>上面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中华料理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>和风</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱花花纹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔓草花纹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字路口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大马路</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一点点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大致上</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯…这个嘛…</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>~们</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>~路</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>~米</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>从~</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢谢</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我了解了</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>请往右转</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2331,6 +2885,27 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2360,62 +2935,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2426,10 +2997,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2467,71 +3038,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2559,7 +3130,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -2582,11 +3153,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -2595,13 +3166,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2611,7 +3182,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2620,7 +3191,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2629,7 +3200,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2637,10 +3208,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -2705,7 +3276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2713,99 +3284,99 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="13" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="37.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="40.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
+    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>637</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
+    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>640</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
+    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>643</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
+    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>646</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
+    <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>648</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
+    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -2815,25 +3386,25 @@
       <c r="C7" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>651</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
+    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>654</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -2843,11 +3414,11 @@
       <c r="C9" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>657</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
+    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -2857,11 +3428,11 @@
       <c r="C10" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>660</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
+    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -2871,11 +3442,11 @@
       <c r="C11" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>663</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
+    <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -2885,11 +3456,11 @@
       <c r="C12" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>666</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
+    <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -2899,11 +3470,11 @@
       <c r="C13" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>668</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
+    <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -2913,11 +3484,11 @@
       <c r="C14" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>671</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
+    <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -2927,11 +3498,11 @@
       <c r="C15" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>673</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
+    <row r="16" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -2941,11 +3512,11 @@
       <c r="C16" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>675</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="24.75">
+    <row r="17" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -2955,11 +3526,11 @@
       <c r="C17" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>678</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="24.75">
+    <row r="18" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -2969,11 +3540,11 @@
       <c r="C18" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" t="s">
         <v>681</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24.75">
+    <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -2983,12 +3554,12 @@
       <c r="C19" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" t="s">
         <v>684</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.75">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="11" t="s">
         <v>685</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2997,12 +3568,12 @@
       <c r="C20" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>688</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="15">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="12">
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -3011,12 +3582,12 @@
       <c r="C21" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" t="s">
         <v>691</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="15">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="12">
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -3025,12 +3596,12 @@
       <c r="C22" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>694</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="15">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="12">
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -3039,24 +3610,24 @@
       <c r="C23" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>697</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="15">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="12">
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" t="s">
         <v>699</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="15">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="12">
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -3065,12 +3636,12 @@
       <c r="C25" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" t="s">
         <v>702</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="15">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="12">
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3079,12 +3650,12 @@
       <c r="C26" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" t="s">
         <v>705</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="15">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="12">
         <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -3093,12 +3664,12 @@
       <c r="C27" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" t="s">
         <v>708</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="15">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="12">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3107,36 +3678,36 @@
       <c r="C28" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" t="s">
         <v>711</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="15">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="12">
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="4" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" t="s">
         <v>713</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="15">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="12">
         <v>3</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="9"/>
+      <c r="D30" t="s">
         <v>715</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="15">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="12">
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3145,31 +3716,31 @@
       <c r="C31" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" t="s">
         <v>718</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="9"/>
+      <c r="D32" t="s">
         <v>720</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="24.75">
+    <row r="33" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="4" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" t="s">
         <v>722</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="24.75">
+    <row r="34" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -3179,23 +3750,23 @@
       <c r="C34" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" t="s">
         <v>725</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="24.75">
+    <row r="35" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="4" t="s">
+      <c r="C35" s="9"/>
+      <c r="D35" t="s">
         <v>727</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="24.75">
+    <row r="36" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -3205,11 +3776,11 @@
       <c r="C36" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" t="s">
         <v>729</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="24.75">
+    <row r="37" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>5</v>
       </c>
@@ -3219,21 +3790,21 @@
       <c r="C37" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" t="s">
         <v>732</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="24.75">
+    <row r="38" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="4" t="s">
+      <c r="C38" s="9"/>
+      <c r="D38" t="s">
         <v>734</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.75">
+    <row r="39" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
         <v>735</v>
@@ -3241,11 +3812,11 @@
       <c r="C39" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" t="s">
         <v>737</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="24.75">
+    <row r="40" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
         <v>738</v>
@@ -3253,11 +3824,11 @@
       <c r="C40" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" t="s">
         <v>740</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="24.75">
+    <row r="41" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
         <v>741</v>
@@ -3265,21 +3836,21 @@
       <c r="C41" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" t="s">
         <v>743</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="24.75">
+    <row r="42" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="4" t="s">
+      <c r="C42" s="9"/>
+      <c r="D42" t="s">
         <v>745</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="24.75">
+    <row r="43" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="2" t="s">
         <v>746</v>
@@ -3287,11 +3858,11 @@
       <c r="C43" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" t="s">
         <v>748</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="24.75">
+    <row r="44" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="2" t="s">
         <v>749</v>
@@ -3299,11 +3870,11 @@
       <c r="C44" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" t="s">
         <v>751</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="24.75">
+    <row r="45" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
         <v>752</v>
@@ -3311,11 +3882,11 @@
       <c r="C45" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" t="s">
         <v>754</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="24.75">
+    <row r="46" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
         <v>755</v>
@@ -3323,239 +3894,224 @@
       <c r="C46" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" t="s">
         <v>757</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
+    <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>3</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>467</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
+    <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="24.75">
+    <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>473</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
+    <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>475</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24.75">
+    <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>477</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24.75">
+    <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>479</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
+    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>481</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24.75">
+    <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>483</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>485</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
+    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
+    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>488</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
+    <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>490</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
+    <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>492</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
+    <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>494</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
+    <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>496</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
+    <row r="16" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>498</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -3565,25 +4121,25 @@
       <c r="C18" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" t="s">
         <v>503</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>505</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" t="s">
         <v>506</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -3593,11 +4149,11 @@
       <c r="C20" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>509</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -3607,11 +4163,11 @@
       <c r="C21" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" t="s">
         <v>511</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="24.75">
+    <row r="22" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -3621,11 +4177,11 @@
       <c r="C22" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>514</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="24.75">
+    <row r="23" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -3635,11 +4191,11 @@
       <c r="C23" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>517</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="24.75">
+    <row r="24" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -3649,11 +4205,11 @@
       <c r="C24" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" t="s">
         <v>520</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="24.75">
+    <row r="25" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -3663,11 +4219,11 @@
       <c r="C25" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" t="s">
         <v>523</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="24.75">
+    <row r="26" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -3677,11 +4233,11 @@
       <c r="C26" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" t="s">
         <v>526</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="24.75">
+    <row r="27" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -3691,11 +4247,11 @@
       <c r="C27" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" t="s">
         <v>529</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="24.75">
+    <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -3705,11 +4261,11 @@
       <c r="C28" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" t="s">
         <v>532</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="24.75">
+    <row r="29" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -3719,11 +4275,11 @@
       <c r="C29" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" t="s">
         <v>535</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="24.75">
+    <row r="30" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -3733,11 +4289,11 @@
       <c r="C30" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" t="s">
         <v>538</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="24.75">
+    <row r="31" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -3747,11 +4303,11 @@
       <c r="C31" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" t="s">
         <v>541</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="24.75">
+    <row r="32" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -3761,11 +4317,11 @@
       <c r="C32" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" t="s">
         <v>544</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="24.75">
+    <row r="33" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -3775,11 +4331,11 @@
       <c r="C33" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" t="s">
         <v>547</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="24.75">
+    <row r="34" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -3789,11 +4345,11 @@
       <c r="C34" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" t="s">
         <v>550</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="24.75">
+    <row r="35" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -3803,11 +4359,11 @@
       <c r="C35" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" t="s">
         <v>553</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="24.75">
+    <row r="36" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -3817,11 +4373,11 @@
       <c r="C36" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" t="s">
         <v>556</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="24.75">
+    <row r="37" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -3831,11 +4387,11 @@
       <c r="C37" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" t="s">
         <v>559</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="24.75">
+    <row r="38" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -3845,11 +4401,11 @@
       <c r="C38" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" t="s">
         <v>562</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.75">
+    <row r="39" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -3859,95 +4415,88 @@
       <c r="C39" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" t="s">
         <v>565</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="24.75">
+    <row r="40" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>1</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
+      <c r="D40" t="s">
         <v>567</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4" t="s">
+      <c r="D41" t="s">
         <v>569</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>1</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4" t="s">
+      <c r="D42" t="s">
         <v>571</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>0</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4" t="s">
+      <c r="D43" t="s">
         <v>573</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4" t="s">
+      <c r="D44" t="s">
         <v>575</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4" t="s">
+      <c r="D45" t="s">
         <v>577</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4" t="s">
+      <c r="D46" t="s">
         <v>579</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -3957,11 +4506,11 @@
       <c r="C47" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" t="s">
         <v>581</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -3971,11 +4520,11 @@
       <c r="C48" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" t="s">
         <v>583</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -3985,11 +4534,11 @@
       <c r="C49" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" t="s">
         <v>585</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -3999,11 +4548,11 @@
       <c r="C50" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" t="s">
         <v>587</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
         <v>588</v>
@@ -4011,11 +4560,11 @@
       <c r="C51" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" t="s">
         <v>590</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -4025,11 +4574,11 @@
       <c r="C52" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" t="s">
         <v>593</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -4039,11 +4588,11 @@
       <c r="C53" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" t="s">
         <v>596</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>1</v>
       </c>
@@ -4053,11 +4602,11 @@
       <c r="C54" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" t="s">
         <v>599</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -4067,11 +4616,11 @@
       <c r="C55" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" t="s">
         <v>602</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -4081,11 +4630,11 @@
       <c r="C56" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" t="s">
         <v>227</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>0</v>
       </c>
@@ -4095,11 +4644,11 @@
       <c r="C57" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" t="s">
         <v>605</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>1</v>
       </c>
@@ -4109,65 +4658,61 @@
       <c r="C58" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" t="s">
         <v>608</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>1</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" t="s">
         <v>610</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" t="s">
         <v>610</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4" t="s">
+      <c r="D60" t="s">
         <v>612</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
       <c r="B61" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4" t="s">
+      <c r="D61" t="s">
         <v>614</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4" t="s">
+      <c r="D62" t="s">
         <v>616</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
       <c r="B63" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4" t="s">
+      <c r="D63" t="s">
         <v>618</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
       <c r="B64" s="2" t="s">
         <v>619</v>
@@ -4175,69 +4720,66 @@
       <c r="C64" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" t="s">
         <v>621</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
       <c r="B65" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4" t="s">
+      <c r="D65" t="s">
         <v>623</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
       <c r="B66" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4" t="s">
+      <c r="D66" t="s">
         <v>625</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
       <c r="B67" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4" t="s">
+      <c r="D67" t="s">
         <v>626</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
       <c r="B68" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" t="s">
         <v>628</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" t="s">
         <v>629</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
       <c r="B69" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4" t="s">
+      <c r="D69" t="s">
         <v>631</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -4245,55 +4787,54 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="13" width="8.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="8.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
+    <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
+    <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>5</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>333</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
+    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>337</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
+    <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4303,11 +4844,11 @@
       <c r="C4" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>341</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24.75">
+    <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4317,11 +4858,11 @@
       <c r="C5" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24.75">
+    <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4331,11 +4872,11 @@
       <c r="C6" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>347</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
+    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4345,11 +4886,11 @@
       <c r="C7" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>350</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24.75">
+    <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4359,11 +4900,11 @@
       <c r="C8" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>353</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -4373,11 +4914,11 @@
       <c r="C9" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>356</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
+    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -4387,11 +4928,11 @@
       <c r="C10" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>359</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
+    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -4401,11 +4942,11 @@
       <c r="C11" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>362</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
+    <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -4415,11 +4956,11 @@
       <c r="C12" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
+    <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -4429,11 +4970,11 @@
       <c r="C13" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>367</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
+    <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -4443,11 +4984,11 @@
       <c r="C14" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>370</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
+    <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -4457,11 +4998,11 @@
       <c r="C15" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
+    <row r="16" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -4471,11 +5012,11 @@
       <c r="C16" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="24.75">
+    <row r="17" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -4485,11 +5026,11 @@
       <c r="C17" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="24.75">
+    <row r="18" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -4499,11 +5040,11 @@
       <c r="C18" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" t="s">
         <v>382</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24.75">
+    <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -4513,11 +5054,11 @@
       <c r="C19" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" t="s">
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.75">
+    <row r="20" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -4527,11 +5068,11 @@
       <c r="C20" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>388</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="24.75">
+    <row r="21" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -4541,11 +5082,11 @@
       <c r="C21" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" t="s">
         <v>391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="24.75">
+    <row r="22" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -4555,11 +5096,11 @@
       <c r="C22" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="24.75">
+    <row r="23" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -4569,11 +5110,11 @@
       <c r="C23" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="24.75">
+    <row r="24" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -4583,11 +5124,11 @@
       <c r="C24" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" t="s">
         <v>399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="24.75">
+    <row r="25" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -4597,11 +5138,11 @@
       <c r="C25" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" t="s">
         <v>402</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="24.75">
+    <row r="26" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -4611,11 +5152,11 @@
       <c r="C26" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" t="s">
         <v>405</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="24.75">
+    <row r="27" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -4625,11 +5166,11 @@
       <c r="C27" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" t="s">
         <v>408</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="24.75">
+    <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -4639,11 +5180,11 @@
       <c r="C28" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" t="s">
         <v>411</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -4653,11 +5194,11 @@
       <c r="C29" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" t="s">
         <v>414</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -4667,11 +5208,11 @@
       <c r="C30" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" t="s">
         <v>417</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>5</v>
       </c>
@@ -4681,11 +5222,11 @@
       <c r="C31" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" t="s">
         <v>420</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -4695,11 +5236,11 @@
       <c r="C32" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" t="s">
         <v>423</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -4709,11 +5250,11 @@
       <c r="C33" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" t="s">
         <v>426</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>5</v>
       </c>
@@ -4723,11 +5264,11 @@
       <c r="C34" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" t="s">
         <v>429</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -4737,11 +5278,11 @@
       <c r="C35" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" t="s">
         <v>432</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -4751,11 +5292,11 @@
       <c r="C36" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" t="s">
         <v>434</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -4765,11 +5306,11 @@
       <c r="C37" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" t="s">
         <v>437</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -4779,35 +5320,33 @@
       <c r="C38" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" t="s">
         <v>440</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4" t="s">
+      <c r="D39" t="s">
         <v>442</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>1</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
+      <c r="D40" t="s">
         <v>444</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -4817,11 +5356,11 @@
       <c r="C41" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" t="s">
         <v>447</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -4831,23 +5370,22 @@
       <c r="C42" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" t="s">
         <v>450</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="12" t="s">
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="10" t="s">
         <v>451</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4" t="s">
+      <c r="D43" t="s">
         <v>453</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -4857,41 +5395,38 @@
       <c r="C44" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" t="s">
         <v>455</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4" t="s">
+      <c r="D45" t="s">
         <v>457</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4" t="s">
+      <c r="D46" t="s">
         <v>459</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4" t="s">
+      <c r="D47" t="s">
         <v>461</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="2" t="s">
         <v>462</v>
@@ -4899,27 +5434,27 @@
       <c r="C48" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" t="s">
         <v>464</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4" t="s">
+      <c r="D49" t="s">
         <v>466</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -4927,16 +5462,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="10" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="4.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4945,12 +5480,12 @@
       <c r="C1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4959,12 +5494,12 @@
       <c r="C2" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
         <v>242</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -4973,12 +5508,12 @@
       <c r="C3" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
         <v>246</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4987,12 +5522,12 @@
       <c r="C4" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
         <v>250</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -5001,12 +5536,12 @@
       <c r="C5" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
         <v>250</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -5015,12 +5550,12 @@
       <c r="C6" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
         <v>242</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -5029,12 +5564,12 @@
       <c r="C7" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>257</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
         <v>258</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -5043,24 +5578,23 @@
       <c r="C8" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>261</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>263</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
         <v>250</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -5069,12 +5603,12 @@
       <c r="C10" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>266</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
         <v>258</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -5083,12 +5617,12 @@
       <c r="C11" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>269</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
         <v>258</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -5097,12 +5631,12 @@
       <c r="C12" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>272</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
         <v>242</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -5111,12 +5645,12 @@
       <c r="C13" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>275</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="7" t="s">
         <v>258</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -5125,12 +5659,12 @@
       <c r="C14" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>277</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
         <v>250</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -5139,12 +5673,12 @@
       <c r="C15" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>280</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
         <v>250</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -5153,12 +5687,12 @@
       <c r="C16" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>283</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
         <v>258</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -5167,12 +5701,12 @@
       <c r="C17" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>286</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="7" t="s">
         <v>242</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -5181,12 +5715,12 @@
       <c r="C18" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" t="s">
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -5195,12 +5729,12 @@
       <c r="C19" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="7" t="s">
         <v>242</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -5209,48 +5743,45 @@
       <c r="C20" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>295</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="7" t="s">
         <v>250</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
+      <c r="D21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="7" t="s">
         <v>258</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>298</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="7" t="s">
         <v>258</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="7" t="s">
         <v>258</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -5259,12 +5790,12 @@
       <c r="C24" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" t="s">
         <v>227</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="7" t="s">
         <v>250</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -5273,12 +5804,12 @@
       <c r="C25" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" t="s">
         <v>304</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="7" t="s">
         <v>250</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -5287,12 +5818,12 @@
       <c r="C26" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" t="s">
         <v>307</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="7" t="s">
         <v>250</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -5301,12 +5832,12 @@
       <c r="C27" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" t="s">
         <v>310</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -5315,12 +5846,12 @@
       <c r="C28" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" t="s">
         <v>312</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="7" t="s">
         <v>258</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -5329,21 +5860,20 @@
       <c r="C29" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" t="s">
         <v>315</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
+      <c r="D30" t="s">
         <v>317</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>318</v>
@@ -5351,21 +5881,20 @@
       <c r="C31" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" t="s">
         <v>320</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
+      <c r="D32" t="s">
         <v>322</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
         <v>323</v>
@@ -5373,11 +5902,11 @@
       <c r="C33" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" t="s">
         <v>325</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>326</v>
@@ -5385,27 +5914,27 @@
       <c r="C34" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" t="s">
         <v>328</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4" t="s">
+      <c r="D35" t="s">
         <v>330</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -5413,15 +5942,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="6" width="4.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="4.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>3</v>
       </c>
@@ -5431,11 +5960,11 @@
       <c r="C1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -5445,11 +5974,11 @@
       <c r="C2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5459,11 +5988,11 @@
       <c r="C3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5473,11 +6002,11 @@
       <c r="C4" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5487,11 +6016,11 @@
       <c r="C5" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -5501,23 +6030,23 @@
       <c r="C6" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -5527,11 +6056,11 @@
       <c r="C8" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -5541,23 +6070,23 @@
       <c r="C9" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -5567,11 +6096,11 @@
       <c r="C11" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -5581,11 +6110,11 @@
       <c r="C12" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -5595,11 +6124,11 @@
       <c r="C13" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>184</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -5609,11 +6138,11 @@
       <c r="C14" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -5623,11 +6152,11 @@
       <c r="C15" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>189</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -5637,11 +6166,11 @@
       <c r="C16" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>192</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -5651,11 +6180,11 @@
       <c r="C17" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -5665,11 +6194,11 @@
       <c r="C18" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" t="s">
         <v>198</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -5679,11 +6208,11 @@
       <c r="C19" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -5693,35 +6222,35 @@
       <c r="C20" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" t="s">
         <v>208</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -5731,23 +6260,23 @@
       <c r="C23" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>211</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" t="s">
         <v>213</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -5757,59 +6286,59 @@
       <c r="C25" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" t="s">
         <v>216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" t="s">
         <v>218</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>3</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" t="s">
         <v>220</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" t="s">
         <v>222</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" t="s">
         <v>224</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -5819,49 +6348,50 @@
       <c r="C30" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" t="s">
         <v>227</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="5"/>
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31" t="s">
         <v>229</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="5"/>
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" t="s">
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="5"/>
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
         <v>232</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -5869,15 +6399,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
+    <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>3</v>
       </c>
@@ -5887,11 +6417,11 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
+    <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -5901,11 +6431,11 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="24.75">
+    <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5915,11 +6445,11 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
+    <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5929,11 +6459,11 @@
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24.75">
+    <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -5943,11 +6473,11 @@
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24.75">
+    <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5957,11 +6487,11 @@
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
+    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -5971,11 +6501,11 @@
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24.75">
+    <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -5985,11 +6515,11 @@
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -5999,11 +6529,11 @@
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
+    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -6013,23 +6543,23 @@
       <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
+    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
+    <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -6039,35 +6569,35 @@
       <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
+    <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
+    <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -6077,11 +6607,11 @@
       <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -6091,11 +6621,11 @@
       <c r="C16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -6105,11 +6635,11 @@
       <c r="C17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -6119,11 +6649,11 @@
       <c r="C18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -6133,11 +6663,11 @@
       <c r="C19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -6147,11 +6677,11 @@
       <c r="C20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -6161,11 +6691,11 @@
       <c r="C21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -6175,11 +6705,11 @@
       <c r="C22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -6189,11 +6719,11 @@
       <c r="C23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -6203,11 +6733,11 @@
       <c r="C24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -6217,11 +6747,11 @@
       <c r="C25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -6231,11 +6761,11 @@
       <c r="C26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -6245,11 +6775,11 @@
       <c r="C27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -6259,11 +6789,11 @@
       <c r="C28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -6273,11 +6803,11 @@
       <c r="C29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -6287,11 +6817,11 @@
       <c r="C30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" t="s">
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -6301,11 +6831,11 @@
       <c r="C31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -6315,35 +6845,35 @@
       <c r="C32" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" t="s">
         <v>92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" t="s">
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -6353,11 +6883,11 @@
       <c r="C35" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" t="s">
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -6367,35 +6897,35 @@
       <c r="C36" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4" t="s">
+      <c r="C37" s="4"/>
+      <c r="D37" t="s">
         <v>104</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>1</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="4" t="s">
+      <c r="C38" s="4"/>
+      <c r="D38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -6405,11 +6935,11 @@
       <c r="C39" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" t="s">
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -6419,79 +6949,79 @@
       <c r="C40" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" t="s">
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="4" t="s">
+      <c r="C41" s="4"/>
+      <c r="D41" t="s">
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="4" t="s">
+      <c r="C42" s="4"/>
+      <c r="D42" t="s">
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="4" t="s">
+      <c r="C43" s="4"/>
+      <c r="D43" t="s">
         <v>118</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="4" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" t="s">
         <v>120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="5"/>
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="4" t="s">
+      <c r="C45" s="4"/>
+      <c r="D45" t="s">
         <v>122</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="5"/>
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="4" t="s">
+      <c r="C46" s="4"/>
+      <c r="D46" t="s">
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>3</v>
       </c>
@@ -6501,11 +7031,11 @@
       <c r="C47" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" t="s">
         <v>126</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -6515,11 +7045,11 @@
       <c r="C48" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" t="s">
         <v>129</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -6529,11 +7059,11 @@
       <c r="C49" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" t="s">
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -6543,11 +7073,11 @@
       <c r="C50" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" t="s">
         <v>133</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -6557,59 +7087,749 @@
       <c r="C51" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" t="s">
         <v>136</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>1</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="4" t="s">
+      <c r="C52" s="4"/>
+      <c r="D52" t="s">
         <v>138</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="5"/>
+    <row r="53" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="1"/>
       <c r="B53" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" t="s">
         <v>141</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="5"/>
+    <row r="54" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="1"/>
       <c r="B54" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" t="s">
         <v>144</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="5"/>
+    <row r="55" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="1"/>
       <c r="B55" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" t="s">
         <v>147</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF713880-DA6C-43E0-A4D1-CA9E9FEBBA5E}">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>758</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>759</v>
+      </c>
+      <c r="D1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="D2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>762</v>
+      </c>
+      <c r="D3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>763</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>764</v>
+      </c>
+      <c r="D4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>766</v>
+      </c>
+      <c r="D5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>767</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>768</v>
+      </c>
+      <c r="D6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="D7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="D8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="D9" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="D10" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="D11" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>779</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="D12" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="D13" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="D14" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="D15" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="D16" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>789</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="D17" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>791</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="D18" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>794</v>
+      </c>
+      <c r="D19" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="D20" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="D21" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>799</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>800</v>
+      </c>
+      <c r="D22" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>802</v>
+      </c>
+      <c r="D23" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>804</v>
+      </c>
+      <c r="D24" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>827</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>828</v>
+      </c>
+      <c r="D25" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>830</v>
+      </c>
+      <c r="D26" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>832</v>
+      </c>
+      <c r="D27" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>833</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>834</v>
+      </c>
+      <c r="D28" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>836</v>
+      </c>
+      <c r="D29" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>838</v>
+      </c>
+      <c r="D30" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="D31" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>842</v>
+      </c>
+      <c r="D32" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>844</v>
+      </c>
+      <c r="D33" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>845</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>846</v>
+      </c>
+      <c r="D34" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>848</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>847</v>
+      </c>
+      <c r="D35" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>849</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>850</v>
+      </c>
+      <c r="D36" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>851</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="D37" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>854</v>
+      </c>
+      <c r="D38" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>855</v>
+      </c>
+      <c r="D39" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>856</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>857</v>
+      </c>
+      <c r="D40" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>858</v>
+      </c>
+      <c r="D41" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>859</v>
+      </c>
+      <c r="D42" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>860</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>861</v>
+      </c>
+      <c r="D43" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>862</v>
+      </c>
+      <c r="D44" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>863</v>
+      </c>
+      <c r="C45" t="s">
+        <v>864</v>
+      </c>
+      <c r="D45" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>865</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>866</v>
+      </c>
+      <c r="D46" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>867</v>
+      </c>
+      <c r="D47" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B48" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="D48" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B49" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="D49" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B50" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="D50" t="s">
+        <v>894</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/dajiaxue/dajiaxue.xlsx
+++ b/dajiaxue/dajiaxue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="895">
   <si>
     <t>わかります</t>
   </si>
@@ -37,13 +37,13 @@
     <t>有ります</t>
   </si>
   <si>
-    <t>有...（物品）</t>
+    <t>有物品</t>
   </si>
   <si>
     <t>ございます</t>
   </si>
   <si>
-    <t>有...（あります的礼貌说法）</t>
+    <t>あります的礼貌说法</t>
   </si>
   <si>
     <t>います</t>
@@ -52,7 +52,7 @@
     <t>居ます</t>
   </si>
   <si>
-    <t>有...（人或动物）</t>
+    <t>有人或动物</t>
   </si>
   <si>
     <t>つかれます</t>
@@ -367,7 +367,7 @@
     <t>えーっと</t>
   </si>
   <si>
-    <t>嗯…这个嘛…</t>
+    <t>嗯这个嘛</t>
   </si>
   <si>
     <t>どうして</t>
@@ -1802,9 +1802,6 @@
   </si>
   <si>
     <t>ルフラン</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Refrain虚构的餐厅</t>
@@ -2725,7 +2722,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2743,7 +2740,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2781,7 +2778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2792,47 +2789,41 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3148,616 +3139,616 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="37.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="40.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="37.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="40.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="16.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
-      <c r="A1" s="8">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>770</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
-      <c r="A2" s="8">
+      <c r="C2" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>773</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>774</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>776</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>782</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="D5" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
-      <c r="A6" s="8">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="3" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
-      <c r="A7" s="8">
+      <c r="C7" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B8" s="10" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
-      <c r="A8" s="8">
+      <c r="C8" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
+      <c r="A15" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>790</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>791</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
-      <c r="A10" s="8">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
-      <c r="A12" s="8">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
-      <c r="A13" s="8">
+      <c r="B15" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="24.75">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="24.75">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24.75">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.75">
+      <c r="A20" s="16" t="s">
+        <v>822</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="17">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="17">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="17">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="17">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="3" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="17">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="17">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="17">
         <v>4</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
-      <c r="A14" s="8">
+      <c r="B27" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="17">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="17">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="3" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="17">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="3" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="17">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="3" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="24.75">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="3" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="24.75">
+      <c r="A34" s="1">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="24.75">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="24.75">
+      <c r="A36" s="1">
         <v>4</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
-      <c r="A15" s="8">
-        <v>3</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
-      <c r="A16" s="8">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="24.75">
-      <c r="A17" s="8">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="24.75">
-      <c r="A18" s="8">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24.75">
-      <c r="A19" s="8">
+      <c r="B36" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="24.75">
+      <c r="A37" s="1">
         <v>5</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.75">
-      <c r="A20" s="18" t="s">
-        <v>823</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="19">
-        <v>3</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="19">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="19">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="19">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="3" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="19">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="19">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="19">
-        <v>4</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="19">
-        <v>3</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="19">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="3" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="19">
-        <v>3</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="3" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="19">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="8"/>
-      <c r="B32" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="3" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="24.75">
-      <c r="A33" s="8"/>
-      <c r="B33" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="3" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="24.75">
-      <c r="A34" s="8">
-        <v>3</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="24.75">
-      <c r="A35" s="8">
-        <v>0</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="3" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="24.75">
-      <c r="A36" s="8">
-        <v>4</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="24.75">
-      <c r="A37" s="8">
-        <v>5</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="D37" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="24.75">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="24.75">
-      <c r="A38" s="8"/>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="10"/>
+      <c r="D38" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.75">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.75">
-      <c r="A39" s="8"/>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="D39" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="24.75">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="24.75">
-      <c r="A40" s="8"/>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="D40" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="24.75">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="24.75">
-      <c r="A41" s="8"/>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="D41" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="24.75">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="24.75">
-      <c r="A42" s="8"/>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="10"/>
+      <c r="D42" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="24.75">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="24.75">
-      <c r="A43" s="8"/>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="D43" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="24.75">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="24.75">
-      <c r="A44" s="8"/>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="D44" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="24.75">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="24.75">
-      <c r="A45" s="8"/>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="D45" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="24.75">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="24.75">
-      <c r="A46" s="8"/>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>894</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>895</v>
       </c>
     </row>
   </sheetData>
@@ -3776,128 +3767,128 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="22.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
-      <c r="A1" s="8">
+      <c r="A1" s="1">
         <v>3</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>609</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
-      <c r="A2" s="8">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>610</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="24.75">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>611</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="24.75">
-      <c r="A3" s="8">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>613</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
-      <c r="A4" s="8">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>614</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24.75">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>615</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24.75">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>616</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24.75">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>617</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24.75">
-      <c r="A6" s="8">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>618</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>619</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
-      <c r="A7" s="8">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>620</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24.75">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>621</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24.75">
-      <c r="A8" s="8">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>622</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>623</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>624</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>625</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
-      <c r="A10" s="8">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>626</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
@@ -3905,607 +3896,607 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
-      <c r="A11" s="8">
+      <c r="A11" s="1">
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>628</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
-      <c r="A12" s="8">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>629</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>630</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>631</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>632</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
-      <c r="A14" s="8">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>634</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
-      <c r="A15" s="8">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>636</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
-      <c r="A16" s="8">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>637</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>638</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="8">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>639</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="8">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="D18" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="8">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="D19" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="8">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D20" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="8">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="24.75">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="24.75">
-      <c r="A22" s="8">
-        <v>2</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="D22" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="24.75">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="24.75">
-      <c r="A23" s="8">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="D23" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="24.75">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="24.75">
-      <c r="A24" s="8">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="D24" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="24.75">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="24.75">
-      <c r="A25" s="8">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="D25" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="24.75">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="24.75">
-      <c r="A26" s="8">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="D26" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="24.75">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="24.75">
-      <c r="A27" s="8">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>668</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="24.75">
-      <c r="A28" s="8">
+      <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="D28" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="24.75">
+      <c r="A29" s="1">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="24.75">
-      <c r="A29" s="8">
+      <c r="C29" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="24.75">
+      <c r="A30" s="1">
         <v>3</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="24.75">
-      <c r="A30" s="8">
+      <c r="C30" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="24.75">
+      <c r="A31" s="1">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="24.75">
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="24.75">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="24.75">
+      <c r="A34" s="1">
         <v>3</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="24.75">
-      <c r="A31" s="8">
-        <v>0</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="24.75">
-      <c r="A32" s="8">
-        <v>0</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="24.75">
-      <c r="A33" s="8">
+      <c r="B34" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="24.75">
+      <c r="A35" s="1">
         <v>2</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="24.75">
-      <c r="A34" s="8">
-        <v>3</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="24.75">
-      <c r="A35" s="8">
-        <v>2</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="D35" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="24.75">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="24.75">
-      <c r="A36" s="8">
-        <v>1</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="D36" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="24.75">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="24.75">
-      <c r="A37" s="8">
-        <v>1</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="D37" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="24.75">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="24.75">
-      <c r="A38" s="8">
-        <v>0</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="D38" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.75">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.75">
-      <c r="A39" s="8">
-        <v>1</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="D39" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="24.75">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>704</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="24.75">
-      <c r="A40" s="8">
-        <v>1</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>705</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>706</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="8">
-        <v>1</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>707</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>708</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="8">
-        <v>1</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>709</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>710</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="8">
-        <v>0</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>711</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>712</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="8">
-        <v>1</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>713</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>714</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="8">
-        <v>1</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>715</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>716</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="8">
-        <v>1</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>717</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="8">
-        <v>1</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="8">
-        <v>1</v>
-      </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="1">
+        <v>2</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="8">
-        <v>2</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="8">
-        <v>1</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="8"/>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="D51" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="8">
-        <v>1</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="D52" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="8">
-        <v>1</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="D53" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="8">
-        <v>1</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="D54" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="8">
-        <v>1</v>
-      </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>741</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="8">
+      <c r="A56" s="1">
         <v>1</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -4519,51 +4510,51 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="8">
+      <c r="A57" s="1">
         <v>0</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="D57" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="8">
-        <v>1</v>
-      </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="D58" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="8">
-        <v>1</v>
-      </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2" t="s">
         <v>749</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="8"/>
-      <c r="B60" s="2" t="s">
-        <v>750</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
@@ -4571,97 +4562,97 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="8"/>
+      <c r="A61" s="1"/>
       <c r="B61" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2" t="s">
         <v>752</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="8"/>
-      <c r="B62" s="2" t="s">
-        <v>753</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2" t="s">
         <v>754</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="8"/>
-      <c r="B63" s="2" t="s">
-        <v>755</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="8"/>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="D64" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2" t="s">
         <v>759</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="8"/>
-      <c r="B65" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2" t="s">
         <v>761</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="8"/>
-      <c r="B66" s="2" t="s">
-        <v>762</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="8"/>
+      <c r="A67" s="1"/>
       <c r="B67" s="2" t="s">
         <v>366</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="8"/>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="D68" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2" t="s">
         <v>767</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="8"/>
-      <c r="B69" s="2" t="s">
-        <v>768</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -4676,18 +4667,18 @@
   </sheetPr>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="8.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="34.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="34.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="18.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
-      <c r="A1" s="8">
+      <c r="A1" s="1">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4699,10 +4690,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
-      <c r="A2" s="8">
+      <c r="A2" s="1">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>469</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -4713,10 +4704,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
-      <c r="A3" s="8">
+      <c r="A3" s="1">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>472</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -4727,7 +4718,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
-      <c r="A4" s="8">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4741,7 +4732,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24.75">
-      <c r="A5" s="8">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -4755,7 +4746,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24.75">
-      <c r="A6" s="8">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -4769,7 +4760,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
-      <c r="A7" s="8">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4783,7 +4774,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24.75">
-      <c r="A8" s="8">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4797,7 +4788,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
-      <c r="A9" s="8">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -4811,7 +4802,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
-      <c r="A10" s="8">
+      <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -4825,7 +4816,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
-      <c r="A11" s="8">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -4839,7 +4830,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
-      <c r="A12" s="8">
+      <c r="A12" s="1">
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -4853,7 +4844,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
-      <c r="A13" s="8">
+      <c r="A13" s="1">
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -4867,7 +4858,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
-      <c r="A14" s="8">
+      <c r="A14" s="1">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -4881,7 +4872,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
-      <c r="A15" s="8">
+      <c r="A15" s="1">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4895,7 +4886,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
-      <c r="A16" s="8">
+      <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -4909,7 +4900,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="24.75">
-      <c r="A17" s="8">
+      <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -4923,7 +4914,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="24.75">
-      <c r="A18" s="8">
+      <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -4937,7 +4928,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24.75">
-      <c r="A19" s="8">
+      <c r="A19" s="1">
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -4951,7 +4942,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.75">
-      <c r="A20" s="8">
+      <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -4965,7 +4956,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="24.75">
-      <c r="A21" s="8">
+      <c r="A21" s="1">
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -4979,7 +4970,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="24.75">
-      <c r="A22" s="8">
+      <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -4993,7 +4984,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="24.75">
-      <c r="A23" s="8">
+      <c r="A23" s="1">
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -5007,7 +4998,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="24.75">
-      <c r="A24" s="8">
+      <c r="A24" s="1">
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -5021,7 +5012,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="24.75">
-      <c r="A25" s="8">
+      <c r="A25" s="1">
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -5035,7 +5026,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="24.75">
-      <c r="A26" s="8">
+      <c r="A26" s="1">
         <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -5049,7 +5040,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="24.75">
-      <c r="A27" s="8">
+      <c r="A27" s="1">
         <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -5063,7 +5054,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="24.75">
-      <c r="A28" s="8">
+      <c r="A28" s="1">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -5077,7 +5068,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="8">
+      <c r="A29" s="1">
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -5091,7 +5082,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="8">
+      <c r="A30" s="1">
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -5105,7 +5096,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="8">
+      <c r="A31" s="1">
         <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -5119,7 +5110,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="8">
+      <c r="A32" s="1">
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -5133,7 +5124,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="8">
+      <c r="A33" s="1">
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -5147,7 +5138,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="8">
+      <c r="A34" s="1">
         <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -5161,7 +5152,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="8">
+      <c r="A35" s="1">
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -5175,7 +5166,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="8">
+      <c r="A36" s="1">
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -5188,8 +5179,8 @@
         <v>570</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="8">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="24.75">
+      <c r="A37" s="1">
         <v>2</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -5202,8 +5193,8 @@
         <v>573</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="8">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="24.75">
+      <c r="A38" s="1">
         <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -5216,8 +5207,8 @@
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="8">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.75">
+      <c r="A39" s="1">
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -5228,8 +5219,8 @@
         <v>578</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="8">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="24.75">
+      <c r="A40" s="1">
         <v>1</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -5240,8 +5231,8 @@
         <v>580</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="8">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="24.75">
+      <c r="A41" s="1">
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -5254,8 +5245,8 @@
         <v>583</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="8">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="24.75">
+      <c r="A42" s="1">
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -5269,10 +5260,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="14">
-        <v>1</v>
-      </c>
-      <c r="B43" s="15" t="s">
+      <c r="A43" s="6">
+        <v>1</v>
+      </c>
+      <c r="B43" s="14" t="s">
         <v>587</v>
       </c>
       <c r="C43" s="3"/>
@@ -5280,8 +5271,8 @@
         <v>588</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="16">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="24.75">
+      <c r="A44" s="15">
         <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -5292,8 +5283,8 @@
         <v>590</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="8">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="24.75">
+      <c r="A45" s="1">
         <v>0</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -5307,67 +5298,65 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15" t="s">
+      <c r="A46" s="6"/>
+      <c r="B46" s="14" t="s">
         <v>593</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="D46" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="24.75">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2" t="s">
         <v>595</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="8"/>
-      <c r="B47" s="2" t="s">
-        <v>596</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="24.75">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2" t="s">
         <v>597</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="8"/>
-      <c r="B48" s="2" t="s">
-        <v>598</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="24.75">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2" t="s">
         <v>599</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="8"/>
-      <c r="B49" s="2" t="s">
-        <v>600</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="8"/>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="D50" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2" t="s">
         <v>604</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="8"/>
-      <c r="B51" s="2" t="s">
-        <v>605</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -5387,9 +5376,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="13" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="17.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
@@ -5791,7 +5780,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="8"/>
+      <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>452</v>
       </c>
@@ -5801,7 +5790,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="8"/>
+      <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>454</v>
       </c>
@@ -5813,7 +5802,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="8"/>
+      <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>457</v>
       </c>
@@ -5823,7 +5812,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="8"/>
+      <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
         <v>459</v>
       </c>
@@ -5835,7 +5824,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="8"/>
+      <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>462</v>
       </c>
@@ -5847,7 +5836,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="8"/>
+      <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
         <v>465</v>
       </c>
@@ -5872,14 +5861,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="4.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="4.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="22.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="8">
+      <c r="A1" s="1">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -5893,7 +5882,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="8">
+      <c r="A2" s="1">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -5907,7 +5896,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="8">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -5921,7 +5910,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="8">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -5935,7 +5924,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="8">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -5949,7 +5938,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="8">
+      <c r="A6" s="1">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -5963,19 +5952,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="8">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="3" t="s">
         <v>303</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="8">
+      <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -5989,7 +5978,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="8">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -6003,19 +5992,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="8">
+      <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="3" t="s">
         <v>311</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="8">
+      <c r="A11" s="1">
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -6029,7 +6018,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="8">
+      <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -6043,7 +6032,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="8">
+      <c r="A13" s="1">
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -6057,7 +6046,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="8">
+      <c r="A14" s="1">
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -6071,7 +6060,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="8">
+      <c r="A15" s="1">
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -6085,7 +6074,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="8">
+      <c r="A16" s="1">
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -6099,7 +6088,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="8">
+      <c r="A17" s="1">
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -6113,7 +6102,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="8">
+      <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -6127,7 +6116,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="8">
+      <c r="A19" s="1">
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -6141,7 +6130,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="8">
+      <c r="A20" s="1">
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -6155,31 +6144,31 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="8">
+      <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="3" t="s">
         <v>342</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="8">
+      <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="3" t="s">
         <v>344</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="8">
+      <c r="A23" s="1">
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -6193,19 +6182,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="8">
+      <c r="A24" s="1">
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="3" t="s">
         <v>349</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="8">
+      <c r="A25" s="1">
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -6219,55 +6208,55 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="8">
+      <c r="A26" s="1">
         <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="3" t="s">
         <v>354</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="8">
+      <c r="A27" s="1">
         <v>3</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="3" t="s">
         <v>356</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="8">
+      <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="3" t="s">
         <v>358</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="8">
+      <c r="A29" s="1">
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="3" t="s">
         <v>360</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="8">
+      <c r="A30" s="1">
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -6281,27 +6270,27 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="8"/>
+      <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="3" t="s">
         <v>365</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="8"/>
+      <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="3" t="s">
         <v>367</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="8"/>
+      <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
         <v>368</v>
       </c>
@@ -6328,26 +6317,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
-      <c r="A1" s="8">
+      <c r="A1" s="1">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="9"/>
+      <c r="C1" s="10"/>
       <c r="D1" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
-      <c r="A2" s="8">
+      <c r="A2" s="1">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -6361,7 +6350,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="24.75">
-      <c r="A3" s="8">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -6375,7 +6364,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
-      <c r="A4" s="8">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -6389,7 +6378,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24.75">
-      <c r="A5" s="8">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -6403,7 +6392,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24.75">
-      <c r="A6" s="8">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -6417,7 +6406,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
-      <c r="A7" s="8">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -6431,7 +6420,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24.75">
-      <c r="A8" s="8">
+      <c r="A8" s="1">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -6445,7 +6434,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
-      <c r="A9" s="8">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -6459,7 +6448,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
-      <c r="A10" s="8">
+      <c r="A10" s="1">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -6473,19 +6462,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
-      <c r="A11" s="8">
+      <c r="A11" s="1">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="3" t="s">
         <v>167</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
-      <c r="A12" s="8">
+      <c r="A12" s="1">
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -6499,31 +6488,31 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
-      <c r="A13" s="8">
+      <c r="A13" s="1">
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
-      <c r="A14" s="8">
+      <c r="A14" s="1">
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="3" t="s">
         <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="8">
+      <c r="A15" s="1">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -6537,7 +6526,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="8">
+      <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -6551,7 +6540,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="8">
+      <c r="A17" s="1">
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -6565,7 +6554,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="8">
+      <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -6579,7 +6568,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="8">
+      <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -6593,7 +6582,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="8">
+      <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -6607,7 +6596,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="8">
+      <c r="A21" s="1">
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -6621,7 +6610,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="8">
+      <c r="A22" s="1">
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -6635,7 +6624,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="8">
+      <c r="A23" s="1">
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -6649,7 +6638,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="8">
+      <c r="A24" s="1">
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -6663,7 +6652,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="8">
+      <c r="A25" s="1">
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -6677,7 +6666,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="8">
+      <c r="A26" s="1">
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -6691,7 +6680,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="8">
+      <c r="A27" s="1">
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -6705,7 +6694,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="8">
+      <c r="A28" s="1">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -6719,7 +6708,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="8">
+      <c r="A29" s="1">
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -6733,7 +6722,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="8">
+      <c r="A30" s="1">
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -6747,7 +6736,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="8">
+      <c r="A31" s="1">
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -6761,7 +6750,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="8">
+      <c r="A32" s="1">
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -6775,31 +6764,31 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="8">
+      <c r="A33" s="1">
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C33" s="9"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="3" t="s">
         <v>230</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="8">
+      <c r="A34" s="1">
         <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="3" t="s">
         <v>232</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="8">
+      <c r="A35" s="1">
         <v>3</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -6813,7 +6802,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="8">
+      <c r="A36" s="1">
         <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -6827,31 +6816,31 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="8">
+      <c r="A37" s="1">
         <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="9"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="3" t="s">
         <v>240</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="8">
+      <c r="A38" s="1">
         <v>1</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C38" s="9"/>
+      <c r="C38" s="10"/>
       <c r="D38" s="3" t="s">
         <v>242</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="8">
+      <c r="A39" s="1">
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -6865,7 +6854,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="8">
+      <c r="A40" s="1">
         <v>2</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -6879,75 +6868,75 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="8">
+      <c r="A41" s="1">
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C41" s="9"/>
+      <c r="C41" s="10"/>
       <c r="D41" s="3" t="s">
         <v>250</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="8">
+      <c r="A42" s="1">
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C42" s="9"/>
+      <c r="C42" s="10"/>
       <c r="D42" s="3" t="s">
         <v>252</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="8">
+      <c r="A43" s="1">
         <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C43" s="9"/>
+      <c r="C43" s="10"/>
       <c r="D43" s="3" t="s">
         <v>254</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="8">
+      <c r="A44" s="1">
         <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C44" s="9"/>
+      <c r="C44" s="10"/>
       <c r="D44" s="3" t="s">
         <v>256</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="8"/>
+      <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C45" s="9"/>
+      <c r="C45" s="10"/>
       <c r="D45" s="3" t="s">
         <v>258</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="8"/>
+      <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C46" s="9"/>
+      <c r="C46" s="10"/>
       <c r="D46" s="3" t="s">
         <v>260</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="8">
+      <c r="A47" s="1">
         <v>3</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -6961,7 +6950,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="8">
+      <c r="A48" s="1">
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -6975,7 +6964,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="8">
+      <c r="A49" s="1">
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -6989,7 +6978,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="8">
+      <c r="A50" s="1">
         <v>1</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -7003,7 +6992,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="8">
+      <c r="A51" s="1">
         <v>1</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -7017,19 +7006,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="8">
+      <c r="A52" s="1">
         <v>1</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C52" s="9"/>
+      <c r="C52" s="10"/>
       <c r="D52" s="3" t="s">
         <v>274</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="8"/>
+      <c r="A53" s="1"/>
       <c r="B53" s="2" t="s">
         <v>275</v>
       </c>
@@ -7041,7 +7030,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="8"/>
+      <c r="A54" s="1"/>
       <c r="B54" s="2" t="s">
         <v>278</v>
       </c>
@@ -7053,7 +7042,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="8"/>
+      <c r="A55" s="1"/>
       <c r="B55" s="2" t="s">
         <v>281</v>
       </c>
@@ -7076,14 +7065,14 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="37.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="23.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="37.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -7121,7 +7110,7 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
@@ -7424,10 +7413,10 @@
       <c r="A25" s="1">
         <v>3</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -7438,10 +7427,10 @@
       <c r="A26" s="1">
         <v>1</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -7452,7 +7441,7 @@
       <c r="A27" s="1">
         <v>0</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -7466,10 +7455,10 @@
       <c r="A28" s="1">
         <v>0</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>79</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -7480,10 +7469,10 @@
       <c r="A29" s="1">
         <v>0</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -7494,10 +7483,10 @@
       <c r="A30" s="1">
         <v>0</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -7508,10 +7497,10 @@
       <c r="A31" s="1">
         <v>0</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -7522,10 +7511,10 @@
       <c r="A32" s="1">
         <v>4</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>90</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -7536,10 +7525,10 @@
       <c r="A33" s="1">
         <v>0</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -7550,10 +7539,10 @@
       <c r="A34" s="1">
         <v>4</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>96</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -7564,10 +7553,10 @@
       <c r="A35" s="1">
         <v>5</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -7578,10 +7567,10 @@
       <c r="A36" s="1">
         <v>0</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="5" t="s">
         <v>102</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -7592,10 +7581,10 @@
       <c r="A37" s="1">
         <v>3</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="5" t="s">
         <v>105</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -7606,10 +7595,10 @@
       <c r="A38" s="1">
         <v>2</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="5" t="s">
         <v>108</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -7620,10 +7609,10 @@
       <c r="A39" s="1">
         <v>0</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="4"/>
       <c r="D39" s="3" t="s">
         <v>111</v>
       </c>
@@ -7632,10 +7621,10 @@
       <c r="A40" s="1">
         <v>1</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="5" t="s">
         <v>113</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -7646,10 +7635,10 @@
       <c r="A41" s="1">
         <v>0</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="4"/>
       <c r="D41" s="3" t="s">
         <v>115</v>
       </c>
@@ -7658,10 +7647,10 @@
       <c r="A42" s="1">
         <v>1</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="4"/>
       <c r="D42" s="3" t="s">
         <v>117</v>
       </c>
@@ -7670,10 +7659,10 @@
       <c r="A43" s="1">
         <v>1</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>119</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -7684,10 +7673,10 @@
       <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="3" t="s">
         <v>121</v>
       </c>
@@ -7696,10 +7685,10 @@
       <c r="A45" s="1">
         <v>0</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="4" t="s">
         <v>123</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -7710,10 +7699,10 @@
       <c r="A46" s="1">
         <v>0</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="5" t="s">
         <v>126</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -7724,40 +7713,40 @@
       <c r="A47" s="1">
         <v>1</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="4"/>
       <c r="D47" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="5"/>
-      <c r="B48" s="4" t="s">
+      <c r="A48" s="6"/>
+      <c r="B48" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="5"/>
-      <c r="B49" s="4" t="s">
+      <c r="A49" s="6"/>
+      <c r="B49" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="5"/>
-      <c r="B50" s="4" t="s">
+      <c r="A50" s="6"/>
+      <c r="B50" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="5" t="s">
         <v>135</v>
       </c>
       <c r="D50" s="3" t="s">

--- a/dajiaxue/dajiaxue.xlsx
+++ b/dajiaxue/dajiaxue.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huaw\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE31535-FED2-49A1-AAF9-8D88D76B854D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="6"/>
+    <workbookView xWindow="5970" yWindow="975" windowWidth="15300" windowHeight="7875" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="1"/>
-    <sheet r:id="rId2" sheetId="2" name="2"/>
-    <sheet r:id="rId3" sheetId="3" name="3"/>
-    <sheet r:id="rId4" sheetId="4" name="4"/>
-    <sheet r:id="rId5" sheetId="5" name="5"/>
-    <sheet r:id="rId6" sheetId="6" name="6"/>
-    <sheet r:id="rId7" sheetId="7" name="7"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="2" r:id="rId2"/>
+    <sheet name="3" sheetId="3" r:id="rId3"/>
+    <sheet name="4" sheetId="4" r:id="rId4"/>
+    <sheet name="5" sheetId="5" r:id="rId5"/>
+    <sheet name="6" sheetId="6" r:id="rId6"/>
+    <sheet name="7" sheetId="7" r:id="rId7"/>
+    <sheet name="8" sheetId="8" r:id="rId8"/>
+    <sheet name="9" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="1058">
   <si>
     <t>わかります</t>
   </si>
@@ -2705,18 +2713,707 @@
   </si>
   <si>
     <t>请告诉我～</t>
+  </si>
+  <si>
+    <t>かけます</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>打（电话）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>あげます</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>もらいます</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>貰います</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>くれます</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>给（我）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>おしえます</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>教えます</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>教</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ならいます</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>習います</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>かります</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>借ります</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>借入</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>かします</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>貸します</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>借出</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>おくります</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>送ります</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠送</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちがいます</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>違います</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>いい</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>良い</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>好的</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>かわいい</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>可愛い</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>可爱的</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>だいすき</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大好き</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常喜欢</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>はは</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>母</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>妈妈</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちち</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>父</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爸爸</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>あに</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥哥</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぼく</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>僕</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>我（男性自称）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>おみやげ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>お土産</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>土产、纪念品</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>プレゼント</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>present</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼物</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>かがみ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鏡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜子</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>とけい</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>時計</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时钟</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>シーデイー</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>フアックス</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>fax</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>传真</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>カード</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>card</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ブールペン</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballpoint　pen</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆珠笔</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>もうすぐ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>快要</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>もう</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>まだ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚未</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>じつは</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>実は</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>あれ？</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>哎呀</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>とります</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>撮ります</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍摄</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゃしん</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>写真</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>みかん</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜜柑</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘子</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>えいご</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>英語</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>さいふ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>財布</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>のみもの</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>飲み物</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮料</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>コーヒー</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>coffee</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>おせき</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>お席</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>座位</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごちゅうもん</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ご注文</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>点餐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>アイス</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ホット</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>热</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aランチ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>lunch</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>A餐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ミートソースパスタ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>meat sauce pasta</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉酱意大利面</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>わふうハンバーグセット</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>和風 hambug set</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>和风汉堡排套餐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>いまから</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>今から</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在开始</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょうしょう</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>少々</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>稍微</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>えっと</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯…这个嘛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんめいさま</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>何名様</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>几个人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>～かい</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>～回</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>~次</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>～じかん</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>～時間</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>~小时</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>～しゅうかん</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>～週間</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>~周</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>～つ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>~个</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>～まい</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>～枚</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>~张</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぎんざ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀座</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>银座</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>～へどうぞ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>请往~</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごちゅうもんはをきまりですか</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定好要点什么了吗？</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>どちらになさいますか</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>您要选择哪一种呢？</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょうしょうおまつください</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>请稍后一下</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2750,6 +3447,33 @@
       <name val="等线"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2778,68 +3502,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2850,10 +3567,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2891,71 +3608,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2983,7 +3700,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -3006,11 +3723,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -3019,13 +3736,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3035,7 +3752,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -3044,7 +3761,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3053,7 +3770,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3061,10 +3778,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -3129,7 +3846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3137,99 +3854,99 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="11" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="37.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="40.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="9" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>769</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>771</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
+    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>774</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
+    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>777</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
+    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>779</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>780</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
+    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>782</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>783</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
+    <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>784</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>785</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
+    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -3239,25 +3956,25 @@
       <c r="C7" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>788</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
+    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>791</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -3267,11 +3984,11 @@
       <c r="C9" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>794</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
+    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -3281,11 +3998,11 @@
       <c r="C10" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>797</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
+    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -3295,11 +4012,11 @@
       <c r="C11" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
+    <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -3309,11 +4026,11 @@
       <c r="C12" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>803</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
+    <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -3323,11 +4040,11 @@
       <c r="C13" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>805</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
+    <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -3337,11 +4054,11 @@
       <c r="C14" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
         <v>808</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
+    <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -3351,11 +4068,11 @@
       <c r="C15" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>810</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
+    <row r="16" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -3365,11 +4082,11 @@
       <c r="C16" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>812</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="24.75">
+    <row r="17" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -3379,11 +4096,11 @@
       <c r="C17" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>815</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="24.75">
+    <row r="18" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -3393,11 +4110,11 @@
       <c r="C18" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>818</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24.75">
+    <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -3407,12 +4124,12 @@
       <c r="C19" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" t="s">
         <v>821</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.75">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="13" t="s">
         <v>822</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3421,12 +4138,12 @@
       <c r="C20" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>825</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="17">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="14">
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -3435,12 +4152,12 @@
       <c r="C21" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>828</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="17">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="14">
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -3449,12 +4166,12 @@
       <c r="C22" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>831</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="17">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="14">
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -3463,24 +4180,24 @@
       <c r="C23" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>834</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="17">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="14">
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" t="s">
         <v>836</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="17">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="14">
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -3489,12 +4206,12 @@
       <c r="C25" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" t="s">
         <v>839</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="17">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="14">
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3503,12 +4220,12 @@
       <c r="C26" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" t="s">
         <v>842</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="17">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="14">
         <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -3517,12 +4234,12 @@
       <c r="C27" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" t="s">
         <v>845</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="17">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="14">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3531,36 +4248,36 @@
       <c r="C28" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" t="s">
         <v>848</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="17">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="14">
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="3" t="s">
+      <c r="C29" s="7"/>
+      <c r="D29" t="s">
         <v>850</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="17">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="14">
         <v>3</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="3" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" t="s">
         <v>852</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="17">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="14">
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3569,31 +4286,31 @@
       <c r="C31" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" t="s">
         <v>855</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" t="s">
         <v>857</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="24.75">
+    <row r="33" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="3" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" t="s">
         <v>859</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="24.75">
+    <row r="34" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -3603,23 +4320,23 @@
       <c r="C34" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" t="s">
         <v>862</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="24.75">
+    <row r="35" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="3" t="s">
+      <c r="C35" s="7"/>
+      <c r="D35" t="s">
         <v>864</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="24.75">
+    <row r="36" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -3629,11 +4346,11 @@
       <c r="C36" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" t="s">
         <v>866</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="24.75">
+    <row r="37" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>5</v>
       </c>
@@ -3643,21 +4360,21 @@
       <c r="C37" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" t="s">
         <v>869</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="24.75">
+    <row r="38" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="3" t="s">
+      <c r="C38" s="7"/>
+      <c r="D38" t="s">
         <v>871</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.75">
+    <row r="39" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
         <v>872</v>
@@ -3665,11 +4382,11 @@
       <c r="C39" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" t="s">
         <v>874</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="24.75">
+    <row r="40" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
         <v>875</v>
@@ -3677,11 +4394,11 @@
       <c r="C40" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" t="s">
         <v>877</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="24.75">
+    <row r="41" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
         <v>878</v>
@@ -3689,21 +4406,21 @@
       <c r="C41" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" t="s">
         <v>880</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="24.75">
+    <row r="42" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="3" t="s">
+      <c r="C42" s="7"/>
+      <c r="D42" t="s">
         <v>882</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="24.75">
+    <row r="43" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="2" t="s">
         <v>883</v>
@@ -3711,11 +4428,11 @@
       <c r="C43" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" t="s">
         <v>885</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="24.75">
+    <row r="44" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="2" t="s">
         <v>886</v>
@@ -3723,11 +4440,11 @@
       <c r="C44" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" t="s">
         <v>888</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="24.75">
+    <row r="45" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
         <v>889</v>
@@ -3735,11 +4452,11 @@
       <c r="C45" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" t="s">
         <v>891</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="24.75">
+    <row r="46" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
         <v>892</v>
@@ -3747,17 +4464,18 @@
       <c r="C46" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" t="s">
         <v>894</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3765,221 +4483,205 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
+    <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>3</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>606</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
+    <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>610</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="24.75">
+    <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>612</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
+    <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>614</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24.75">
+    <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24.75">
+    <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>618</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
+    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>620</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24.75">
+    <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>622</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>624</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
+    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
+    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>627</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
+    <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>629</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
+    <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>631</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
+    <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
         <v>633</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
+    <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>635</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
+    <row r="16" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>637</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>639</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -3989,25 +4691,25 @@
       <c r="C18" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>642</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>644</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" t="s">
         <v>645</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -4017,11 +4719,11 @@
       <c r="C20" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>648</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -4031,11 +4733,11 @@
       <c r="C21" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>650</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="24.75">
+    <row r="22" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -4045,11 +4747,11 @@
       <c r="C22" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>653</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="24.75">
+    <row r="23" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -4059,11 +4761,11 @@
       <c r="C23" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>656</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="24.75">
+    <row r="24" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -4073,11 +4775,11 @@
       <c r="C24" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" t="s">
         <v>659</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="24.75">
+    <row r="25" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -4087,11 +4789,11 @@
       <c r="C25" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" t="s">
         <v>662</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="24.75">
+    <row r="26" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -4101,11 +4803,11 @@
       <c r="C26" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" t="s">
         <v>665</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="24.75">
+    <row r="27" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -4115,11 +4817,11 @@
       <c r="C27" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" t="s">
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="24.75">
+    <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -4129,11 +4831,11 @@
       <c r="C28" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" t="s">
         <v>670</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="24.75">
+    <row r="29" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -4143,11 +4845,11 @@
       <c r="C29" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" t="s">
         <v>673</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="24.75">
+    <row r="30" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -4157,11 +4859,11 @@
       <c r="C30" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" t="s">
         <v>676</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="24.75">
+    <row r="31" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -4171,11 +4873,11 @@
       <c r="C31" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" t="s">
         <v>679</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="24.75">
+    <row r="32" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -4185,11 +4887,11 @@
       <c r="C32" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" t="s">
         <v>682</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="24.75">
+    <row r="33" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -4199,11 +4901,11 @@
       <c r="C33" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" t="s">
         <v>685</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="24.75">
+    <row r="34" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -4213,11 +4915,11 @@
       <c r="C34" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" t="s">
         <v>688</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="24.75">
+    <row r="35" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -4227,11 +4929,11 @@
       <c r="C35" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" t="s">
         <v>691</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="24.75">
+    <row r="36" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -4241,11 +4943,11 @@
       <c r="C36" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" t="s">
         <v>694</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="24.75">
+    <row r="37" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -4255,11 +4957,11 @@
       <c r="C37" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" t="s">
         <v>697</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="24.75">
+    <row r="38" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -4269,11 +4971,11 @@
       <c r="C38" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" t="s">
         <v>700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.75">
+    <row r="39" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -4283,95 +4985,88 @@
       <c r="C39" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" t="s">
         <v>703</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="24.75">
+    <row r="40" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>1</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3" t="s">
+      <c r="D40" t="s">
         <v>705</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3" t="s">
+      <c r="D41" t="s">
         <v>707</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>1</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3" t="s">
+      <c r="D42" t="s">
         <v>709</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>0</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3" t="s">
+      <c r="D43" t="s">
         <v>711</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3" t="s">
+      <c r="D44" t="s">
         <v>713</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3" t="s">
+      <c r="D45" t="s">
         <v>715</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3" t="s">
+      <c r="D46" t="s">
         <v>717</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -4381,11 +5076,11 @@
       <c r="C47" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" t="s">
         <v>719</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -4395,11 +5090,11 @@
       <c r="C48" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" t="s">
         <v>721</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -4409,11 +5104,11 @@
       <c r="C49" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" t="s">
         <v>723</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -4423,11 +5118,11 @@
       <c r="C50" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" t="s">
         <v>725</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
         <v>726</v>
@@ -4435,11 +5130,11 @@
       <c r="C51" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" t="s">
         <v>728</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -4449,11 +5144,11 @@
       <c r="C52" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" t="s">
         <v>731</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -4463,11 +5158,11 @@
       <c r="C53" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" t="s">
         <v>734</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>1</v>
       </c>
@@ -4477,11 +5172,11 @@
       <c r="C54" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" t="s">
         <v>737</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -4491,11 +5186,11 @@
       <c r="C55" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" t="s">
         <v>740</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -4505,11 +5200,11 @@
       <c r="C56" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" t="s">
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>0</v>
       </c>
@@ -4519,11 +5214,11 @@
       <c r="C57" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" t="s">
         <v>743</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>1</v>
       </c>
@@ -4533,65 +5228,61 @@
       <c r="C58" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" t="s">
         <v>746</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>1</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" t="s">
         <v>748</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" t="s">
         <v>748</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3" t="s">
+      <c r="D60" t="s">
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
       <c r="B61" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3" t="s">
+      <c r="D61" t="s">
         <v>751</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3" t="s">
+      <c r="D62" t="s">
         <v>753</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
       <c r="B63" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3" t="s">
+      <c r="D63" t="s">
         <v>755</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
       <c r="B64" s="2" t="s">
         <v>756</v>
@@ -4599,69 +5290,66 @@
       <c r="C64" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" t="s">
         <v>758</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
       <c r="B65" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3" t="s">
+      <c r="D65" t="s">
         <v>760</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
       <c r="B66" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3" t="s">
+      <c r="D66" t="s">
         <v>762</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
       <c r="B67" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3" t="s">
+      <c r="D67" t="s">
         <v>763</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
       <c r="B68" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" t="s">
         <v>765</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" t="s">
         <v>766</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
       <c r="B69" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3" t="s">
+      <c r="D69" t="s">
         <v>768</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -4669,55 +5357,54 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="11" width="8.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="34.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="8.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
+    <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
+    <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>469</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
+    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>473</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
+    <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4727,11 +5414,11 @@
       <c r="C4" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>477</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24.75">
+    <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4741,11 +5428,11 @@
       <c r="C5" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>480</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24.75">
+    <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4755,11 +5442,11 @@
       <c r="C6" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>483</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
+    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4769,11 +5456,11 @@
       <c r="C7" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>486</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24.75">
+    <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4783,11 +5470,11 @@
       <c r="C8" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -4797,11 +5484,11 @@
       <c r="C9" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>492</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
+    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -4811,11 +5498,11 @@
       <c r="C10" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>495</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
+    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -4825,11 +5512,11 @@
       <c r="C11" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>498</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
+    <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -4839,11 +5526,11 @@
       <c r="C12" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>501</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
+    <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -4853,11 +5540,11 @@
       <c r="C13" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>503</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
+    <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -4867,11 +5554,11 @@
       <c r="C14" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
         <v>506</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
+    <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -4881,11 +5568,11 @@
       <c r="C15" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>509</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
+    <row r="16" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -4895,11 +5582,11 @@
       <c r="C16" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>512</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="24.75">
+    <row r="17" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -4909,11 +5596,11 @@
       <c r="C17" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>515</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="24.75">
+    <row r="18" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -4923,11 +5610,11 @@
       <c r="C18" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>518</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24.75">
+    <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -4937,11 +5624,11 @@
       <c r="C19" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" t="s">
         <v>521</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.75">
+    <row r="20" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -4951,11 +5638,11 @@
       <c r="C20" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>524</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="24.75">
+    <row r="21" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -4965,11 +5652,11 @@
       <c r="C21" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>527</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="24.75">
+    <row r="22" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -4979,11 +5666,11 @@
       <c r="C22" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>529</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="24.75">
+    <row r="23" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -4993,11 +5680,11 @@
       <c r="C23" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>532</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="24.75">
+    <row r="24" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -5007,11 +5694,11 @@
       <c r="C24" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" t="s">
         <v>535</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="24.75">
+    <row r="25" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -5021,11 +5708,11 @@
       <c r="C25" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" t="s">
         <v>538</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="24.75">
+    <row r="26" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -5035,11 +5722,11 @@
       <c r="C26" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" t="s">
         <v>541</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="24.75">
+    <row r="27" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -5049,11 +5736,11 @@
       <c r="C27" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" t="s">
         <v>544</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="24.75">
+    <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -5063,11 +5750,11 @@
       <c r="C28" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" t="s">
         <v>547</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -5077,11 +5764,11 @@
       <c r="C29" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" t="s">
         <v>550</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -5091,11 +5778,11 @@
       <c r="C30" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" t="s">
         <v>553</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>5</v>
       </c>
@@ -5105,11 +5792,11 @@
       <c r="C31" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" t="s">
         <v>556</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -5119,11 +5806,11 @@
       <c r="C32" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" t="s">
         <v>559</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -5133,11 +5820,11 @@
       <c r="C33" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" t="s">
         <v>562</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>5</v>
       </c>
@@ -5147,11 +5834,11 @@
       <c r="C34" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" t="s">
         <v>565</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -5161,11 +5848,11 @@
       <c r="C35" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" t="s">
         <v>568</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -5175,11 +5862,11 @@
       <c r="C36" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" t="s">
         <v>570</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="24.75">
+    <row r="37" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -5189,11 +5876,11 @@
       <c r="C37" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" t="s">
         <v>573</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="24.75">
+    <row r="38" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -5203,35 +5890,33 @@
       <c r="C38" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" t="s">
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.75">
+    <row r="39" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3" t="s">
+      <c r="D39" t="s">
         <v>578</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="24.75">
+    <row r="40" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>1</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3" t="s">
+      <c r="D40" t="s">
         <v>580</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="24.75">
+    <row r="41" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -5241,11 +5926,11 @@
       <c r="C41" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" t="s">
         <v>583</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="24.75">
+    <row r="42" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -5255,35 +5940,33 @@
       <c r="C42" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" t="s">
         <v>586</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="6">
-        <v>1</v>
-      </c>
-      <c r="B43" s="14" t="s">
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>1</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3" t="s">
+      <c r="D43" t="s">
         <v>588</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="24.75">
-      <c r="A44" s="15">
+    <row r="44" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="12">
         <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3" t="s">
+      <c r="D44" t="s">
         <v>590</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="24.75">
+    <row r="45" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>0</v>
       </c>
@@ -5293,51 +5976,47 @@
       <c r="C45" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" t="s">
         <v>592</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="6"/>
-      <c r="B46" s="14" t="s">
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3" t="s">
+      <c r="D46" t="s">
         <v>594</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="24.75">
+    <row r="47" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3" t="s">
+      <c r="D47" t="s">
         <v>596</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="24.75">
+    <row r="48" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3" t="s">
+      <c r="D48" t="s">
         <v>598</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="24.75">
+    <row r="49" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3" t="s">
+      <c r="D49" t="s">
         <v>600</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
         <v>601</v>
@@ -5345,27 +6024,27 @@
       <c r="C50" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" t="s">
         <v>603</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3" t="s">
+      <c r="D51" t="s">
         <v>605</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -5373,16 +6052,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="13" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="4.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
         <v>371</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -5391,12 +6070,12 @@
       <c r="C1" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
         <v>371</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -5405,12 +6084,12 @@
       <c r="C2" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="24.75">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="9" t="s">
         <v>378</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -5419,12 +6098,12 @@
       <c r="C3" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="9" t="s">
         <v>382</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -5433,12 +6112,12 @@
       <c r="C4" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
         <v>386</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -5447,12 +6126,12 @@
       <c r="C5" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>389</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
         <v>386</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -5461,12 +6140,12 @@
       <c r="C6" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="9" t="s">
         <v>378</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -5475,12 +6154,12 @@
       <c r="C7" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
         <v>394</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -5489,24 +6168,23 @@
       <c r="C8" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="9" t="s">
         <v>371</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="9" t="s">
         <v>386</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -5515,12 +6193,12 @@
       <c r="C10" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>402</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="9" t="s">
         <v>394</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -5529,12 +6207,12 @@
       <c r="C11" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>405</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="9" t="s">
         <v>394</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -5543,12 +6221,12 @@
       <c r="C12" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>408</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="9" t="s">
         <v>378</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -5557,12 +6235,12 @@
       <c r="C13" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>411</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="9" t="s">
         <v>394</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -5571,12 +6249,12 @@
       <c r="C14" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
         <v>413</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="9" t="s">
         <v>386</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -5585,12 +6263,12 @@
       <c r="C15" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>416</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="9" t="s">
         <v>386</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -5599,12 +6277,12 @@
       <c r="C16" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="9" t="s">
         <v>394</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -5613,12 +6291,12 @@
       <c r="C17" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>422</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="9" t="s">
         <v>378</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -5627,12 +6305,12 @@
       <c r="C18" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>425</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="9" t="s">
         <v>371</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -5641,12 +6319,12 @@
       <c r="C19" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" t="s">
         <v>428</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="9" t="s">
         <v>378</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -5655,48 +6333,45 @@
       <c r="C20" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>431</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="9" t="s">
         <v>386</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>252</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="9" t="s">
         <v>394</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>434</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="9" t="s">
         <v>394</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>436</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="9" t="s">
         <v>394</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -5705,12 +6380,12 @@
       <c r="C24" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" t="s">
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="9" t="s">
         <v>386</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -5719,12 +6394,12 @@
       <c r="C25" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" t="s">
         <v>440</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="9" t="s">
         <v>386</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -5733,12 +6408,12 @@
       <c r="C26" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" t="s">
         <v>443</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="9" t="s">
         <v>386</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -5747,12 +6422,12 @@
       <c r="C27" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" t="s">
         <v>446</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="9" t="s">
         <v>371</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -5761,12 +6436,12 @@
       <c r="C28" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" t="s">
         <v>448</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="9" t="s">
         <v>394</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -5775,21 +6450,20 @@
       <c r="C29" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" t="s">
         <v>451</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
+      <c r="D30" t="s">
         <v>453</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>454</v>
@@ -5797,21 +6471,20 @@
       <c r="C31" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" t="s">
         <v>456</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
+      <c r="D32" t="s">
         <v>458</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
         <v>459</v>
@@ -5819,11 +6492,11 @@
       <c r="C33" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" t="s">
         <v>461</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>462</v>
@@ -5831,27 +6504,27 @@
       <c r="C34" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" t="s">
         <v>464</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3" t="s">
+      <c r="D35" t="s">
         <v>466</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -5859,15 +6532,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="11" width="4.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="4.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>3</v>
       </c>
@@ -5877,11 +6550,11 @@
       <c r="C1" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -5891,11 +6564,11 @@
       <c r="C2" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5905,11 +6578,11 @@
       <c r="C3" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5919,11 +6592,11 @@
       <c r="C4" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5933,11 +6606,11 @@
       <c r="C5" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -5947,23 +6620,23 @@
       <c r="C6" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" t="s">
         <v>303</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -5973,11 +6646,11 @@
       <c r="C8" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>306</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -5987,23 +6660,23 @@
       <c r="C9" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" t="s">
         <v>311</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -6013,11 +6686,11 @@
       <c r="C11" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -6027,11 +6700,11 @@
       <c r="C12" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>317</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -6041,11 +6714,11 @@
       <c r="C13" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>320</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -6055,11 +6728,11 @@
       <c r="C14" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
         <v>322</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -6069,11 +6742,11 @@
       <c r="C15" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>325</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -6083,11 +6756,11 @@
       <c r="C16" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>328</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -6097,11 +6770,11 @@
       <c r="C17" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>331</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -6111,11 +6784,11 @@
       <c r="C18" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>334</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -6125,11 +6798,11 @@
       <c r="C19" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" t="s">
         <v>337</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -6139,35 +6812,35 @@
       <c r="C20" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>340</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" t="s">
         <v>342</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" t="s">
         <v>344</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -6177,23 +6850,23 @@
       <c r="C23" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>347</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" t="s">
         <v>349</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -6203,59 +6876,59 @@
       <c r="C25" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" t="s">
         <v>352</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="3" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" t="s">
         <v>354</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>3</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="3" t="s">
+      <c r="C27" s="7"/>
+      <c r="D27" t="s">
         <v>356</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="3" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" t="s">
         <v>358</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="3" t="s">
+      <c r="C29" s="7"/>
+      <c r="D29" t="s">
         <v>360</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -6265,31 +6938,31 @@
       <c r="C30" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" t="s">
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="3" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" t="s">
         <v>365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" t="s">
         <v>367</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
         <v>368</v>
@@ -6297,17 +6970,18 @@
       <c r="C33" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" t="s">
         <v>370</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -6315,27 +6989,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
+    <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
+    <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -6345,11 +7019,11 @@
       <c r="C2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="24.75">
+    <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6359,11 +7033,11 @@
       <c r="C3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
+    <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6373,11 +7047,11 @@
       <c r="C4" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24.75">
+    <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -6387,11 +7061,11 @@
       <c r="C5" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24.75">
+    <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6401,11 +7075,11 @@
       <c r="C6" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
+    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -6415,11 +7089,11 @@
       <c r="C7" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24.75">
+    <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -6429,11 +7103,11 @@
       <c r="C8" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -6443,11 +7117,11 @@
       <c r="C9" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
+    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -6457,23 +7131,23 @@
       <c r="C10" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
+    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
+    <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -6483,35 +7157,35 @@
       <c r="C12" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
+    <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" t="s">
         <v>172</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
+    <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" t="s">
         <v>174</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -6521,11 +7195,11 @@
       <c r="C15" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -6535,11 +7209,11 @@
       <c r="C16" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>180</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -6549,11 +7223,11 @@
       <c r="C17" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -6563,11 +7237,11 @@
       <c r="C18" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>186</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -6577,11 +7251,11 @@
       <c r="C19" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" t="s">
         <v>189</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -6591,11 +7265,11 @@
       <c r="C20" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>192</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -6605,11 +7279,11 @@
       <c r="C21" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -6619,11 +7293,11 @@
       <c r="C22" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>198</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -6633,11 +7307,11 @@
       <c r="C23" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -6647,11 +7321,11 @@
       <c r="C24" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" t="s">
         <v>204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -6661,11 +7335,11 @@
       <c r="C25" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" t="s">
         <v>207</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -6675,11 +7349,11 @@
       <c r="C26" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" t="s">
         <v>210</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -6689,11 +7363,11 @@
       <c r="C27" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" t="s">
         <v>213</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -6703,11 +7377,11 @@
       <c r="C28" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" t="s">
         <v>216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -6717,11 +7391,11 @@
       <c r="C29" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" t="s">
         <v>219</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -6731,11 +7405,11 @@
       <c r="C30" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" t="s">
         <v>222</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -6745,11 +7419,11 @@
       <c r="C31" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" t="s">
         <v>225</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -6759,35 +7433,35 @@
       <c r="C32" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" t="s">
         <v>228</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="3" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" t="s">
         <v>230</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="3" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" t="s">
         <v>232</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -6797,11 +7471,11 @@
       <c r="C35" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" t="s">
         <v>235</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -6811,35 +7485,35 @@
       <c r="C36" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" t="s">
         <v>238</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="3" t="s">
+      <c r="C37" s="7"/>
+      <c r="D37" t="s">
         <v>240</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>1</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="3" t="s">
+      <c r="C38" s="7"/>
+      <c r="D38" t="s">
         <v>242</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -6849,11 +7523,11 @@
       <c r="C39" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" t="s">
         <v>245</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -6863,79 +7537,79 @@
       <c r="C40" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" t="s">
         <v>248</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="3" t="s">
+      <c r="C41" s="7"/>
+      <c r="D41" t="s">
         <v>250</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="3" t="s">
+      <c r="C42" s="7"/>
+      <c r="D42" t="s">
         <v>252</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="3" t="s">
+      <c r="C43" s="7"/>
+      <c r="D43" t="s">
         <v>254</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="3" t="s">
+      <c r="C44" s="7"/>
+      <c r="D44" t="s">
         <v>256</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="3" t="s">
+      <c r="C45" s="7"/>
+      <c r="D45" t="s">
         <v>258</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="3" t="s">
+      <c r="C46" s="7"/>
+      <c r="D46" t="s">
         <v>260</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>3</v>
       </c>
@@ -6945,11 +7619,11 @@
       <c r="C47" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" t="s">
         <v>262</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -6959,11 +7633,11 @@
       <c r="C48" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" t="s">
         <v>265</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -6973,11 +7647,11 @@
       <c r="C49" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" t="s">
         <v>267</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -6987,11 +7661,11 @@
       <c r="C50" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" t="s">
         <v>269</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -7001,23 +7675,23 @@
       <c r="C51" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" t="s">
         <v>272</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>1</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="3" t="s">
+      <c r="C52" s="7"/>
+      <c r="D52" t="s">
         <v>274</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
       <c r="B53" s="2" t="s">
         <v>275</v>
@@ -7025,11 +7699,11 @@
       <c r="C53" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" t="s">
         <v>277</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
       <c r="B54" s="2" t="s">
         <v>278</v>
@@ -7037,11 +7711,11 @@
       <c r="C54" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" t="s">
         <v>280</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
       <c r="B55" s="2" t="s">
         <v>281</v>
@@ -7049,33 +7723,34 @@
       <c r="C55" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" t="s">
         <v>283</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="37.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>4</v>
       </c>
@@ -7085,11 +7760,11 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -7099,23 +7774,22 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7125,11 +7799,11 @@
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7139,11 +7813,11 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -7153,11 +7827,11 @@
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -7167,11 +7841,11 @@
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -7181,11 +7855,11 @@
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -7195,11 +7869,11 @@
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -7209,11 +7883,11 @@
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -7223,11 +7897,11 @@
       <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -7237,11 +7911,11 @@
       <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -7251,11 +7925,11 @@
       <c r="C13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -7265,11 +7939,11 @@
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -7279,11 +7953,11 @@
       <c r="C15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -7293,11 +7967,11 @@
       <c r="C16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -7307,11 +7981,11 @@
       <c r="C17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -7321,11 +7995,11 @@
       <c r="C18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -7335,11 +8009,11 @@
       <c r="C19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -7349,11 +8023,11 @@
       <c r="C20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -7363,11 +8037,11 @@
       <c r="C21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -7377,11 +8051,11 @@
       <c r="C22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -7391,11 +8065,11 @@
       <c r="C23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -7405,355 +8079,1166 @@
       <c r="C24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>0</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>0</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>0</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>0</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>0</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" t="s">
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>4</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>0</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" t="s">
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" t="s">
         <v>97</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>5</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" t="s">
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>0</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" t="s">
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>3</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" t="s">
         <v>106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" t="s">
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>0</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="3" t="s">
+      <c r="D39" t="s">
         <v>111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>1</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" t="s">
         <v>113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>0</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="3" t="s">
+      <c r="D41" t="s">
         <v>115</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>1</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="3" t="s">
+      <c r="D42" t="s">
         <v>117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>1</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" t="s">
         <v>119</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="3" t="s">
+      <c r="D44" t="s">
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>0</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" t="s">
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>0</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" t="s">
         <v>127</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>1</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="3" t="s">
+      <c r="D47" t="s">
         <v>129</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="6"/>
-      <c r="B48" s="5" t="s">
+    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="3" t="s">
+      <c r="D48" t="s">
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="6"/>
-      <c r="B49" s="5" t="s">
+    <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="3" t="s">
+      <c r="D49" t="s">
         <v>133</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="6"/>
-      <c r="B50" s="5" t="s">
+    <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" t="s">
         <v>136</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1B8140-7147-4D3B-BFE8-B5C1249F7B0E}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D32" sqref="D31:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>895</v>
+      </c>
+      <c r="D1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>897</v>
+      </c>
+      <c r="D2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>900</v>
+      </c>
+      <c r="D3" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>902</v>
+      </c>
+      <c r="D4" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>904</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>905</v>
+      </c>
+      <c r="D5" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>908</v>
+      </c>
+      <c r="D6" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>910</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>911</v>
+      </c>
+      <c r="D7" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>913</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>914</v>
+      </c>
+      <c r="D8" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>916</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>917</v>
+      </c>
+      <c r="D9" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>919</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>920</v>
+      </c>
+      <c r="D10" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>922</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>923</v>
+      </c>
+      <c r="D11" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>925</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>926</v>
+      </c>
+      <c r="D12" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>928</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>929</v>
+      </c>
+      <c r="D13" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>931</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>932</v>
+      </c>
+      <c r="D14" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>934</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>935</v>
+      </c>
+      <c r="D15" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>937</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>938</v>
+      </c>
+      <c r="D16" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>940</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>941</v>
+      </c>
+      <c r="D17" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>943</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>944</v>
+      </c>
+      <c r="D18" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>946</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>947</v>
+      </c>
+      <c r="D19" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>949</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="D20" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>952</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>953</v>
+      </c>
+      <c r="D21" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>955</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>956</v>
+      </c>
+      <c r="D22" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>957</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>958</v>
+      </c>
+      <c r="D23" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>960</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>961</v>
+      </c>
+      <c r="D24" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>963</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>964</v>
+      </c>
+      <c r="D25" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>966</v>
+      </c>
+      <c r="D26" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>968</v>
+      </c>
+      <c r="D27" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="D28" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>972</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>973</v>
+      </c>
+      <c r="D29" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="D30" t="s">
+        <v>976</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C109DC-4546-4A93-AF1F-E97AC0768424}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>977</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>978</v>
+      </c>
+      <c r="D1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="C2" t="s">
+        <v>981</v>
+      </c>
+      <c r="D2" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>983</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>984</v>
+      </c>
+      <c r="D3" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>986</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>987</v>
+      </c>
+      <c r="D4" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>989</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>990</v>
+      </c>
+      <c r="D5" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>992</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>993</v>
+      </c>
+      <c r="D6" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>995</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>996</v>
+      </c>
+      <c r="D7" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>998</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>999</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B23" s="15" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B26" s="15" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B27" s="15" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B28" s="15" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B29" s="15" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dajiaxue/dajiaxue.xlsx
+++ b/dajiaxue/dajiaxue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="1"/>
@@ -880,7 +880,7 @@
     <t>大家</t>
   </si>
   <si>
-    <t>みんあ</t>
+    <t>みんな</t>
   </si>
   <si>
     <t>皆</t>
@@ -934,7 +934,7 @@
     <t>饭店</t>
   </si>
   <si>
-    <t>サーボス</t>
+    <t>サービス</t>
   </si>
   <si>
     <t>service</t>
@@ -1026,7 +1026,7 @@
     <t>咖喱饭</t>
   </si>
   <si>
-    <t>ショーロンボウ</t>
+    <t>ショーロンポウ</t>
   </si>
   <si>
     <t>小笼包</t>
@@ -1047,7 +1047,7 @@
     <t>葱</t>
   </si>
   <si>
-    <t>ちゅうか揚げパン</t>
+    <t>ちゅうかあげパン</t>
   </si>
   <si>
     <t>中華揚げパン</t>
@@ -4295,7 +4295,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4306,12 +4306,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -4361,15 +4355,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -4378,7 +4372,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -4390,19 +4384,16 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -4723,10 +4714,10 @@
       <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="2" t="s">
         <v>1252</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="2" t="s">
         <v>1253</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -4737,10 +4728,10 @@
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="2" t="s">
         <v>1255</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="2" t="s">
         <v>1256</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -4751,10 +4742,10 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="2" t="s">
         <v>1258</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="2" t="s">
         <v>1259</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -4765,10 +4756,10 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="2" t="s">
         <v>1261</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="2" t="s">
         <v>1262</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -4779,10 +4770,10 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="2" t="s">
         <v>1264</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="2" t="s">
         <v>1265</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -4793,10 +4784,10 @@
       <c r="A6" s="1">
         <v>0</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="2" t="s">
         <v>1267</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="2" t="s">
         <v>1268</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -4821,10 +4812,10 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="2" t="s">
         <v>1272</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="2" t="s">
         <v>1273</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -4986,7 +4977,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.75">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>1305</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -5000,7 +4991,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="14">
+      <c r="A21" s="13">
         <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -5014,7 +5005,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="14">
+      <c r="A22" s="13">
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -5028,7 +5019,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="14">
+      <c r="A23" s="13">
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -5042,19 +5033,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="14">
+      <c r="A24" s="13">
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>1318</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="4" t="s">
         <v>1319</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="14">
+      <c r="A25" s="13">
         <v>0</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -5068,7 +5059,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="14">
+      <c r="A26" s="13">
         <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -5082,7 +5073,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="14">
+      <c r="A27" s="13">
         <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -5096,7 +5087,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="14">
+      <c r="A28" s="13">
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -5110,31 +5101,31 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="14">
+      <c r="A29" s="13">
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>1332</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="4" t="s">
         <v>1333</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="14">
+      <c r="A30" s="13">
         <v>3</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="4" t="s">
         <v>1335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="14">
+      <c r="A31" s="13">
         <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -5152,7 +5143,7 @@
       <c r="B32" s="3" t="s">
         <v>1339</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="4" t="s">
         <v>1340</v>
       </c>
@@ -5162,7 +5153,7 @@
       <c r="B33" s="3" t="s">
         <v>1341</v>
       </c>
-      <c r="C33" s="10"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="4" t="s">
         <v>1342</v>
       </c>
@@ -5188,7 +5179,7 @@
       <c r="B35" s="3" t="s">
         <v>1346</v>
       </c>
-      <c r="C35" s="10"/>
+      <c r="C35" s="2"/>
       <c r="D35" s="4" t="s">
         <v>1347</v>
       </c>
@@ -5226,7 +5217,7 @@
       <c r="B38" s="3" t="s">
         <v>1353</v>
       </c>
-      <c r="C38" s="10"/>
+      <c r="C38" s="2"/>
       <c r="D38" s="4" t="s">
         <v>1354</v>
       </c>
@@ -5272,7 +5263,7 @@
       <c r="B42" s="3" t="s">
         <v>1364</v>
       </c>
-      <c r="C42" s="10"/>
+      <c r="C42" s="2"/>
       <c r="D42" s="4" t="s">
         <v>1365</v>
       </c>
@@ -5337,12 +5328,12 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="32.86214285714286" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="15.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="9" width="29.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
@@ -7015,7 +7006,7 @@
       <c r="A1" s="1">
         <v>3</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="2" t="s">
         <v>1092</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -7931,7 +7922,7 @@
       <c r="A2" s="1">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="2" t="s">
         <v>955</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -7945,7 +7936,7 @@
       <c r="A3" s="1">
         <v>5</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="2" t="s">
         <v>958</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -8501,7 +8492,7 @@
       <c r="A43" s="1">
         <v>1</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="2" t="s">
         <v>1073</v>
       </c>
       <c r="C43" s="4"/>
@@ -8537,7 +8528,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1"/>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="2" t="s">
         <v>1079</v>
       </c>
       <c r="C46" s="4"/>
@@ -8613,14 +8604,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="4.147857142857143" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="8" width="17.290714285714284" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="9" width="17.290714285714284" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="9" width="17.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>857</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -8634,7 +8625,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>857</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -8648,7 +8639,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="24.75">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>864</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -8662,7 +8653,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>868</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -8676,7 +8667,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>872</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -8690,7 +8681,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>872</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -8704,7 +8695,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>864</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -8718,7 +8709,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>880</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -8732,7 +8723,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>857</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -8744,7 +8735,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>872</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -8758,7 +8749,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>880</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -8772,7 +8763,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>880</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -8786,7 +8777,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>864</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -8800,7 +8791,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>880</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -8814,7 +8805,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>872</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -8828,7 +8819,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>872</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -8842,7 +8833,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>880</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -8856,7 +8847,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>864</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -8870,7 +8861,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>857</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -8884,7 +8875,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>864</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -8898,7 +8889,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>872</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -8910,7 +8901,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>880</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -8922,7 +8913,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>880</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -8934,7 +8925,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>880</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -8948,7 +8939,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>872</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -8962,7 +8953,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>872</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -8976,7 +8967,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>872</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -8990,7 +8981,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>857</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -9004,7 +8995,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>880</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -9196,7 +9187,7 @@
       <c r="B7" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="4" t="s">
         <v>790</v>
       </c>
@@ -9236,7 +9227,7 @@
       <c r="B10" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="4" t="s">
         <v>798</v>
       </c>
@@ -9388,7 +9379,7 @@
       <c r="B21" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="4" t="s">
         <v>829</v>
       </c>
@@ -9400,7 +9391,7 @@
       <c r="B22" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="4" t="s">
         <v>831</v>
       </c>
@@ -9426,7 +9417,7 @@
       <c r="B24" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="4" t="s">
         <v>836</v>
       </c>
@@ -9452,7 +9443,7 @@
       <c r="B26" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="4" t="s">
         <v>841</v>
       </c>
@@ -9464,7 +9455,7 @@
       <c r="B27" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="4" t="s">
         <v>843</v>
       </c>
@@ -9476,7 +9467,7 @@
       <c r="B28" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="4" t="s">
         <v>845</v>
       </c>
@@ -9488,7 +9479,7 @@
       <c r="B29" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="4" t="s">
         <v>847</v>
       </c>
@@ -9512,7 +9503,7 @@
       <c r="B31" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="4" t="s">
         <v>851</v>
       </c>
@@ -9522,7 +9513,7 @@
       <c r="B32" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="4" t="s">
         <v>853</v>
       </c>
@@ -9568,7 +9559,7 @@
       <c r="B1" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="C1" s="10"/>
+      <c r="C1" s="2"/>
       <c r="D1" s="4" t="s">
         <v>626</v>
       </c>
@@ -9706,7 +9697,7 @@
       <c r="B11" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="4" t="s">
         <v>655</v>
       </c>
@@ -9732,7 +9723,7 @@
       <c r="B13" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="4" t="s">
         <v>660</v>
       </c>
@@ -9744,7 +9735,7 @@
       <c r="B14" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="4" t="s">
         <v>662</v>
       </c>
@@ -10008,7 +9999,7 @@
       <c r="B33" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="C33" s="10"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="4" t="s">
         <v>718</v>
       </c>
@@ -10020,7 +10011,7 @@
       <c r="B34" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="C34" s="10"/>
+      <c r="C34" s="2"/>
       <c r="D34" s="4" t="s">
         <v>720</v>
       </c>
@@ -10060,7 +10051,7 @@
       <c r="B37" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="C37" s="10"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="4" t="s">
         <v>229</v>
       </c>
@@ -10072,7 +10063,7 @@
       <c r="B38" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="C38" s="10"/>
+      <c r="C38" s="2"/>
       <c r="D38" s="4" t="s">
         <v>729</v>
       </c>
@@ -10112,7 +10103,7 @@
       <c r="B41" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="C41" s="10"/>
+      <c r="C41" s="2"/>
       <c r="D41" s="4" t="s">
         <v>737</v>
       </c>
@@ -10124,7 +10115,7 @@
       <c r="B42" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="C42" s="10"/>
+      <c r="C42" s="2"/>
       <c r="D42" s="4" t="s">
         <v>739</v>
       </c>
@@ -10136,7 +10127,7 @@
       <c r="B43" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="C43" s="10"/>
+      <c r="C43" s="2"/>
       <c r="D43" s="4" t="s">
         <v>741</v>
       </c>
@@ -10148,7 +10139,7 @@
       <c r="B44" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="2"/>
       <c r="D44" s="4" t="s">
         <v>743</v>
       </c>
@@ -10158,7 +10149,7 @@
       <c r="B45" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="C45" s="10"/>
+      <c r="C45" s="2"/>
       <c r="D45" s="4" t="s">
         <v>745</v>
       </c>
@@ -10168,7 +10159,7 @@
       <c r="B46" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="C46" s="10"/>
+      <c r="C46" s="2"/>
       <c r="D46" s="4" t="s">
         <v>747</v>
       </c>
@@ -10250,7 +10241,7 @@
       <c r="B52" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="C52" s="10"/>
+      <c r="C52" s="2"/>
       <c r="D52" s="4" t="s">
         <v>761</v>
       </c>
@@ -10348,7 +10339,7 @@
       <c r="B3" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="4" t="s">
         <v>498</v>
       </c>
@@ -10850,7 +10841,7 @@
       <c r="B39" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="C39" s="10"/>
+      <c r="C39" s="2"/>
       <c r="D39" s="4" t="s">
         <v>599</v>
       </c>
@@ -10876,7 +10867,7 @@
       <c r="B41" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="C41" s="10"/>
+      <c r="C41" s="2"/>
       <c r="D41" s="4" t="s">
         <v>603</v>
       </c>
@@ -10888,7 +10879,7 @@
       <c r="B42" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="C42" s="10"/>
+      <c r="C42" s="2"/>
       <c r="D42" s="4" t="s">
         <v>605</v>
       </c>
@@ -10914,7 +10905,7 @@
       <c r="B44" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="2"/>
       <c r="D44" s="4" t="s">
         <v>609</v>
       </c>
@@ -10926,7 +10917,7 @@
       <c r="B45" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -10954,7 +10945,7 @@
       <c r="B47" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="C47" s="10"/>
+      <c r="C47" s="2"/>
       <c r="D47" s="4" t="s">
         <v>617</v>
       </c>
@@ -10964,7 +10955,7 @@
       <c r="B48" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="2"/>
       <c r="D48" s="4" t="s">
         <v>619</v>
       </c>
@@ -10974,7 +10965,7 @@
       <c r="B49" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="C49" s="10"/>
+      <c r="C49" s="2"/>
       <c r="D49" s="4" t="s">
         <v>621</v>
       </c>
@@ -11017,7 +11008,7 @@
       <c r="A1" s="1">
         <v>3</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="2" t="s">
         <v>411</v>
       </c>
       <c r="C1" s="4"/>
@@ -11431,7 +11422,7 @@
   </sheetPr>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/dajiaxue/dajiaxue.xlsx
+++ b/dajiaxue/dajiaxue.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huaw\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AA8E41-0440-4F23-8884-DDB352AFC7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="1"/>
-    <sheet r:id="rId2" sheetId="2" name="2"/>
-    <sheet r:id="rId3" sheetId="3" name="3"/>
-    <sheet r:id="rId4" sheetId="4" name="4"/>
-    <sheet r:id="rId5" sheetId="5" name="5"/>
-    <sheet r:id="rId6" sheetId="6" name="6"/>
-    <sheet r:id="rId7" sheetId="7" name="7"/>
-    <sheet r:id="rId8" sheetId="8" name="8"/>
-    <sheet r:id="rId9" sheetId="9" name="9"/>
-    <sheet r:id="rId10" sheetId="10" name="10"/>
-    <sheet r:id="rId11" sheetId="11" name="11"/>
-    <sheet r:id="rId12" sheetId="12" name="12"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="2" r:id="rId2"/>
+    <sheet name="3" sheetId="3" r:id="rId3"/>
+    <sheet name="4" sheetId="4" r:id="rId4"/>
+    <sheet name="5" sheetId="5" r:id="rId5"/>
+    <sheet name="6" sheetId="6" r:id="rId6"/>
+    <sheet name="7" sheetId="7" r:id="rId7"/>
+    <sheet name="8" sheetId="8" r:id="rId8"/>
+    <sheet name="9" sheetId="9" r:id="rId9"/>
+    <sheet name="10" sheetId="10" r:id="rId10"/>
+    <sheet name="11" sheetId="11" r:id="rId11"/>
+    <sheet name="12" sheetId="12" r:id="rId12"/>
+    <sheet name="数量词" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="1378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="1388">
   <si>
     <t>おくります</t>
   </si>
@@ -252,9 +259,6 @@
     <t>~中</t>
   </si>
   <si>
-    <r>
-      <t/>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1239,9 +1243,6 @@
   </si>
   <si>
     <r>
-      <t/>
-    </r>
-    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
@@ -1333,9 +1334,6 @@
     <t>～まい</t>
   </si>
   <si>
-    <r>
-      <t/>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4289,17 +4287,56 @@
   <si>
     <t>请告诉我～</t>
   </si>
+  <si>
+    <t>も</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>しか</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>だけ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぐらい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>は</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在量词后表示多重厚长大</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在量词后表示少轻薄短小</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在量词后表示上限，即最多</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在量词后表示下限，即最少</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在量词后表示大概</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4326,6 +4363,26 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4355,56 +4412,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4415,10 +4470,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4456,71 +4511,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4548,7 +4603,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -4571,11 +4626,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -4584,13 +4639,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4600,7 +4655,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -4609,7 +4664,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -4618,7 +4673,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -4626,10 +4681,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -4694,7 +4749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -4702,15 +4757,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="7" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="37.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="40.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -4720,11 +4775,11 @@
       <c r="C1" s="2" t="s">
         <v>1253</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
+    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -4734,11 +4789,11 @@
       <c r="C2" s="2" t="s">
         <v>1256</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
+    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4748,11 +4803,11 @@
       <c r="C3" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
+    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4762,11 +4817,11 @@
       <c r="C4" s="2" t="s">
         <v>1262</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
+    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4776,11 +4831,11 @@
       <c r="C5" s="2" t="s">
         <v>1265</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
+    <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -4790,11 +4845,11 @@
       <c r="C6" s="2" t="s">
         <v>1268</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
+    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -4804,11 +4859,11 @@
       <c r="C7" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
+    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -4818,11 +4873,11 @@
       <c r="C8" s="2" t="s">
         <v>1273</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -4832,11 +4887,11 @@
       <c r="C9" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
+    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -4846,11 +4901,11 @@
       <c r="C10" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
+    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -4860,11 +4915,11 @@
       <c r="C11" s="3" t="s">
         <v>1282</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
+    <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -4874,11 +4929,11 @@
       <c r="C12" s="3" t="s">
         <v>1285</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
+    <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -4888,11 +4943,11 @@
       <c r="C13" s="3" t="s">
         <v>1288</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
+    <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -4902,11 +4957,11 @@
       <c r="C14" s="3" t="s">
         <v>1290</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
+    <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -4916,11 +4971,11 @@
       <c r="C15" s="3" t="s">
         <v>1293</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
+    <row r="16" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -4930,11 +4985,11 @@
       <c r="C16" s="3" t="s">
         <v>1295</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="24.75">
+    <row r="17" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -4944,11 +4999,11 @@
       <c r="C17" s="3" t="s">
         <v>1297</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="24.75">
+    <row r="18" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -4958,11 +5013,11 @@
       <c r="C18" s="3" t="s">
         <v>1300</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24.75">
+    <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -4972,12 +5027,12 @@
       <c r="C19" s="3" t="s">
         <v>1303</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.75">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="10" t="s">
         <v>1305</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4986,12 +5041,12 @@
       <c r="C20" s="3" t="s">
         <v>1307</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="13">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="11">
         <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -5000,12 +5055,12 @@
       <c r="C21" s="3" t="s">
         <v>1310</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="13">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="11">
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -5014,12 +5069,12 @@
       <c r="C22" s="3" t="s">
         <v>1313</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="13">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="11">
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -5028,24 +5083,24 @@
       <c r="C23" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="13">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="11">
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>1318</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="4" t="s">
+      <c r="D24" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="13">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="11">
         <v>0</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -5054,12 +5109,12 @@
       <c r="C25" s="3" t="s">
         <v>1321</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="13">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="11">
         <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -5068,12 +5123,12 @@
       <c r="C26" s="3" t="s">
         <v>1324</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="13">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="11">
         <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -5082,12 +5137,12 @@
       <c r="C27" s="3" t="s">
         <v>1327</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="13">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="11">
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -5096,36 +5151,36 @@
       <c r="C28" s="3" t="s">
         <v>1330</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="13">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="11">
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>1332</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="4" t="s">
+      <c r="D29" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="13">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="11">
         <v>3</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>1334</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="4" t="s">
+      <c r="D30" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="13">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="11">
         <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -5134,31 +5189,31 @@
       <c r="C31" s="3" t="s">
         <v>1337</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="3" t="s">
         <v>1339</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="4" t="s">
+      <c r="D32" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="24.75">
+    <row r="33" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="3" t="s">
         <v>1341</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="4" t="s">
+      <c r="D33" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="24.75">
+    <row r="34" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -5168,11 +5223,11 @@
       <c r="C34" s="3" t="s">
         <v>1344</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="24.75">
+    <row r="35" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -5180,11 +5235,11 @@
         <v>1346</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="4" t="s">
+      <c r="D35" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="24.75">
+    <row r="36" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -5194,11 +5249,11 @@
       <c r="C36" s="3" t="s">
         <v>1349</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="24.75">
+    <row r="37" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>5</v>
       </c>
@@ -5208,21 +5263,21 @@
       <c r="C37" s="3" t="s">
         <v>1351</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="24.75">
+    <row r="38" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="3" t="s">
         <v>1353</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="4" t="s">
+      <c r="D38" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.75">
+    <row r="39" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="3" t="s">
         <v>1355</v>
@@ -5230,11 +5285,11 @@
       <c r="C39" s="3" t="s">
         <v>1356</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="24.75">
+    <row r="40" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="3" t="s">
         <v>1358</v>
@@ -5242,11 +5297,11 @@
       <c r="C40" s="3" t="s">
         <v>1359</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="24.75">
+    <row r="41" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="3" t="s">
         <v>1361</v>
@@ -5254,21 +5309,21 @@
       <c r="C41" s="3" t="s">
         <v>1362</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="24.75">
+    <row r="42" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="3" t="s">
         <v>1364</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="4" t="s">
+      <c r="D42" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="24.75">
+    <row r="43" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="3" t="s">
         <v>1366</v>
@@ -5276,11 +5331,11 @@
       <c r="C43" s="3" t="s">
         <v>1367</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="24.75">
+    <row r="44" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="3" t="s">
         <v>1369</v>
@@ -5288,11 +5343,11 @@
       <c r="C44" s="3" t="s">
         <v>1370</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="24.75">
+    <row r="45" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="3" t="s">
         <v>1372</v>
@@ -5300,11 +5355,11 @@
       <c r="C45" s="3" t="s">
         <v>1373</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="24.75">
+    <row r="46" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="3" t="s">
         <v>1375</v>
@@ -5312,33 +5367,36 @@
       <c r="C46" s="3" t="s">
         <v>1376</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" t="s">
         <v>1377</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="32.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="29.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
+    <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>6</v>
       </c>
@@ -5348,11 +5406,11 @@
       <c r="C1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
+    <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5362,11 +5420,11 @@
       <c r="C2" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="24.75">
+    <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5376,11 +5434,11 @@
       <c r="C3" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
+    <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -5390,11 +5448,11 @@
       <c r="C4" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24.75">
+    <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -5404,11 +5462,11 @@
       <c r="C5" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24.75">
+    <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -5418,11 +5476,11 @@
       <c r="C6" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
+    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -5432,11 +5490,11 @@
       <c r="C7" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24.75">
+    <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -5446,11 +5504,11 @@
       <c r="C8" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>270</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -5460,11 +5518,11 @@
       <c r="C9" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
+    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -5474,11 +5532,11 @@
       <c r="C10" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
+    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -5488,11 +5546,11 @@
       <c r="C11" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>279</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
+    <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -5502,11 +5560,11 @@
       <c r="C12" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>282</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
+    <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -5516,11 +5574,11 @@
       <c r="C13" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
+    <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -5530,11 +5588,11 @@
       <c r="C14" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>288</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
+    <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -5544,11 +5602,11 @@
       <c r="C15" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>291</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
+    <row r="16" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -5558,11 +5616,11 @@
       <c r="C16" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>294</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="24.75">
+    <row r="17" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -5572,11 +5630,11 @@
       <c r="C17" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>297</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="24.75">
+    <row r="18" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -5586,11 +5644,11 @@
       <c r="C18" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" t="s">
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24.75">
+    <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -5600,11 +5658,11 @@
       <c r="C19" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" t="s">
         <v>303</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.75">
+    <row r="20" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -5612,11 +5670,11 @@
         <v>304</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>305</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="24.75">
+    <row r="21" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -5626,11 +5684,11 @@
       <c r="C21" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" t="s">
         <v>308</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="24.75">
+    <row r="22" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -5640,11 +5698,11 @@
       <c r="C22" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>310</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="24.75">
+    <row r="23" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -5654,11 +5712,11 @@
       <c r="C23" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>313</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -5668,11 +5726,11 @@
       <c r="C24" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" t="s">
         <v>316</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -5680,11 +5738,11 @@
         <v>317</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="4" t="s">
+      <c r="D25" t="s">
         <v>318</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -5694,11 +5752,11 @@
       <c r="C26" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" t="s">
         <v>321</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -5708,11 +5766,11 @@
       <c r="C27" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" t="s">
         <v>324</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="3" t="s">
         <v>325</v>
@@ -5720,17 +5778,18 @@
       <c r="C28" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" t="s">
         <v>327</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -5738,15 +5797,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -5756,11 +5815,11 @@
       <c r="C1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -5770,11 +5829,11 @@
       <c r="C2" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -5784,11 +5843,11 @@
       <c r="C3" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -5798,11 +5857,11 @@
       <c r="C4" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -5812,11 +5871,11 @@
       <c r="C5" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5826,11 +5885,11 @@
       <c r="C6" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -5840,11 +5899,11 @@
       <c r="C7" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -5854,11 +5913,11 @@
       <c r="C8" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -5868,11 +5927,11 @@
       <c r="C9" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -5882,11 +5941,11 @@
       <c r="C10" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -5896,11 +5955,11 @@
       <c r="C11" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -5910,11 +5969,11 @@
       <c r="C12" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -5924,11 +5983,11 @@
       <c r="C13" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -5938,11 +5997,11 @@
       <c r="C14" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>173</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -5952,11 +6011,11 @@
       <c r="C15" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -5966,11 +6025,11 @@
       <c r="C16" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>179</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -5980,11 +6039,11 @@
       <c r="C17" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -5994,11 +6053,11 @@
       <c r="C18" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" t="s">
         <v>185</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -6008,11 +6067,11 @@
       <c r="C19" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -6022,11 +6081,11 @@
       <c r="C20" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>191</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -6036,11 +6095,11 @@
       <c r="C21" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" t="s">
         <v>194</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -6050,11 +6109,11 @@
       <c r="C22" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>197</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -6064,11 +6123,11 @@
       <c r="C23" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -6078,11 +6137,11 @@
       <c r="C24" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" t="s">
         <v>203</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -6092,11 +6151,11 @@
       <c r="C25" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" t="s">
         <v>206</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -6106,11 +6165,11 @@
       <c r="C26" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" t="s">
         <v>209</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -6120,11 +6179,11 @@
       <c r="C27" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" t="s">
         <v>212</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -6134,11 +6193,11 @@
       <c r="C28" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" t="s">
         <v>215</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -6148,11 +6207,11 @@
       <c r="C29" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" t="s">
         <v>218</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -6162,11 +6221,11 @@
       <c r="C30" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" t="s">
         <v>221</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -6176,11 +6235,11 @@
       <c r="C31" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" t="s">
         <v>224</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -6190,11 +6249,11 @@
       <c r="C32" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" t="s">
         <v>227</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -6202,11 +6261,11 @@
         <v>228</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="4" t="s">
+      <c r="D33" t="s">
         <v>229</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -6214,11 +6273,11 @@
         <v>230</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="4" t="s">
+      <c r="D34" t="s">
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -6226,11 +6285,11 @@
         <v>232</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="4" t="s">
+      <c r="D35" t="s">
         <v>233</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -6238,11 +6297,11 @@
         <v>234</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="4" t="s">
+      <c r="D36" t="s">
         <v>235</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -6252,11 +6311,11 @@
       <c r="C37" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" t="s">
         <v>238</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -6266,11 +6325,11 @@
       <c r="C38" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" t="s">
         <v>240</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -6280,11 +6339,11 @@
       <c r="C39" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" t="s">
         <v>243</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -6294,11 +6353,11 @@
       <c r="C40" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" t="s">
         <v>245</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>3</v>
       </c>
@@ -6308,17 +6367,18 @@
       <c r="C41" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" t="s">
         <v>247</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -6326,15 +6386,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>4</v>
       </c>
@@ -6344,11 +6404,11 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -6358,11 +6418,11 @@
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -6372,11 +6432,11 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -6386,11 +6446,11 @@
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6400,11 +6460,11 @@
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -6414,11 +6474,11 @@
       <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -6428,11 +6488,11 @@
       <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -6442,11 +6502,11 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -6456,11 +6516,11 @@
       <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -6470,11 +6530,11 @@
       <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -6484,11 +6544,11 @@
       <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -6498,12 +6558,12 @@
       <c r="C12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -6512,11 +6572,11 @@
       <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -6526,11 +6586,11 @@
       <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -6540,11 +6600,11 @@
       <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -6554,11 +6614,11 @@
       <c r="C16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -6568,11 +6628,11 @@
       <c r="C17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -6582,11 +6642,11 @@
       <c r="C18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -6596,11 +6656,11 @@
       <c r="C19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -6610,11 +6670,11 @@
       <c r="C20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -6624,11 +6684,11 @@
       <c r="C21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -6638,11 +6698,11 @@
       <c r="C22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -6652,11 +6712,11 @@
       <c r="C23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -6666,11 +6726,11 @@
       <c r="C24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -6680,11 +6740,11 @@
       <c r="C25" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -6694,299 +6754,361 @@
       <c r="C26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>0</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" t="s">
         <v>81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>1</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>0</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" t="s">
         <v>90</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" t="s">
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>0</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" t="s">
         <v>96</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>3</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="4" t="s">
+      <c r="D34" t="s">
         <v>98</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>1</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="4" t="s">
+      <c r="D35" t="s">
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>1</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>101</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="4" t="s">
+      <c r="D36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>1</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>103</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="4" t="s">
+      <c r="D37" t="s">
         <v>104</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>1</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" t="s">
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>5</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>108</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" t="s">
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" t="s">
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>5</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" t="s">
         <v>115</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>1</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" t="s">
         <v>118</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" t="s">
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>122</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="4" t="s">
+      <c r="D44" t="s">
         <v>123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>124</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="4" t="s">
+      <c r="D45" t="s">
         <v>125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" t="s">
         <v>128</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>129</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="4" t="s">
+      <c r="D47" t="s">
         <v>130</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" t="s">
         <v>133</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0236CB0-DE43-4150-BCD4-3E83D44E3D09}">
+  <dimension ref="B1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B1" s="12" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="12" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="12" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -6994,15 +7116,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
+    <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>3</v>
       </c>
@@ -7012,203 +7134,187 @@
       <c r="C1" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
+    <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="24.75">
+    <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
+    <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24.75">
+    <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24.75">
+    <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
+    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24.75">
+    <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
+    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>885</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
+    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
+    <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
+    <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
+    <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
+    <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>0</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>1120</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
+    <row r="16" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>0</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -7218,25 +7324,25 @@
       <c r="C18" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>1129</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -7246,11 +7352,11 @@
       <c r="C20" s="3" t="s">
         <v>1132</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -7260,11 +7366,11 @@
       <c r="C21" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="24.75">
+    <row r="22" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -7274,11 +7380,11 @@
       <c r="C22" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="24.75">
+    <row r="23" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -7288,11 +7394,11 @@
       <c r="C23" s="3" t="s">
         <v>1140</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="24.75">
+    <row r="24" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -7302,11 +7408,11 @@
       <c r="C24" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="24.75">
+    <row r="25" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -7316,11 +7422,11 @@
       <c r="C25" s="3" t="s">
         <v>1146</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="24.75">
+    <row r="26" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -7330,11 +7436,11 @@
       <c r="C26" s="3" t="s">
         <v>1149</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="24.75">
+    <row r="27" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -7344,11 +7450,11 @@
       <c r="C27" s="3" t="s">
         <v>1152</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" t="s">
         <v>550</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="24.75">
+    <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -7358,11 +7464,11 @@
       <c r="C28" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="24.75">
+    <row r="29" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -7372,11 +7478,11 @@
       <c r="C29" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="24.75">
+    <row r="30" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -7386,11 +7492,11 @@
       <c r="C30" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="24.75">
+    <row r="31" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -7400,11 +7506,11 @@
       <c r="C31" s="3" t="s">
         <v>1163</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="24.75">
+    <row r="32" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -7414,11 +7520,11 @@
       <c r="C32" s="3" t="s">
         <v>1166</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="24.75">
+    <row r="33" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -7428,11 +7534,11 @@
       <c r="C33" s="3" t="s">
         <v>1169</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="24.75">
+    <row r="34" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -7442,11 +7548,11 @@
       <c r="C34" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="24.75">
+    <row r="35" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -7456,11 +7562,11 @@
       <c r="C35" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="24.75">
+    <row r="36" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -7470,11 +7576,11 @@
       <c r="C36" s="3" t="s">
         <v>1178</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="24.75">
+    <row r="37" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -7484,11 +7590,11 @@
       <c r="C37" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="24.75">
+    <row r="38" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -7498,11 +7604,11 @@
       <c r="C38" s="3" t="s">
         <v>1184</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.75">
+    <row r="39" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -7512,95 +7618,88 @@
       <c r="C39" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="24.75">
+    <row r="40" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>1</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>1189</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
+      <c r="D40" t="s">
         <v>125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>1</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4" t="s">
+      <c r="D41" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>1</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4" t="s">
+      <c r="D42" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>0</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4" t="s">
+      <c r="D43" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>1</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4" t="s">
+      <c r="D44" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>1</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>1198</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4" t="s">
+      <c r="D45" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>1</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4" t="s">
+      <c r="D46" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -7610,11 +7709,11 @@
       <c r="C47" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -7624,11 +7723,11 @@
       <c r="C48" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -7638,11 +7737,11 @@
       <c r="C49" s="3" t="s">
         <v>1207</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -7652,11 +7751,11 @@
       <c r="C50" s="3" t="s">
         <v>1209</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="3" t="s">
         <v>1210</v>
@@ -7664,11 +7763,11 @@
       <c r="C51" s="3" t="s">
         <v>1211</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -7678,11 +7777,11 @@
       <c r="C52" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -7692,11 +7791,11 @@
       <c r="C53" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>1</v>
       </c>
@@ -7706,11 +7805,11 @@
       <c r="C54" s="3" t="s">
         <v>1219</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -7720,11 +7819,11 @@
       <c r="C55" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -7734,11 +7833,11 @@
       <c r="C56" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" t="s">
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>0</v>
       </c>
@@ -7748,11 +7847,11 @@
       <c r="C57" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>1</v>
       </c>
@@ -7762,65 +7861,61 @@
       <c r="C58" s="3" t="s">
         <v>1228</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>1</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>1230</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" t="s">
         <v>1231</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
       <c r="B60" s="3" t="s">
         <v>1232</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4" t="s">
+      <c r="D60" t="s">
         <v>619</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
       <c r="B61" s="3" t="s">
         <v>1233</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4" t="s">
+      <c r="D61" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
       <c r="B62" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4" t="s">
+      <c r="D62" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
       <c r="B63" s="3" t="s">
         <v>1237</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4" t="s">
+      <c r="D63" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
       <c r="B64" s="3" t="s">
         <v>1239</v>
@@ -7828,69 +7923,66 @@
       <c r="C64" s="3" t="s">
         <v>1240</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
       <c r="B65" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4" t="s">
+      <c r="D65" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
       <c r="B66" s="3" t="s">
         <v>1244</v>
       </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4" t="s">
+      <c r="D66" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
       <c r="B67" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4" t="s">
+      <c r="D67" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
       <c r="B68" s="3" t="s">
         <v>1247</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" t="s">
         <v>1248</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
       <c r="B69" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4" t="s">
+      <c r="D69" t="s">
         <v>1251</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -7898,27 +7990,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="7" width="8.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="34.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="8.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
+    <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>954</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
+    <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -7928,25 +8019,25 @@
       <c r="C2" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>957</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
+    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>959</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>960</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
+    <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7956,11 +8047,11 @@
       <c r="C4" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>963</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24.75">
+    <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7970,11 +8061,11 @@
       <c r="C5" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>966</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24.75">
+    <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -7984,11 +8075,11 @@
       <c r="C6" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>969</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
+    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7998,11 +8089,11 @@
       <c r="C7" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>972</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24.75">
+    <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -8012,11 +8103,11 @@
       <c r="C8" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>975</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -8026,11 +8117,11 @@
       <c r="C9" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>978</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
+    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -8040,11 +8131,11 @@
       <c r="C10" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>981</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
+    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -8054,11 +8145,11 @@
       <c r="C11" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>984</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
+    <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -8068,11 +8159,11 @@
       <c r="C12" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>987</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
+    <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -8082,11 +8173,11 @@
       <c r="C13" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>989</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
+    <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -8096,11 +8187,11 @@
       <c r="C14" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>992</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
+    <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -8110,11 +8201,11 @@
       <c r="C15" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>995</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
+    <row r="16" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -8124,11 +8215,11 @@
       <c r="C16" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>998</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="24.75">
+    <row r="17" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -8138,11 +8229,11 @@
       <c r="C17" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="24.75">
+    <row r="18" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -8152,11 +8243,11 @@
       <c r="C18" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24.75">
+    <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -8166,11 +8257,11 @@
       <c r="C19" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.75">
+    <row r="20" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -8180,11 +8271,11 @@
       <c r="C20" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="24.75">
+    <row r="21" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -8194,11 +8285,11 @@
       <c r="C21" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="24.75">
+    <row r="22" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -8208,11 +8299,11 @@
       <c r="C22" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="24.75">
+    <row r="23" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -8222,11 +8313,11 @@
       <c r="C23" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="24.75">
+    <row r="24" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -8236,11 +8327,11 @@
       <c r="C24" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="24.75">
+    <row r="25" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -8250,11 +8341,11 @@
       <c r="C25" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="24.75">
+    <row r="26" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -8264,11 +8355,11 @@
       <c r="C26" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="24.75">
+    <row r="27" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -8278,11 +8369,11 @@
       <c r="C27" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="24.75">
+    <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -8292,11 +8383,11 @@
       <c r="C28" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -8306,11 +8397,11 @@
       <c r="C29" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -8320,11 +8411,11 @@
       <c r="C30" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>5</v>
       </c>
@@ -8334,11 +8425,11 @@
       <c r="C31" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -8348,11 +8439,11 @@
       <c r="C32" s="3" t="s">
         <v>1044</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -8362,11 +8453,11 @@
       <c r="C33" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>5</v>
       </c>
@@ -8376,11 +8467,11 @@
       <c r="C34" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -8390,11 +8481,11 @@
       <c r="C35" s="3" t="s">
         <v>1053</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -8404,11 +8495,11 @@
       <c r="C36" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="24.75">
+    <row r="37" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -8418,11 +8509,11 @@
       <c r="C37" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="24.75">
+    <row r="38" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -8432,35 +8523,33 @@
       <c r="C38" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.75">
+    <row r="39" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4" t="s">
+      <c r="D39" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="24.75">
+    <row r="40" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>1</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
+      <c r="D40" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="24.75">
+    <row r="41" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -8470,11 +8559,11 @@
       <c r="C41" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="24.75">
+    <row r="42" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -8484,35 +8573,33 @@
       <c r="C42" s="3" t="s">
         <v>1071</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4" t="s">
+      <c r="D43" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="24.75">
-      <c r="A44" s="5">
+    <row r="44" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="4">
         <v>1</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4" t="s">
+      <c r="D44" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="24.75">
+    <row r="45" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>0</v>
       </c>
@@ -8522,51 +8609,47 @@
       <c r="C45" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4" t="s">
+      <c r="D46" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="24.75">
+    <row r="47" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4" t="s">
+      <c r="D47" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="24.75">
+    <row r="48" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4" t="s">
+      <c r="D48" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="24.75">
+    <row r="49" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4" t="s">
+      <c r="D49" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
       <c r="B50" s="3" t="s">
         <v>1087</v>
@@ -8574,27 +8657,27 @@
       <c r="C50" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4" t="s">
+      <c r="D51" t="s">
         <v>1091</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -8602,16 +8685,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="11" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="4.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -8620,12 +8703,12 @@
       <c r="C1" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>860</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -8634,12 +8717,12 @@
       <c r="C2" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>863</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="24.75">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="8" t="s">
         <v>864</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -8648,12 +8731,12 @@
       <c r="C3" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>867</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="8" t="s">
         <v>868</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -8662,12 +8745,12 @@
       <c r="C4" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>871</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="8" t="s">
         <v>872</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -8676,12 +8759,12 @@
       <c r="C5" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>875</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
         <v>872</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -8690,12 +8773,12 @@
       <c r="C6" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>877</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
         <v>864</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -8704,12 +8787,12 @@
       <c r="C7" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>879</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="8" t="s">
         <v>880</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -8718,24 +8801,23 @@
       <c r="C8" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>883</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>885</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
         <v>872</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -8744,12 +8826,12 @@
       <c r="C10" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>888</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8" t="s">
         <v>880</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -8758,12 +8840,12 @@
       <c r="C11" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>891</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="8" t="s">
         <v>880</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -8772,12 +8854,12 @@
       <c r="C12" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>894</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
         <v>864</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -8786,12 +8868,12 @@
       <c r="C13" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>897</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
         <v>880</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -8800,12 +8882,12 @@
       <c r="C14" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>899</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="8" t="s">
         <v>872</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -8814,12 +8896,12 @@
       <c r="C15" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>902</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="8" t="s">
         <v>872</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -8828,12 +8910,12 @@
       <c r="C16" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>905</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="8" t="s">
         <v>880</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -8842,12 +8924,12 @@
       <c r="C17" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>908</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="8" t="s">
         <v>864</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -8856,12 +8938,12 @@
       <c r="C18" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" t="s">
         <v>911</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -8870,12 +8952,12 @@
       <c r="C19" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" t="s">
         <v>914</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="8" t="s">
         <v>864</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -8884,48 +8966,45 @@
       <c r="C20" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>917</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="8" t="s">
         <v>872</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>918</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
+      <c r="D21" t="s">
         <v>739</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="8" t="s">
         <v>880</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>920</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="8" t="s">
         <v>880</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>922</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="8" t="s">
         <v>880</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -8934,12 +9013,12 @@
       <c r="C24" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" t="s">
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="8" t="s">
         <v>872</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -8948,12 +9027,12 @@
       <c r="C25" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" t="s">
         <v>926</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="8" t="s">
         <v>872</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -8962,12 +9041,12 @@
       <c r="C26" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" t="s">
         <v>929</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="8" t="s">
         <v>872</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -8976,12 +9055,12 @@
       <c r="C27" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" t="s">
         <v>932</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -8990,12 +9069,12 @@
       <c r="C28" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" t="s">
         <v>934</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="8" t="s">
         <v>880</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -9004,21 +9083,20 @@
       <c r="C29" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" t="s">
         <v>937</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
+      <c r="D30" t="s">
         <v>939</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="3" t="s">
         <v>940</v>
@@ -9026,21 +9104,20 @@
       <c r="C31" s="3" t="s">
         <v>941</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" t="s">
         <v>942</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
+      <c r="D32" t="s">
         <v>944</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="3" t="s">
         <v>945</v>
@@ -9048,11 +9125,11 @@
       <c r="C33" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" t="s">
         <v>947</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="3" t="s">
         <v>948</v>
@@ -9060,27 +9137,27 @@
       <c r="C34" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" t="s">
         <v>950</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4" t="s">
+      <c r="D35" t="s">
         <v>952</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -9088,15 +9165,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="7" width="4.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>3</v>
       </c>
@@ -9106,11 +9183,11 @@
       <c r="C1" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>773</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -9120,11 +9197,11 @@
       <c r="C2" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>776</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9134,11 +9211,11 @@
       <c r="C3" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>779</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -9148,11 +9225,11 @@
       <c r="C4" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>782</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -9162,11 +9239,11 @@
       <c r="C5" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>785</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -9176,11 +9253,11 @@
       <c r="C6" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>788</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -9188,11 +9265,11 @@
         <v>789</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>790</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -9202,11 +9279,11 @@
       <c r="C8" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>793</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -9216,11 +9293,11 @@
       <c r="C9" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>796</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -9228,11 +9305,11 @@
         <v>797</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>798</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -9242,11 +9319,11 @@
       <c r="C11" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>801</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -9256,11 +9333,11 @@
       <c r="C12" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>804</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -9270,11 +9347,11 @@
       <c r="C13" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>807</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -9284,11 +9361,11 @@
       <c r="C14" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>809</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -9298,11 +9375,11 @@
       <c r="C15" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>812</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -9312,11 +9389,11 @@
       <c r="C16" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>815</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -9326,11 +9403,11 @@
       <c r="C17" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>818</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -9340,11 +9417,11 @@
       <c r="C18" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" t="s">
         <v>821</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -9354,11 +9431,11 @@
       <c r="C19" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" t="s">
         <v>824</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -9368,11 +9445,11 @@
       <c r="C20" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>827</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -9380,11 +9457,11 @@
         <v>828</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="4" t="s">
+      <c r="D21" t="s">
         <v>829</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -9392,11 +9469,11 @@
         <v>830</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>831</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -9406,11 +9483,11 @@
       <c r="C23" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>834</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -9418,11 +9495,11 @@
         <v>835</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="4" t="s">
+      <c r="D24" t="s">
         <v>836</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -9432,11 +9509,11 @@
       <c r="C25" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" t="s">
         <v>839</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -9444,11 +9521,11 @@
         <v>840</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="4" t="s">
+      <c r="D26" t="s">
         <v>841</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -9456,11 +9533,11 @@
         <v>842</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="4" t="s">
+      <c r="D27" t="s">
         <v>843</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -9468,11 +9545,11 @@
         <v>844</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="4" t="s">
+      <c r="D28" t="s">
         <v>845</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -9480,11 +9557,11 @@
         <v>846</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="4" t="s">
+      <c r="D29" t="s">
         <v>847</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -9494,31 +9571,31 @@
       <c r="C30" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" t="s">
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="3" t="s">
         <v>850</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="4" t="s">
+      <c r="D31" t="s">
         <v>851</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="3" t="s">
         <v>852</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="4" t="s">
+      <c r="D32" t="s">
         <v>853</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="3" t="s">
         <v>854</v>
@@ -9526,17 +9603,18 @@
       <c r="C33" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" t="s">
         <v>856</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -9544,15 +9622,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
+    <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>3</v>
       </c>
@@ -9560,11 +9638,11 @@
         <v>625</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
+    <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -9574,11 +9652,11 @@
       <c r="C2" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>629</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="24.75">
+    <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9588,11 +9666,11 @@
       <c r="C3" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>632</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
+    <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -9602,11 +9680,11 @@
       <c r="C4" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>635</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24.75">
+    <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -9616,11 +9694,11 @@
       <c r="C5" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>638</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24.75">
+    <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -9630,11 +9708,11 @@
       <c r="C6" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>641</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
+    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -9644,11 +9722,11 @@
       <c r="C7" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>644</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24.75">
+    <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -9658,11 +9736,11 @@
       <c r="C8" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>647</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -9672,11 +9750,11 @@
       <c r="C9" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>650</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
+    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -9686,11 +9764,11 @@
       <c r="C10" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>653</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
+    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -9698,11 +9776,11 @@
         <v>654</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>655</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
+    <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -9712,11 +9790,11 @@
       <c r="C12" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>658</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
+    <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -9724,11 +9802,11 @@
         <v>659</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>660</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
+    <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -9736,11 +9814,11 @@
         <v>661</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>662</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -9750,11 +9828,11 @@
       <c r="C15" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>665</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -9764,11 +9842,11 @@
       <c r="C16" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>668</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -9778,11 +9856,11 @@
       <c r="C17" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>671</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -9792,11 +9870,11 @@
       <c r="C18" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" t="s">
         <v>674</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -9806,11 +9884,11 @@
       <c r="C19" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" t="s">
         <v>677</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -9820,11 +9898,11 @@
       <c r="C20" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>680</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -9834,11 +9912,11 @@
       <c r="C21" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" t="s">
         <v>683</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -9848,11 +9926,11 @@
       <c r="C22" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>686</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -9862,11 +9940,11 @@
       <c r="C23" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>689</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -9876,11 +9954,11 @@
       <c r="C24" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" t="s">
         <v>692</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -9890,11 +9968,11 @@
       <c r="C25" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" t="s">
         <v>695</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -9904,11 +9982,11 @@
       <c r="C26" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" t="s">
         <v>698</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -9918,11 +9996,11 @@
       <c r="C27" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" t="s">
         <v>701</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -9932,11 +10010,11 @@
       <c r="C28" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" t="s">
         <v>704</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -9946,11 +10024,11 @@
       <c r="C29" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" t="s">
         <v>707</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -9960,11 +10038,11 @@
       <c r="C30" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" t="s">
         <v>710</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -9974,11 +10052,11 @@
       <c r="C31" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" t="s">
         <v>713</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -9988,11 +10066,11 @@
       <c r="C32" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" t="s">
         <v>716</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -10000,11 +10078,11 @@
         <v>717</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="4" t="s">
+      <c r="D33" t="s">
         <v>718</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -10012,11 +10090,11 @@
         <v>719</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="4" t="s">
+      <c r="D34" t="s">
         <v>720</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -10026,11 +10104,11 @@
       <c r="C35" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" t="s">
         <v>723</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -10040,11 +10118,11 @@
       <c r="C36" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" t="s">
         <v>726</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -10052,11 +10130,11 @@
         <v>727</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="4" t="s">
+      <c r="D37" t="s">
         <v>229</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -10064,11 +10142,11 @@
         <v>728</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="4" t="s">
+      <c r="D38" t="s">
         <v>729</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -10078,11 +10156,11 @@
       <c r="C39" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" t="s">
         <v>732</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -10092,11 +10170,11 @@
       <c r="C40" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" t="s">
         <v>735</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -10104,11 +10182,11 @@
         <v>736</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="4" t="s">
+      <c r="D41" t="s">
         <v>737</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -10116,11 +10194,11 @@
         <v>738</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="4" t="s">
+      <c r="D42" t="s">
         <v>739</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -10128,11 +10206,11 @@
         <v>740</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="4" t="s">
+      <c r="D43" t="s">
         <v>741</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -10140,31 +10218,31 @@
         <v>742</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="4" t="s">
+      <c r="D44" t="s">
         <v>743</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="3" t="s">
         <v>744</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="4" t="s">
+      <c r="D45" t="s">
         <v>745</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="3" t="s">
         <v>746</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="4" t="s">
+      <c r="D46" t="s">
         <v>747</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>3</v>
       </c>
@@ -10174,11 +10252,11 @@
       <c r="C47" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" t="s">
         <v>749</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -10188,11 +10266,11 @@
       <c r="C48" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" t="s">
         <v>752</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -10202,11 +10280,11 @@
       <c r="C49" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" t="s">
         <v>754</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -10216,11 +10294,11 @@
       <c r="C50" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" t="s">
         <v>756</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -10230,11 +10308,11 @@
       <c r="C51" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" t="s">
         <v>759</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -10242,11 +10320,11 @@
         <v>760</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="4" t="s">
+      <c r="D52" t="s">
         <v>761</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
       <c r="B53" s="3" t="s">
         <v>762</v>
@@ -10254,11 +10332,11 @@
       <c r="C53" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" t="s">
         <v>764</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
       <c r="B54" s="3" t="s">
         <v>765</v>
@@ -10266,11 +10344,11 @@
       <c r="C54" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" t="s">
         <v>767</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
       <c r="B55" s="3" t="s">
         <v>768</v>
@@ -10278,17 +10356,18 @@
       <c r="C55" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" t="s">
         <v>770</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -10296,15 +10375,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="37.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>4</v>
       </c>
@@ -10314,11 +10393,11 @@
       <c r="C1" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -10328,11 +10407,11 @@
       <c r="C2" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -10340,11 +10419,11 @@
         <v>497</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>498</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -10354,11 +10433,11 @@
       <c r="C4" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>501</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -10368,11 +10447,11 @@
       <c r="C5" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>504</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -10382,11 +10461,11 @@
       <c r="C6" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>507</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -10396,11 +10475,11 @@
       <c r="C7" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>510</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -10410,11 +10489,11 @@
       <c r="C8" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>513</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -10424,11 +10503,11 @@
       <c r="C9" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>516</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -10438,11 +10517,11 @@
       <c r="C10" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>519</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -10452,11 +10531,11 @@
       <c r="C11" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>522</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -10466,11 +10545,11 @@
       <c r="C12" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>264</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -10480,11 +10559,11 @@
       <c r="C13" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>525</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -10494,11 +10573,11 @@
       <c r="C14" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>528</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -10508,11 +10587,11 @@
       <c r="C15" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>531</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -10522,11 +10601,11 @@
       <c r="C16" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>534</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -10536,11 +10615,11 @@
       <c r="C17" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>536</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -10550,11 +10629,11 @@
       <c r="C18" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" t="s">
         <v>539</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -10564,11 +10643,11 @@
       <c r="C19" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" t="s">
         <v>542</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -10578,11 +10657,11 @@
       <c r="C20" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>544</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -10592,11 +10671,11 @@
       <c r="C21" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" t="s">
         <v>547</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -10606,11 +10685,11 @@
       <c r="C22" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>550</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -10620,11 +10699,11 @@
       <c r="C23" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>553</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -10634,361 +10713,362 @@
       <c r="C24" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" t="s">
         <v>556</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" t="s">
         <v>559</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" t="s">
         <v>562</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>0</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>563</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" t="s">
         <v>565</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>0</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" t="s">
         <v>568</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>0</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" t="s">
         <v>571</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>0</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" t="s">
         <v>573</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>0</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" t="s">
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>4</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" t="s">
         <v>579</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>0</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" t="s">
         <v>582</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" t="s">
         <v>585</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>5</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" t="s">
         <v>588</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>0</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" t="s">
         <v>591</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>3</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" t="s">
         <v>594</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" t="s">
         <v>597</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>0</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>598</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="4" t="s">
+      <c r="D39" t="s">
         <v>599</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>1</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" t="s">
         <v>601</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>0</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>602</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="4" t="s">
+      <c r="D41" t="s">
         <v>603</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>1</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>604</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="4" t="s">
+      <c r="D42" t="s">
         <v>605</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>1</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" t="s">
         <v>607</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>608</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="4" t="s">
+      <c r="D44" t="s">
         <v>609</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>0</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>610</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" t="s">
         <v>612</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>0</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" t="s">
         <v>615</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>1</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>616</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="4" t="s">
+      <c r="D47" t="s">
         <v>617</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>618</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="4" t="s">
+      <c r="D48" t="s">
         <v>619</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>620</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="4" t="s">
+      <c r="D49" t="s">
         <v>621</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" t="s">
         <v>624</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -10996,39 +11076,37 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="7" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="4.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -11038,23 +11116,22 @@
       <c r="C3" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>417</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -11064,11 +11141,11 @@
       <c r="C5" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>422</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -11078,11 +11155,11 @@
       <c r="C6" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>425</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -11092,11 +11169,11 @@
       <c r="C7" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>428</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -11106,11 +11183,11 @@
       <c r="C8" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>431</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -11120,11 +11197,11 @@
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>432</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -11134,11 +11211,11 @@
       <c r="C10" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>435</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -11148,11 +11225,11 @@
       <c r="C11" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>438</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -11162,11 +11239,11 @@
       <c r="C12" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>441</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
+    <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -11176,11 +11253,11 @@
       <c r="C13" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>444</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
+    <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -11190,11 +11267,11 @@
       <c r="C14" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>447</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
+    <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -11204,11 +11281,11 @@
       <c r="C15" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>450</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
+    <row r="16" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -11218,11 +11295,11 @@
       <c r="C16" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>453</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="24.75">
+    <row r="17" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -11232,11 +11309,11 @@
       <c r="C17" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>456</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="24.75">
+    <row r="18" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -11246,11 +11323,11 @@
       <c r="C18" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" t="s">
         <v>459</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24.75">
+    <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -11260,11 +11337,11 @@
       <c r="C19" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" t="s">
         <v>462</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.75">
+    <row r="20" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -11274,11 +11351,11 @@
       <c r="C20" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>465</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="24.75">
+    <row r="21" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -11288,11 +11365,11 @@
       <c r="C21" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" t="s">
         <v>468</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="24.75">
+    <row r="22" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -11302,11 +11379,11 @@
       <c r="C22" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>470</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="24.75">
+    <row r="23" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -11316,11 +11393,11 @@
       <c r="C23" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>473</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="24.75">
+    <row r="24" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -11330,11 +11407,11 @@
       <c r="C24" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" t="s">
         <v>476</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="24.75">
+    <row r="25" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -11344,47 +11421,44 @@
       <c r="C25" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" t="s">
         <v>479</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="24.75">
+    <row r="26" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
+      <c r="D26" t="s">
         <v>481</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="24.75">
+    <row r="27" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
+      <c r="D27" t="s">
         <v>483</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="24.75">
+    <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
+      <c r="D28" t="s">
         <v>485</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="24.75">
+    <row r="29" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -11394,45 +11468,45 @@
       <c r="C29" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" t="s">
         <v>488</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="24.75">
+    <row r="30" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
+      <c r="D30" t="s">
         <v>490</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="7" width="4.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="37.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="53.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="4.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>3</v>
       </c>
@@ -11442,25 +11516,25 @@
       <c r="C1" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>332</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -11470,11 +11544,11 @@
       <c r="C3" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>336</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -11484,11 +11558,11 @@
       <c r="C4" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>339</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -11498,11 +11572,11 @@
       <c r="C5" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -11512,11 +11586,11 @@
       <c r="C6" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
+    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -11526,11 +11600,11 @@
       <c r="C7" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>348</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24.75">
+    <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -11540,11 +11614,11 @@
       <c r="C8" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>351</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -11554,11 +11628,11 @@
       <c r="C9" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>354</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
+    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -11568,11 +11642,11 @@
       <c r="C10" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>357</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
+    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -11582,11 +11656,11 @@
       <c r="C11" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>360</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
+    <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -11596,11 +11670,11 @@
       <c r="C12" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
+    <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -11610,11 +11684,11 @@
       <c r="C13" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>366</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
+    <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -11624,11 +11698,11 @@
       <c r="C14" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>369</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
+    <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>9</v>
       </c>
@@ -11638,11 +11712,11 @@
       <c r="C15" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>372</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
+    <row r="16" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -11652,11 +11726,11 @@
       <c r="C16" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="24.75">
+    <row r="17" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -11666,23 +11740,22 @@
       <c r="C17" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>378</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="24.75">
+    <row r="18" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
+      <c r="D18" t="s">
         <v>380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24.75">
+    <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -11692,11 +11765,11 @@
       <c r="C19" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" t="s">
         <v>383</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.75">
+    <row r="20" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -11706,11 +11779,11 @@
       <c r="C20" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="24.75">
+    <row r="21" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -11720,11 +11793,11 @@
       <c r="C21" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" t="s">
         <v>389</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="24.75">
+    <row r="22" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -11734,21 +11807,20 @@
       <c r="C22" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="24.75">
+    <row r="23" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="24.75">
+    <row r="24" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -11758,11 +11830,11 @@
       <c r="C24" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" t="s">
         <v>397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="24.75">
+    <row r="25" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -11772,55 +11844,54 @@
       <c r="C25" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" t="s">
         <v>400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="24.75">
+    <row r="26" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
+      <c r="D26" t="s">
         <v>402</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="24.75">
+    <row r="27" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" t="s">
         <v>404</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" t="s">
         <v>405</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="24.75">
+    <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
+      <c r="D28" t="s">
         <v>407</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="24.75">
+    <row r="29" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" t="s">
         <v>409</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" t="s">
         <v>410</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dajiaxue/dajiaxue.xlsx
+++ b/dajiaxue/dajiaxue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huaw\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AA8E41-0440-4F23-8884-DDB352AFC7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48F5E7E-71CD-4357-A0C9-E21E03400B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="8820" windowHeight="10695" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,22 @@
     <sheet name="11" sheetId="11" r:id="rId11"/>
     <sheet name="12" sheetId="12" r:id="rId12"/>
     <sheet name="数量词" sheetId="13" r:id="rId13"/>
+    <sheet name="数" sheetId="14" r:id="rId14"/>
+    <sheet name="个" sheetId="15" r:id="rId15"/>
+    <sheet name="台" sheetId="22" r:id="rId16"/>
+    <sheet name="次" sheetId="21" r:id="rId17"/>
+    <sheet name="人" sheetId="16" r:id="rId18"/>
+    <sheet name="本" sheetId="17" r:id="rId19"/>
+    <sheet name="根" sheetId="18" r:id="rId20"/>
+    <sheet name="张" sheetId="19" r:id="rId21"/>
+    <sheet name="岁" sheetId="20" r:id="rId22"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="1388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="1729">
   <si>
     <t>おくります</t>
   </si>
@@ -4327,12 +4336,1376 @@
     <t>在量词后表示大概</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>一个</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>四个</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>五个</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>六个</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>七个</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>八个</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>九个</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十个</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>几个</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>いち</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>に</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>さん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ご</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろく</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>はち</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅう</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>几</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>なん~</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひとり</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふたり</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>二人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんにん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>よにん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>四人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごにん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>五人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろくにん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>六人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>はちにん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>八人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうにん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>九人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうにん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんにん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>何人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>しちにん｜ななにん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>七人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>四个人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>五个人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>六个人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>七个人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>八个人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>九个人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十个人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>几个人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>なな｜しち</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>よん｜し</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅう｜く</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>七</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>八</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>九</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>何</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっさつ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一冊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>にさつ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>二冊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんさつ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三冊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>よんさつ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>四冊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごさつ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろくさつ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>六冊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>五冊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ななさつ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>七冊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっさつ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>八冊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>九冊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうさつ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅっさつ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十冊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんさつ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>何冊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>两本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>四本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>五本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>六本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>七本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>八本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>九本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>几本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>にほん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっぽん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>二本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんぼん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>よんほん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごほん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろっぽん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ななほん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっぽん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうほん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうぽん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんぼん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>何本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一根</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>两根</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三根</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>四根</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>五根</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>六根</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>七根</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>八根</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>九根</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十根</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>几根</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>いちまい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一枚</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>にまい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>二枚</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんまい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三枚</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>よんまい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>四枚</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごまい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>五枚</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろくまい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>六枚</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ななまい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>七枚</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>はちまい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>八枚</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうまい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>九枚</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうまい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十枚</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんまい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>何枚</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一张</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>两张</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三张</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>四张</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>五张</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>六张</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>七张</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>八张</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>九张</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十张</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>几张</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっさい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一歳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>にさい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>二歳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんさい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三歳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>よんさい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>四歳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごさい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>五歳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろくさい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>六歳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ななさい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>七歳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっさい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>八歳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうさい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>九歳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうさい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十歳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんさい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>何歳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一岁</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>两岁</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三岁</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>四岁</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>五岁</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>六岁</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>七岁</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>八岁</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>九岁</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十岁</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>几岁</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅういち</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうに</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうさん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうよん｜じゅうし</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうご</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうろく</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうなな｜じゅうしち</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうはち</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうきゅう｜じゅうく</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十三</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十四</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十五</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十六</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十七</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十八</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十九</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>にじゅう</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんじゅう</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>よんじゅう</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごじゅう</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろくじゅう</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ななじゅう</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>はちじゅう</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうじゅう</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひゃく</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>二十</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三十</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>四十</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>五十</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>六十</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>七十</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>八十</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>九十</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>にひゃく</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんびゃく</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>よんひゃく</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごひゃく</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろっぴゃく</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ななひゃく</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっぴゃく</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうひゃく</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>百</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一百</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>二百</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三百</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>四百</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>五百</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>六百</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>七百</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>八百</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>九百</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>せん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんぜん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっせん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>千</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>八千</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一千</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>いちまん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一万</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうまん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十万</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひゃくまん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>百万</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんびゃくまん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三百万</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>六百万</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろっぴゃくまん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>八百万</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっぴゃくまん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一百万</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっかい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一回</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>にかい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>二回</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんかい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三回</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>よんかい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>四回</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごかい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>五回</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろっかい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>六回</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ななかい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>七回</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっかい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>八回</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうかい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>九回</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうかい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十回</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんかい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>何回</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三次</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>四次</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>五次</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>六次</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>七次</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>八次</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>九次</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十次</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>几次</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひとつ｜いっこ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一つ｜一個</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふたつ｜にこ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>二つ｜二個</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>みっつ｜さんこ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三つ｜三個</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>よっつ｜よんこ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>四つ｜四個</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>いつつ｜ごこ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>五つ｜五個</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>むっつ｜ろっこ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>六つ｜六個</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ななつ｜ななこ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>七つ｜七個</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>やっつ｜はっこ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>八つ｜八個</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ここのつ｜きゅうこ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>九つ｜九個</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>とお｜じゅっこ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十｜十個</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>いくつ｜なんこ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>幾つ｜何個</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>いちだい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一台</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>にだい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>二台</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんだい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三台</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>よんだい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>四台</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごだい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>五台</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろくだい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>六台</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ななだい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>七台</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>はちだい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>八台</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうだい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>九台</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうだい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十台</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんだい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>何台</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>几台</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4384,6 +5757,20 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4412,7 +5799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4448,6 +5835,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5795,7 +7184,7 @@
   </sheetPr>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A26" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7051,13 +8440,13 @@
   <dimension ref="B1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="4" max="4" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7099,6 +8488,1246 @@
       </c>
       <c r="D5" t="s">
         <v>1386</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5603A47-B4C8-4881-AF59-839C380BD59D}">
+  <dimension ref="B1:E46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="30.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="12" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="12" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="12" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="12" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="12" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="12" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B8" s="12" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B9" s="12" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B10" s="12" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B11" s="12" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B12" s="12" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B13" s="12" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B14" s="12" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B15" s="12" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B16" s="12" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B17" s="12" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B18" s="12" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B19" s="12" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B20" s="12" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B21" s="12" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="12" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B23" s="12" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B24" s="12" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B25" s="12" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B26" s="12" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B27" s="12" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B28" s="12" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B29" s="12" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B30" s="12" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B31" s="12" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B32" s="12" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B33" s="12" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B34" s="12" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B35" s="12" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B36" s="12" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B37" s="12" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B38" s="12" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B39" s="12" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B40" s="12" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B41" s="12" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B42" s="12" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B43" s="12" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B44" s="12" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B45" s="12" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B46" s="12" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B08D950-1786-43DF-886F-A7B01F00E3B7}">
+  <dimension ref="B1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B1" s="12" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="12" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="12" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="12" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="12" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="12" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B8" s="12" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B9" s="12" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B10" s="12" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B11" s="12" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FA4357-CD94-44CF-9964-01C01C4DA8D1}">
+  <dimension ref="B1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="12" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="12" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="12" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="12" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="12" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="12" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B8" s="12" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B9" s="12" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B10" s="12" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B11" s="12" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49392117-A1A6-46B7-9D83-E6C9166F121F}">
+  <dimension ref="B1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B1" s="12" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="12" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="12" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="12" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="12" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="12" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="12" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B8" s="12" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B9" s="12" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B10" s="12" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B11" s="12" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69760434-1131-4108-8AB7-DD280095B0B2}">
+  <dimension ref="B1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="12" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="12" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="12" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="12" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="12" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="12" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B8" s="12" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B9" s="12" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B10" s="12" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B11" s="12" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26282A7C-E1B5-4FD6-B5D3-3B2A7B01ED64}">
+  <dimension ref="B1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B1" s="12" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="12" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="12" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="12" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="12" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="12" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="12" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B8" s="12" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B9" s="12" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B10" s="12" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B11" s="12" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1487</v>
       </c>
     </row>
   </sheetData>
@@ -7981,6 +10610,429 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF944F8-D0CD-4D1B-8DA7-AAB7A34F674B}">
+  <dimension ref="B1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B1" s="12" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="12" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="12" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="12" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="12" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="12" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="12" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B8" s="12" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B9" s="12" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B10" s="12" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B11" s="12" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026C803B-1ACA-4732-BD4E-A1F22E1B885A}">
+  <dimension ref="B1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B1" s="12" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="12" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="12" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="12" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="12" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="12" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="12" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B8" s="12" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B9" s="12" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B10" s="12" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B11" s="12" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635143F8-CF24-4D69-813A-19E25B3D3DE7}">
+  <dimension ref="B1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="12" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="12" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="12" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="12" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="12" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="12" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B8" s="12" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B9" s="12" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B10" s="12" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B11" s="12" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>

--- a/dajiaxue/dajiaxue.xlsx
+++ b/dajiaxue/dajiaxue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huaw\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48F5E7E-71CD-4357-A0C9-E21E03400B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43272BD6-8D91-4418-B200-86BD1815991F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="8820" windowHeight="10695" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -25,23 +25,25 @@
     <sheet name="10" sheetId="10" r:id="rId10"/>
     <sheet name="11" sheetId="11" r:id="rId11"/>
     <sheet name="12" sheetId="12" r:id="rId12"/>
-    <sheet name="数量词" sheetId="13" r:id="rId13"/>
-    <sheet name="数" sheetId="14" r:id="rId14"/>
-    <sheet name="个" sheetId="15" r:id="rId15"/>
-    <sheet name="台" sheetId="22" r:id="rId16"/>
-    <sheet name="次" sheetId="21" r:id="rId17"/>
-    <sheet name="人" sheetId="16" r:id="rId18"/>
-    <sheet name="本" sheetId="17" r:id="rId19"/>
-    <sheet name="根" sheetId="18" r:id="rId20"/>
-    <sheet name="张" sheetId="19" r:id="rId21"/>
-    <sheet name="岁" sheetId="20" r:id="rId22"/>
+    <sheet name="13" sheetId="24" r:id="rId13"/>
+    <sheet name="14" sheetId="23" r:id="rId14"/>
+    <sheet name="数量词" sheetId="13" r:id="rId15"/>
+    <sheet name="数" sheetId="14" r:id="rId16"/>
+    <sheet name="个" sheetId="15" r:id="rId17"/>
+    <sheet name="台" sheetId="22" r:id="rId18"/>
+    <sheet name="次" sheetId="21" r:id="rId19"/>
+    <sheet name="人" sheetId="16" r:id="rId20"/>
+    <sheet name="本" sheetId="17" r:id="rId21"/>
+    <sheet name="根" sheetId="18" r:id="rId22"/>
+    <sheet name="张" sheetId="19" r:id="rId23"/>
+    <sheet name="岁" sheetId="20" r:id="rId24"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="1729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="1872">
   <si>
     <t>おくります</t>
   </si>
@@ -5698,6 +5700,578 @@
   </si>
   <si>
     <t>几台</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>つかいます</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいます</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>使います</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>買います</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>なおります</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>治ります</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>のみます</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>飲みます</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>すいます</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸います</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>はれます</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴れます</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>すみます</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>きます</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>着ます</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>住みます</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>のります</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>乗ります</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>のりかえます</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>乗り換えます</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>まがります</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲がります</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>かよいます</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通います</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>かかります</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ならびます</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>並びます</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>すてます</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>捨てます</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふります</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>降ります</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>心配します</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>しんぱいします</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>けっこんします</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>結婚します</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほしい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲しい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>だめ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>駄目</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ジュース</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>juice</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>びじゅつかん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>美術館</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>かぜ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>風邪</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>くすり</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>薬</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>えんそく</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>遠足</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>にっき</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日記</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょく</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>じしん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>地震</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>テレビ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>television</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>サイズ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>きっぷ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>切符</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>きそく</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>規則</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>キャンパス</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>campus</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>みぎ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>右</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごみ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>うみ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>海</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>せかいいっしゅう</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界一周</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>おおトロ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>大トロ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>がくえんさい</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>学園祭</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>けいたいでんわ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>携帯電話</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ほうめん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>～方面</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>なつやすみ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏休み</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>これから</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>はじめて</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>初めて</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>シャープ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHARP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>つくばエクスプレス</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>筑波エクスプレス</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>つくばだいがく</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>筑波大学</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>うえの</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>上野</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>やまのてさん</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>山手線</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>たいへんですね</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>大変ですね</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>真辛苦啊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>票</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>校园</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>环游世界</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲔鱼前腹肉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本学校的园游会活动</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>~方向</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暑假</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本sharp公司</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>筑波快线列车</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>山手线</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>感冒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>药</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>远足</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>买</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>治好、痊愈</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>服用（药）、喝</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽（烟）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天晴、放晴</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>居住</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭乘</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>转乘</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>转弯</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>来往</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>排队</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢弃</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>下（雨）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>担心</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>结婚</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>想要</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>不行</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>果汁</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术馆</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -8436,10 +9010,734 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5C5136-C698-4767-9DB9-D277D40D3181}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB82037-FB71-44A1-B4B9-F424F5C06D0F}">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B50" s="12" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0236CB0-DE43-4150-BCD4-3E83D44E3D09}">
   <dimension ref="B1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -8496,7 +9794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5603A47-B4C8-4881-AF59-839C380BD59D}">
   <dimension ref="B1:E46"/>
   <sheetViews>
@@ -9031,7 +10329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B08D950-1786-43DF-886F-A7B01F00E3B7}">
   <dimension ref="B1:D11"/>
   <sheetViews>
@@ -9172,7 +10470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FA4357-CD94-44CF-9964-01C01C4DA8D1}">
   <dimension ref="B1:D11"/>
   <sheetViews>
@@ -9313,7 +10611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49392117-A1A6-46B7-9D83-E6C9166F121F}">
   <dimension ref="B1:D11"/>
   <sheetViews>
@@ -9446,288 +10744,6 @@
       </c>
       <c r="D11" t="s">
         <v>1683</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69760434-1131-4108-8AB7-DD280095B0B2}">
-  <dimension ref="B1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="12" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B3" s="12" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1430</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="12" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>1415</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B5" s="12" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>1417</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="12" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="12" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>1429</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B8" s="12" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>1421</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B9" s="12" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>1423</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B10" s="12" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B11" s="12" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>1427</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26282A7C-E1B5-4FD6-B5D3-3B2A7B01ED64}">
-  <dimension ref="B1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B1" s="12" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>1456</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="12" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B3" s="12" t="s">
-        <v>1459</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="12" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>1462</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B5" s="12" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>1466</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="12" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="12" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>1468</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B8" s="12" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>1470</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B9" s="12" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>1471</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B10" s="12" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>1474</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B11" s="12" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>1476</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1487</v>
       </c>
     </row>
   </sheetData>
@@ -10611,6 +11627,288 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69760434-1131-4108-8AB7-DD280095B0B2}">
+  <dimension ref="B1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="12" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="12" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="12" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="12" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="12" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="12" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B8" s="12" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B9" s="12" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B10" s="12" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B11" s="12" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26282A7C-E1B5-4FD6-B5D3-3B2A7B01ED64}">
+  <dimension ref="B1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B1" s="12" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="12" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="12" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="12" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="12" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="12" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="12" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B8" s="12" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B9" s="12" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B10" s="12" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B11" s="12" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF944F8-D0CD-4D1B-8DA7-AAB7A34F674B}">
   <dimension ref="B1:D11"/>
   <sheetViews>
@@ -10751,7 +12049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026C803B-1ACA-4732-BD4E-A1F22E1B885A}">
   <dimension ref="B1:D11"/>
   <sheetViews>
@@ -10892,7 +12190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635143F8-CF24-4D69-813A-19E25B3D3DE7}">
   <dimension ref="B1:D11"/>
   <sheetViews>
